--- a/文档/其他文档/Others/Sports/The stats of Fernando Alonso in Formula One.xlsx
+++ b/文档/其他文档/Others/Sports/The stats of Fernando Alonso in Formula One.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="535">
   <si>
     <t>Fernando Alonso F1 Championships Summary</t>
   </si>
@@ -1343,10 +1343,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Hard Rock Stadium Circuit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Autodromo Hermanos Rodriguez</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1754,22 +1750,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>countries</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>in</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>circuits</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">poles  </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>on</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1786,14 +1770,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>countries</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>circuits</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>on</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1802,10 +1778,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>podiums</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Fernando Alonso had got</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1920,6 +1892,41 @@
   </si>
   <si>
     <t>Aston Martin AMR23</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aston Martin AMR24</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Las Vegas GP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miami International Autodromo</t>
+  </si>
+  <si>
+    <t>Las Vegas Street Circuit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miami International Autodromo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Countries</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circuits</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Poles  </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Countries</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2265,7 +2272,7 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2513,6 +2520,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2530,16 +2550,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2595,7 +2605,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2609,7 +2618,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$B$30</c:f>
+              <c:f>Summary!$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2630,10 +2639,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$A$31:$A$49</c:f>
+              <c:f>Summary!$A$32:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2001</c:v>
                 </c:pt>
@@ -2690,16 +2699,22 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$B$31:$B$49</c:f>
+              <c:f>Summary!$B$32:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>23</c:v>
                 </c:pt>
@@ -2753,6 +2768,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2768,11 +2786,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="172877104"/>
-        <c:axId val="172694760"/>
+        <c:axId val="362506496"/>
+        <c:axId val="362521920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="172877104"/>
+        <c:axId val="362506496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2782,7 +2800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172694760"/>
+        <c:crossAx val="362521920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2790,7 +2808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172694760"/>
+        <c:axId val="362521920"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2801,14 +2819,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172877104"/>
+        <c:crossAx val="362506496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2853,6 +2870,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2887,10 +2905,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Podiums!$A$111:$A$129</c:f>
+              <c:f>Podiums!$A$111:$A$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2001</c:v>
                 </c:pt>
@@ -2947,16 +2965,22 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Podiums!$B$111:$B$129</c:f>
+              <c:f>Podiums!$B$111:$B$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3010,6 +3034,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3025,11 +3052,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="128205608"/>
-        <c:axId val="174072472"/>
+        <c:axId val="363119656"/>
+        <c:axId val="363120048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128205608"/>
+        <c:axId val="363119656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3039,7 +3066,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174072472"/>
+        <c:crossAx val="363120048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3047,7 +3074,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174072472"/>
+        <c:axId val="363120048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3058,13 +3085,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128205608"/>
+        <c:crossAx val="363119656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3128,7 +3156,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Podiums!$B$132</c:f>
+              <c:f>Podiums!$B$134</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3140,9 +3168,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Podiums!$A$133:$A$166</c:f>
+              <c:f>Podiums!$A$135:$A$169</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>Abu Dhabi GP</c:v>
                 </c:pt>
@@ -3204,45 +3232,48 @@
                   <c:v>Korean GP</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>Las Vegas GP</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Malaysian GP</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>Mexican GP</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>Miami GP</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>Monaco GP</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v> Portuguese GP</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>Qatar GP</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>Russian GP</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>San Marino GP</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>Saudi Arabian GP</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>Singapore GP</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>Spanish GP</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>Styrian GP</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>Turkish GP</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>United States GP</c:v>
                 </c:pt>
               </c:strCache>
@@ -3250,10 +3281,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Podiums!$B$133:$B$166</c:f>
+              <c:f>Podiums!$B$135:$B$169</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3315,45 +3346,48 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3369,11 +3403,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="174073256"/>
-        <c:axId val="174073648"/>
+        <c:axId val="363120832"/>
+        <c:axId val="363121224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174073256"/>
+        <c:axId val="363120832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3383,7 +3417,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174073648"/>
+        <c:crossAx val="363121224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3391,7 +3425,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174073648"/>
+        <c:axId val="363121224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3402,7 +3436,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174073256"/>
+        <c:crossAx val="363120832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3472,7 +3506,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Podiums!$B$169</c:f>
+              <c:f>Podiums!$B$172</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3484,9 +3518,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Podiums!$A$170:$A$205</c:f>
+              <c:f>Podiums!$A$173:$A$209</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>Albert Park Circuit</c:v>
                 </c:pt>
@@ -3533,66 +3567,69 @@
                   <c:v>Fuji Speedway</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Hard Rock Stadium Circuit</c:v>
+                  <c:v>Hockenheimring</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Hockenheimring</c:v>
+                  <c:v>Hungaroring</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Hungaroring</c:v>
+                  <c:v>Indianapolis Circuit</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Indianapolis Circuit</c:v>
+                  <c:v>Istanbul Park</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Istanbul Park</c:v>
+                  <c:v>Korean International Circuit</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Korean International Circuit</c:v>
+                  <c:v>Jeddah Street Circuit</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Jeddah Street Circuit</c:v>
+                  <c:v>Las Vegas Street Circuit</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>Losail International Circuit</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>Miami International Autodromo</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>Monaco Circuit</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>Nurburgring</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>Portimão Circuit</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>Red Bull Ring</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>Sepang International Circuit</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>Shanghai International Circuit</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>Silverstone Circuit</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>Singapore Circuit</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>Sochi International Street Circuit</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>Spa Francorchamps Circuit</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>Suzuka Circuit</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>Valencia Street Circuit</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>Yas Marina Circuit</c:v>
                 </c:pt>
               </c:strCache>
@@ -3600,10 +3637,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Podiums!$B$170:$B$205</c:f>
+              <c:f>Podiums!$B$173:$B$209</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -3650,22 +3687,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -3674,42 +3711,45 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3725,11 +3765,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="174074432"/>
-        <c:axId val="174074824"/>
+        <c:axId val="363122008"/>
+        <c:axId val="387608216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174074432"/>
+        <c:axId val="363122008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3739,7 +3779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174074824"/>
+        <c:crossAx val="387608216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3747,7 +3787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174074824"/>
+        <c:axId val="387608216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3758,7 +3798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174074432"/>
+        <c:crossAx val="363122008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3828,7 +3868,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Podiums!$B$208</c:f>
+              <c:f>Podiums!$B$212</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3840,7 +3880,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Podiums!$A$209:$A$238</c:f>
+              <c:f>Podiums!$A$213:$A$242</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
@@ -3938,7 +3978,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Podiums!$B$209:$B$238</c:f>
+              <c:f>Podiums!$B$213:$B$242</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4045,11 +4085,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="174075608"/>
-        <c:axId val="174076000"/>
+        <c:axId val="387609000"/>
+        <c:axId val="387609392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174075608"/>
+        <c:axId val="387609000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4059,7 +4099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174076000"/>
+        <c:crossAx val="387609392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4067,7 +4107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174076000"/>
+        <c:axId val="387609392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4078,7 +4118,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174075608"/>
+        <c:crossAx val="387609000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4129,6 +4169,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4163,10 +4204,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Victories!$A$46:$A$64</c:f>
+              <c:f>Victories!$A$46:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2001</c:v>
                 </c:pt>
@@ -4223,16 +4264,22 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Victories!$B$46:$B$64</c:f>
+              <c:f>Victories!$B$46:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4285,6 +4332,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4301,11 +4351,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="172452928"/>
-        <c:axId val="172997352"/>
+        <c:axId val="362288496"/>
+        <c:axId val="362288880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="172452928"/>
+        <c:axId val="362288496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4315,7 +4365,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172997352"/>
+        <c:crossAx val="362288880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4323,7 +4373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172997352"/>
+        <c:axId val="362288880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4334,13 +4384,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172452928"/>
+        <c:crossAx val="362288496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4390,6 +4441,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4404,7 +4456,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Victories!$B$67</c:f>
+              <c:f>Victories!$B$69</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4416,9 +4468,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Victories!$A$68:$A$101</c:f>
+              <c:f>Victories!$A$70:$A$104</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>Abu Dhabi GP</c:v>
                 </c:pt>
@@ -4480,45 +4532,48 @@
                   <c:v>Korean GP</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>Las Vegas GP</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Malaysian GP</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>Mexican GP</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>Miami GP</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>Monaco GP</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v> Portuguese GP</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>Qatar GP</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>Russian GP</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>San Marino GP</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>Saudi Arabian GP</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>Singapore GP</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>Spanish GP</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>Styrian GP</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>Turkish GP</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>United States GP</c:v>
                 </c:pt>
               </c:strCache>
@@ -4526,10 +4581,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Victories!$B$68:$B$101</c:f>
+              <c:f>Victories!$B$70:$B$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4591,19 +4646,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -4612,24 +4667,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4645,11 +4703,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="172808368"/>
-        <c:axId val="172443208"/>
+        <c:axId val="362377568"/>
+        <c:axId val="362381024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="172808368"/>
+        <c:axId val="362377568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4659,7 +4717,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172443208"/>
+        <c:crossAx val="362381024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4667,7 +4725,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172443208"/>
+        <c:axId val="362381024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4678,13 +4736,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172808368"/>
+        <c:crossAx val="362377568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4748,7 +4807,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Victories!$B$104</c:f>
+              <c:f>Victories!$B$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4760,9 +4819,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Victories!$A$105:$A$140</c:f>
+              <c:f>Victories!$A$108:$A$144</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>Albert Park Circuit</c:v>
                 </c:pt>
@@ -4809,66 +4868,69 @@
                   <c:v>Fuji Speedway</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Hard Rock Stadium Circuit</c:v>
+                  <c:v>Hockenheimring</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Hockenheimring</c:v>
+                  <c:v>Hungaroring</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Hungaroring</c:v>
+                  <c:v>Indianapolis Circuit</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Indianapolis Circuit</c:v>
+                  <c:v>Istanbul Park</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Istanbul Park</c:v>
+                  <c:v>Korean International Circuit</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Korean International Circuit</c:v>
+                  <c:v>Jeddah Street Circuit</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Jeddah Street Circuit</c:v>
+                  <c:v>Las Vegas Street Circuit</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>Losail International Circuit</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>Miami International Autodromo</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>Monaco Circuit</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>Nurburgring</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>Portimão Circuit</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>Red Bull Ring</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>Sepang International Circuit</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>Shanghai International Circuit</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>Silverstone Circuit</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>Singapore Circuit</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>Sochi International Street Circuit</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>Spa Francorchamps Circuit</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>Suzuka Circuit</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>Valencia Street Circuit</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>Yas Marina Circuit</c:v>
                 </c:pt>
               </c:strCache>
@@ -4876,10 +4938,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Victories!$B$105:$B$140</c:f>
+              <c:f>Victories!$B$108:$B$144</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4926,22 +4988,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -4950,22 +5012,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>2</c:v>
@@ -4974,18 +5036,21 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5001,11 +5066,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="172439360"/>
-        <c:axId val="172439744"/>
+        <c:axId val="362340720"/>
+        <c:axId val="362341104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="172439360"/>
+        <c:axId val="362340720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5015,7 +5080,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172439744"/>
+        <c:crossAx val="362341104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5023,7 +5088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172439744"/>
+        <c:axId val="362341104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5034,7 +5099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172439360"/>
+        <c:crossAx val="362340720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5104,7 +5169,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Victories!$B$143</c:f>
+              <c:f>Victories!$B$147</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5116,7 +5181,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Victories!$A$144:$A$173</c:f>
+              <c:f>Victories!$A$148:$A$177</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
@@ -5214,7 +5279,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Victories!$B$144:$B$173</c:f>
+              <c:f>Victories!$B$148:$B$177</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -5321,11 +5386,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="172438136"/>
-        <c:axId val="173646680"/>
+        <c:axId val="363275664"/>
+        <c:axId val="363276048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="172438136"/>
+        <c:axId val="363275664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5335,7 +5400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173646680"/>
+        <c:crossAx val="363276048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5343,7 +5408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173646680"/>
+        <c:axId val="363276048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5354,7 +5419,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172438136"/>
+        <c:crossAx val="363275664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5405,6 +5470,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5439,10 +5505,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Poles!$A$35:$A$53</c:f>
+              <c:f>Poles!$A$35:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2001</c:v>
                 </c:pt>
@@ -5499,16 +5565,22 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Poles!$B$35:$B$53</c:f>
+              <c:f>Poles!$B$35:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5561,6 +5633,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5577,11 +5652,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="128206000"/>
-        <c:axId val="128206392"/>
+        <c:axId val="363114952"/>
+        <c:axId val="363115344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128206000"/>
+        <c:axId val="363114952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5591,7 +5666,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128206392"/>
+        <c:crossAx val="363115344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5599,7 +5674,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128206392"/>
+        <c:axId val="363115344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5610,13 +5685,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128206000"/>
+        <c:crossAx val="363114952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5680,7 +5756,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Poles!$B$55</c:f>
+              <c:f>Poles!$B$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5692,9 +5768,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Poles!$A$56:$A$89</c:f>
+              <c:f>Poles!$A$58:$A$92</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>Abu Dhabi GP</c:v>
                 </c:pt>
@@ -5756,45 +5832,48 @@
                   <c:v>Korean GP</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>Las Vegas GP</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Malaysian GP</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>Mexican GP</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>Miami GP</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>Monaco GP</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v> Portuguese GP</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>Qatar GP</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>Russian GP</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>San Marino GP</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>Saudi Arabian GP</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>Singapore GP</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>Spanish GP</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>Styrian GP</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>Turkish GP</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>United States GP</c:v>
                 </c:pt>
               </c:strCache>
@@ -5802,10 +5881,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Poles!$B$56:$B$89</c:f>
+              <c:f>Poles!$B$58:$B$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5867,19 +5946,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -5894,18 +5973,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5921,11 +6003,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="128204824"/>
-        <c:axId val="128204432"/>
+        <c:axId val="363116128"/>
+        <c:axId val="363116520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128204824"/>
+        <c:axId val="363116128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5935,7 +6017,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128204432"/>
+        <c:crossAx val="363116520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5943,7 +6025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128204432"/>
+        <c:axId val="363116520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5954,7 +6036,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128204824"/>
+        <c:crossAx val="363116128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6021,7 +6103,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Poles!$B$92</c:f>
+              <c:f>Poles!$B$95</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6033,9 +6115,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Poles!$A$93:$A$128</c:f>
+              <c:f>Poles!$A$96:$A$132</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>Albert Park Circuit</c:v>
                 </c:pt>
@@ -6082,66 +6164,69 @@
                   <c:v>Fuji Speedway</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Hard Rock Stadium Circuit</c:v>
+                  <c:v>Hockenheimring</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Hockenheimring</c:v>
+                  <c:v>Hungaroring</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Hungaroring</c:v>
+                  <c:v>Indianapolis Circuit</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Indianapolis Circuit</c:v>
+                  <c:v>Istanbul Park</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Istanbul Park</c:v>
+                  <c:v>Korean International Circuit</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Korean International Circuit</c:v>
+                  <c:v>Jeddah Street Circuit</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Jeddah Street Circuit</c:v>
+                  <c:v>Las Vegas Street Circuit</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>Losail International Circuit</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>Miami International Autodromo</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>Monaco Circuit</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>Nurburgring</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>Portimão Circuit</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>Red Bull Ring</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>Sepang International Circuit</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>Shanghai International Circuit</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>Silverstone Circuit</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>Singapore Circuit</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>Sochi International Street Circuit</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>Spa Francorchamps Circuit</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>Suzuka Circuit</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>Valencia Street Circuit</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>Yas Marina Circuit</c:v>
                 </c:pt>
               </c:strCache>
@@ -6149,10 +6234,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Poles!$B$93:$B$128</c:f>
+              <c:f>Poles!$B$96:$B$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6199,13 +6284,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -6223,31 +6308,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
@@ -6259,6 +6344,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6274,11 +6362,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="128203648"/>
-        <c:axId val="128207176"/>
+        <c:axId val="363117304"/>
+        <c:axId val="363117696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128203648"/>
+        <c:axId val="363117304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6288,7 +6376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128207176"/>
+        <c:crossAx val="363117696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6296,7 +6384,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128207176"/>
+        <c:axId val="363117696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6307,7 +6395,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128203648"/>
+        <c:crossAx val="363117304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6377,7 +6465,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Poles!$B$131</c:f>
+              <c:f>Poles!$B$135</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6389,7 +6477,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Poles!$A$132:$A$161</c:f>
+              <c:f>Poles!$A$136:$A$165</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
@@ -6487,7 +6575,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Poles!$B$132:$B$161</c:f>
+              <c:f>Poles!$B$136:$B$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -6594,11 +6682,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="128207960"/>
-        <c:axId val="174071688"/>
+        <c:axId val="363118480"/>
+        <c:axId val="363118872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128207960"/>
+        <c:axId val="363118480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6608,7 +6696,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174071688"/>
+        <c:crossAx val="363118872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6616,7 +6704,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174071688"/>
+        <c:axId val="363118872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6627,7 +6715,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128207960"/>
+        <c:crossAx val="363118480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6654,13 +6742,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6709,13 +6797,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6764,13 +6852,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6819,13 +6907,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6874,13 +6962,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6929,13 +7017,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6984,13 +7072,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7039,13 +7127,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7094,13 +7182,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7149,13 +7237,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7204,13 +7292,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7259,13 +7347,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7314,13 +7402,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7369,13 +7457,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7424,13 +7512,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7479,13 +7567,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7534,13 +7622,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7589,13 +7677,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7619,7 +7707,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -7669,7 +7757,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -7719,7 +7807,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -7746,6 +7834,56 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="638175" y="1162050"/>
+          <a:ext cx="152400" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="152400" cy="104775"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38" descr="United Kingdom"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="628650" y="685800"/>
           <a:ext cx="152400" cy="104775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9409,13 +9547,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9439,13 +9577,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>361950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9469,13 +9607,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>14285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10654,13 +10792,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10684,13 +10822,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10714,13 +10852,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>314323</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>14285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>219074</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15649,13 +15787,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15679,13 +15817,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15859,13 +15997,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>409573</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16314,7 +16452,7 @@
         <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -16374,7 +16512,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:O1"/>
@@ -16398,23 +16536,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
+      <c r="A1" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -16463,83 +16601,63 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="117" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="115">
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="109">
+        <v>2024</v>
+      </c>
+      <c r="B3" s="110" t="s">
+        <v>523</v>
+      </c>
+      <c r="C3" s="112" t="s">
+        <v>524</v>
+      </c>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="112" t="s">
+        <v>526</v>
+      </c>
+      <c r="M3" s="112">
+        <v>14</v>
+      </c>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+    </row>
+    <row r="4" spans="1:15" s="111" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="109">
         <v>2023</v>
       </c>
-      <c r="B3" s="116" t="s">
-        <v>530</v>
-      </c>
-      <c r="C3" s="118" t="s">
-        <v>531</v>
-      </c>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118" t="s">
-        <v>532</v>
-      </c>
-      <c r="M3" s="118">
+      <c r="B4" s="110" t="s">
+        <v>523</v>
+      </c>
+      <c r="C4" s="112" t="s">
+        <v>524</v>
+      </c>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112" t="s">
+        <v>525</v>
+      </c>
+      <c r="M4" s="112">
         <v>14</v>
       </c>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-    </row>
-    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="7">
-        <v>22</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>1119</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="M4" s="7">
-        <v>14</v>
-      </c>
-      <c r="N4" s="7">
-        <v>3.68</v>
-      </c>
-      <c r="O4" s="7">
-        <v>81</v>
-      </c>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
     </row>
     <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>368</v>
@@ -16557,22 +16675,22 @@
         <v>0</v>
       </c>
       <c r="G5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
       </c>
       <c r="J5" s="7">
-        <v>1259</v>
+        <v>1119</v>
       </c>
       <c r="K5" s="7">
         <v>0</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>477</v>
+        <v>522</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -16585,64 +16703,64 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="13">
-        <v>21</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0</v>
-      </c>
-      <c r="J6" s="13">
-        <v>978</v>
-      </c>
-      <c r="K6" s="13">
-        <v>0</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="M6" s="13">
+      <c r="D6" s="7">
+        <v>22</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1259</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="M6" s="7">
         <v>14</v>
       </c>
-      <c r="N6" s="13">
-        <v>2.38</v>
-      </c>
-      <c r="O6" s="13">
-        <v>50</v>
+      <c r="N6" s="7">
+        <v>3.68</v>
+      </c>
+      <c r="O6" s="7">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>364</v>
+        <v>18</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="13">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E7" s="13">
         <v>0</v>
@@ -16660,168 +16778,168 @@
         <v>0</v>
       </c>
       <c r="J7" s="13">
-        <v>833</v>
+        <v>978</v>
       </c>
       <c r="K7" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M7" s="13">
         <v>14</v>
       </c>
       <c r="N7" s="13">
+        <v>2.38</v>
+      </c>
+      <c r="O7" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="13">
+        <v>18</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>833</v>
+      </c>
+      <c r="K8" s="13">
+        <v>1</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="M8" s="13">
+        <v>14</v>
+      </c>
+      <c r="N8" s="13">
         <v>0.94</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O8" s="13">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="119">
+    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="113">
         <v>2016</v>
       </c>
-      <c r="B8" s="119" t="s">
+      <c r="B9" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C9" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="120">
+      <c r="D9" s="114">
         <v>20</v>
       </c>
-      <c r="E8" s="120">
-        <v>0</v>
-      </c>
-      <c r="F8" s="120">
-        <v>0</v>
-      </c>
-      <c r="G8" s="120">
-        <v>0</v>
-      </c>
-      <c r="H8" s="120">
-        <v>0</v>
-      </c>
-      <c r="I8" s="120">
-        <v>0</v>
-      </c>
-      <c r="J8" s="120">
+      <c r="E9" s="114">
+        <v>0</v>
+      </c>
+      <c r="F9" s="114">
+        <v>0</v>
+      </c>
+      <c r="G9" s="114">
+        <v>0</v>
+      </c>
+      <c r="H9" s="114">
+        <v>0</v>
+      </c>
+      <c r="I9" s="114">
+        <v>0</v>
+      </c>
+      <c r="J9" s="114">
         <v>1126</v>
       </c>
-      <c r="K8" s="120">
-        <v>1</v>
-      </c>
-      <c r="L8" s="120" t="s">
+      <c r="K9" s="114">
+        <v>1</v>
+      </c>
+      <c r="L9" s="114" t="s">
         <v>202</v>
       </c>
-      <c r="M8" s="120">
+      <c r="M9" s="114">
         <v>14</v>
       </c>
-      <c r="N8" s="120">
+      <c r="N9" s="114">
         <v>2.7</v>
       </c>
-      <c r="O8" s="120">
+      <c r="O9" s="114">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="119">
+    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="113">
         <v>2015</v>
       </c>
-      <c r="B9" s="119" t="s">
+      <c r="B10" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C10" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="120">
+      <c r="D10" s="114">
         <v>18</v>
       </c>
-      <c r="E9" s="120">
-        <v>0</v>
-      </c>
-      <c r="F9" s="120">
-        <v>0</v>
-      </c>
-      <c r="G9" s="120">
-        <v>0</v>
-      </c>
-      <c r="H9" s="120">
-        <v>0</v>
-      </c>
-      <c r="I9" s="120">
-        <v>0</v>
-      </c>
-      <c r="J9" s="120">
+      <c r="E10" s="114">
+        <v>0</v>
+      </c>
+      <c r="F10" s="114">
+        <v>0</v>
+      </c>
+      <c r="G10" s="114">
+        <v>0</v>
+      </c>
+      <c r="H10" s="114">
+        <v>0</v>
+      </c>
+      <c r="I10" s="114">
+        <v>0</v>
+      </c>
+      <c r="J10" s="114">
         <v>751</v>
       </c>
-      <c r="K9" s="120">
-        <v>0</v>
-      </c>
-      <c r="L9" s="120" t="s">
+      <c r="K10" s="114">
+        <v>0</v>
+      </c>
+      <c r="L10" s="114" t="s">
         <v>366</v>
       </c>
-      <c r="M9" s="120">
+      <c r="M10" s="114">
         <v>14</v>
       </c>
-      <c r="N9" s="120">
+      <c r="N10" s="114">
         <v>0.61</v>
       </c>
-      <c r="O9" s="120">
+      <c r="O10" s="114">
         <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>2014</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="17">
-        <v>18</v>
-      </c>
-      <c r="E10" s="17">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17">
-        <v>1</v>
-      </c>
-      <c r="G10" s="17">
-        <v>1</v>
-      </c>
-      <c r="H10" s="17">
-        <v>2</v>
-      </c>
-      <c r="I10" s="17">
-        <v>0</v>
-      </c>
-      <c r="J10" s="17">
-        <v>1066</v>
-      </c>
-      <c r="K10" s="17">
-        <v>0</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="M10" s="17">
-        <v>14</v>
-      </c>
-      <c r="N10" s="17">
-        <v>8.94</v>
-      </c>
-      <c r="O10" s="17">
-        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>19</v>
@@ -16830,45 +16948,45 @@
         <v>16</v>
       </c>
       <c r="D11" s="17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1</v>
+      </c>
+      <c r="G11" s="17">
+        <v>1</v>
+      </c>
+      <c r="H11" s="17">
         <v>2</v>
       </c>
-      <c r="F11" s="17">
-        <v>5</v>
-      </c>
-      <c r="G11" s="17">
-        <v>2</v>
-      </c>
-      <c r="H11" s="17">
-        <v>9</v>
-      </c>
       <c r="I11" s="17">
         <v>0</v>
       </c>
       <c r="J11" s="17">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="K11" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="M11" s="17">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N11" s="17">
-        <v>12.74</v>
+        <v>8.94</v>
       </c>
       <c r="O11" s="17">
-        <v>242</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>19</v>
@@ -16877,45 +16995,45 @@
         <v>16</v>
       </c>
       <c r="D12" s="17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="17">
         <v>5</v>
       </c>
       <c r="G12" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12" s="17">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I12" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" s="17">
-        <v>1095</v>
+        <v>1076</v>
       </c>
       <c r="K12" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>365</v>
+        <v>206</v>
       </c>
       <c r="M12" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N12" s="17">
-        <v>13.9</v>
+        <v>12.74</v>
       </c>
       <c r="O12" s="17">
-        <v>278</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>19</v>
@@ -16924,45 +17042,45 @@
         <v>16</v>
       </c>
       <c r="D13" s="17">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="17">
         <v>5</v>
       </c>
       <c r="G13" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" s="17">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I13" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="17">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="K13" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>222</v>
+        <v>365</v>
       </c>
       <c r="M13" s="17">
         <v>5</v>
       </c>
       <c r="N13" s="17">
-        <v>13.53</v>
+        <v>13.9</v>
       </c>
       <c r="O13" s="17">
-        <v>257</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>19</v>
@@ -16974,89 +17092,89 @@
         <v>19</v>
       </c>
       <c r="E14" s="17">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17">
         <v>5</v>
       </c>
-      <c r="F14" s="17">
-        <v>2</v>
-      </c>
       <c r="G14" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="17">
         <v>10</v>
       </c>
       <c r="I14" s="17">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
+        <v>1098</v>
+      </c>
+      <c r="K14" s="17">
+        <v>1</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="M14" s="17">
+        <v>5</v>
+      </c>
+      <c r="N14" s="17">
+        <v>13.53</v>
+      </c>
+      <c r="O14" s="17">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="17">
+        <v>19</v>
+      </c>
+      <c r="E15" s="17">
+        <v>5</v>
+      </c>
+      <c r="F15" s="17">
         <v>2</v>
       </c>
-      <c r="J14" s="17">
+      <c r="G15" s="17">
+        <v>3</v>
+      </c>
+      <c r="H15" s="17">
+        <v>10</v>
+      </c>
+      <c r="I15" s="17">
+        <v>2</v>
+      </c>
+      <c r="J15" s="17">
         <v>1120</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K15" s="17">
         <v>5</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L15" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M15" s="17">
         <v>8</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N15" s="17">
         <v>13.26</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O15" s="17">
         <v>252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
-        <v>2009</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="15">
-        <v>17</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15">
-        <v>1</v>
-      </c>
-      <c r="H15" s="15">
-        <v>1</v>
-      </c>
-      <c r="I15" s="15">
-        <v>1</v>
-      </c>
-      <c r="J15" s="15">
-        <v>843</v>
-      </c>
-      <c r="K15" s="15">
-        <v>2</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="M15" s="15">
-        <v>7</v>
-      </c>
-      <c r="N15" s="15">
-        <v>1.53</v>
-      </c>
-      <c r="O15" s="15">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>20</v>
@@ -17065,139 +17183,139 @@
         <v>14</v>
       </c>
       <c r="D16" s="15">
+        <v>17</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15">
+        <v>1</v>
+      </c>
+      <c r="I16" s="15">
+        <v>1</v>
+      </c>
+      <c r="J16" s="15">
+        <v>843</v>
+      </c>
+      <c r="K16" s="15">
+        <v>2</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="M16" s="15">
+        <v>7</v>
+      </c>
+      <c r="N16" s="15">
+        <v>1.53</v>
+      </c>
+      <c r="O16" s="15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>2008</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="15">
         <v>18</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E17" s="15">
         <v>2</v>
       </c>
-      <c r="F16" s="15">
-        <v>1</v>
-      </c>
-      <c r="G16" s="15">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
+      <c r="F17" s="15">
+        <v>1</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15">
         <v>3</v>
       </c>
-      <c r="I16" s="15">
-        <v>0</v>
-      </c>
-      <c r="J16" s="15">
+      <c r="I17" s="15">
+        <v>0</v>
+      </c>
+      <c r="J17" s="15">
         <v>1000</v>
       </c>
-      <c r="K16" s="15">
-        <v>0</v>
-      </c>
-      <c r="L16" s="15" t="s">
+      <c r="K17" s="15">
+        <v>0</v>
+      </c>
+      <c r="L17" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M17" s="15">
         <v>5</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N17" s="15">
         <v>3.39</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O17" s="15">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="18" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>2007</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D18" s="5">
         <v>17</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E18" s="5">
         <v>4</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F18" s="5">
         <v>4</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G18" s="5">
         <v>4</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H18" s="5">
         <v>12</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I18" s="5">
         <v>2</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J18" s="5">
         <v>1039</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K18" s="5">
         <v>3</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L18" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="M17" s="5">
-        <v>1</v>
-      </c>
-      <c r="N17" s="5">
+      <c r="M18" s="5">
+        <v>1</v>
+      </c>
+      <c r="N18" s="5">
         <v>6.41</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O18" s="5">
         <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>2006</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="7">
-        <v>18</v>
-      </c>
-      <c r="E18" s="7">
-        <v>7</v>
-      </c>
-      <c r="F18" s="7">
-        <v>7</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
-        <v>14</v>
-      </c>
-      <c r="I18" s="7">
-        <v>6</v>
-      </c>
-      <c r="J18" s="7">
-        <v>1108</v>
-      </c>
-      <c r="K18" s="7">
-        <v>5</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1</v>
-      </c>
-      <c r="N18" s="7">
-        <v>7.44</v>
-      </c>
-      <c r="O18" s="7">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>20</v>
@@ -17212,39 +17330,39 @@
         <v>7</v>
       </c>
       <c r="F19" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G19" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="7">
         <v>6</v>
       </c>
       <c r="J19" s="7">
-        <v>1074</v>
+        <v>1108</v>
       </c>
       <c r="K19" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>7.39</v>
+        <v>7.44</v>
       </c>
       <c r="O19" s="7">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>20</v>
@@ -17256,42 +17374,42 @@
         <v>18</v>
       </c>
       <c r="E20" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F20" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G20" s="7">
         <v>3</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I20" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J20" s="7">
-        <v>949</v>
+        <v>1074</v>
       </c>
       <c r="K20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M20" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>3.28</v>
+        <v>7.39</v>
       </c>
       <c r="O20" s="7">
-        <v>59</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>20</v>
@@ -17300,196 +17418,235 @@
         <v>14</v>
       </c>
       <c r="D21" s="7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="7">
         <v>1</v>
       </c>
       <c r="G21" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
       </c>
       <c r="I21" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" s="7">
-        <v>892</v>
+        <v>949</v>
       </c>
       <c r="K21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
       </c>
       <c r="N21" s="7">
+        <v>3.28</v>
+      </c>
+      <c r="O21" s="7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>2003</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="7">
+        <v>16</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7">
+        <v>2</v>
+      </c>
+      <c r="H22" s="7">
+        <v>4</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2</v>
+      </c>
+      <c r="J22" s="7">
+        <v>892</v>
+      </c>
+      <c r="K22" s="7">
+        <v>1</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M22" s="7">
+        <v>8</v>
+      </c>
+      <c r="N22" s="7">
         <v>3.44</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O22" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>2001</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D23" s="9">
         <v>17</v>
       </c>
-      <c r="E22" s="9">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9">
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9">
         <v>707</v>
       </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9" t="s">
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M23" s="9">
         <v>21</v>
       </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
-      <c r="O22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.15">
-      <c r="C23" s="18" t="s">
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.15">
+      <c r="C24" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="18">
-        <f>SUM(D4:D22)</f>
+      <c r="D24" s="18">
+        <f>SUM(D5:D23)</f>
         <v>355</v>
       </c>
-      <c r="E23" s="18">
-        <f t="shared" ref="E23:K23" si="0">SUM(E4:E22)</f>
+      <c r="E24" s="18">
+        <f t="shared" ref="E24:K24" si="0">SUM(E5:E23)</f>
         <v>32</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F24" s="18">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G24" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H24" s="18">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J24" s="18">
         <f t="shared" si="0"/>
         <v>19133</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="19">
-        <f>SUM(N4:N22)/19</f>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="19">
+        <f>SUM(N5:N23)/19</f>
         <v>5.7494736842105256</v>
       </c>
-      <c r="O23" s="18">
-        <f t="shared" ref="O23" si="1">SUM(O4:O22)</f>
+      <c r="O24" s="18">
+        <f t="shared" ref="O24" si="1">SUM(O5:O23)</f>
         <v>2061</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="C25" s="72" t="s">
+    <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="C26" s="72" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.15">
-      <c r="A29" s="109"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
-    </row>
     <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="21" t="s">
+      <c r="A30" s="116"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="117"/>
+    </row>
+    <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="21" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
-        <v>2001</v>
-      </c>
-      <c r="B31" s="20">
-        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="18" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B32" s="20">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B33" s="20">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B34" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B35" s="20">
         <v>1</v>
@@ -17497,55 +17654,55 @@
     </row>
     <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B36" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B37" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B38" s="20">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B39" s="20">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B40" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B41" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B42" s="20">
         <v>2</v>
@@ -17553,72 +17710,95 @@
     </row>
     <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B43" s="20">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B44" s="20">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B45" s="20">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B46" s="20">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B47" s="20">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B48" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B49" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
         <v>2022</v>
       </c>
-      <c r="B49" s="20"/>
+      <c r="B50" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B51" s="20"/>
+    </row>
+    <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B52" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L173"/>
+  <dimension ref="A1:L177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:L1"/>
@@ -17640,20 +17820,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="A2" s="31"/>
@@ -18936,7 +19116,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G36" s="7">
         <f>(A20-A34+1)+(A14-A15+1)</f>
@@ -18993,7 +19173,7 @@
       <c r="D39" s="7"/>
       <c r="E39" s="57"/>
       <c r="F39" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G39" s="7">
         <f>0</f>
@@ -19007,38 +19187,38 @@
     </row>
     <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="96" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B41" s="99">
-        <f>SUM(B46:B64)</f>
+        <f>SUM(B46:B66)</f>
         <v>32</v>
       </c>
       <c r="C41" s="73" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="96" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B42" s="99">
-        <f>SUM(C144:C173)</f>
+        <f>SUM(C148:C177)</f>
         <v>16</v>
       </c>
       <c r="C42" s="73" t="s">
-        <v>491</v>
+        <v>531</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="96" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B43" s="99">
-        <f>SUM(C105:C140)</f>
+        <f>SUM(C108:C144)</f>
         <v>19</v>
       </c>
       <c r="C43" s="73" t="s">
-        <v>492</v>
+        <v>532</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.15">
@@ -19207,79 +19387,69 @@
       <c r="A64" s="2">
         <v>2022</v>
       </c>
-      <c r="B64" s="20"/>
-    </row>
-    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.15">
-      <c r="A67" s="2" t="s">
+      <c r="B64" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A65" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B65" s="20"/>
+    </row>
+    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A66" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B66" s="20"/>
+    </row>
+    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B69" s="21" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B68" s="20">
-        <v>0</v>
-      </c>
-      <c r="C68" s="1">
-        <f t="shared" ref="C68:C101" si="0">IF(B68=0,0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B69" s="20">
-        <v>1</v>
-      </c>
-      <c r="C69" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="B70" s="20">
         <v>0</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C70:C104" si="0">IF(B70=0,0,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B71" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B72" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C72" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B73" s="20">
         <v>0</v>
@@ -19291,43 +19461,43 @@
     </row>
     <row r="74" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B74" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C74" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B75" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C75" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B76" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B77" s="20">
         <v>2</v>
@@ -19339,55 +19509,55 @@
     </row>
     <row r="78" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B78" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B79" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C79" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B80" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C80" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B81" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B82" s="20">
         <v>3</v>
@@ -19399,7 +19569,7 @@
     </row>
     <row r="83" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B83" s="20">
         <v>1</v>
@@ -19411,22 +19581,22 @@
     </row>
     <row r="84" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B84" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B85" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C85" s="1">
         <f t="shared" si="0"/>
@@ -19435,22 +19605,22 @@
     </row>
     <row r="86" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B86" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C86" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B87" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C87" s="1">
         <f t="shared" si="0"/>
@@ -19459,10 +19629,10 @@
     </row>
     <row r="88" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B88" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88" s="1">
         <f t="shared" si="0"/>
@@ -19471,19 +19641,19 @@
     </row>
     <row r="89" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>474</v>
+        <v>399</v>
       </c>
       <c r="B89" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>402</v>
+        <v>527</v>
       </c>
       <c r="B90" s="20">
         <v>0</v>
@@ -19495,10 +19665,10 @@
     </row>
     <row r="91" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B91" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C91" s="1">
         <f t="shared" si="0"/>
@@ -19507,7 +19677,7 @@
     </row>
     <row r="92" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>404</v>
+        <v>473</v>
       </c>
       <c r="B92" s="20">
         <v>0</v>
@@ -19519,7 +19689,7 @@
     </row>
     <row r="93" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B93" s="20">
         <v>0</v>
@@ -19531,31 +19701,31 @@
     </row>
     <row r="94" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>475</v>
+        <v>402</v>
       </c>
       <c r="B94" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C94" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B95" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B96" s="20">
         <v>0</v>
@@ -19567,22 +19737,22 @@
     </row>
     <row r="97" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="B97" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C97" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B98" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98" s="1">
         <f t="shared" si="0"/>
@@ -19591,7 +19761,7 @@
     </row>
     <row r="99" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B99" s="20">
         <v>0</v>
@@ -19603,102 +19773,102 @@
     </row>
     <row r="100" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B100" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C100" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B101" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C101" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B102" s="20">
+        <v>0</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B103" s="20">
+        <v>0</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B104" s="20">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B104" s="21" t="s">
+      <c r="B107" s="21" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B105" s="20">
-        <v>1</v>
-      </c>
-      <c r="C105" s="1">
-        <f t="shared" ref="C105:C140" si="1">IF(B105=0,0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B106" s="20">
-        <v>0</v>
-      </c>
-      <c r="C106" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B107" s="20">
-        <v>1</v>
-      </c>
-      <c r="C107" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B108" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C108:C144" si="1">IF(B108=0,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="B109" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C109" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B110" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C110" s="1">
         <f t="shared" si="1"/>
@@ -19707,7 +19877,7 @@
     </row>
     <row r="111" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="B111" s="20">
         <v>0</v>
@@ -19719,103 +19889,103 @@
     </row>
     <row r="112" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B112" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C112" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="B113" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C113" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="B114" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B115" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B116" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C116" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="B117" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="B118" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B119" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B120" s="20">
         <v>0</v>
@@ -19827,19 +19997,19 @@
     </row>
     <row r="121" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="B121" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C121" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="B122" s="20">
         <v>1</v>
@@ -19851,43 +20021,43 @@
     </row>
     <row r="123" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B123" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C123" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="B124" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B125" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="B126" s="20">
         <v>0</v>
@@ -19899,43 +20069,43 @@
     </row>
     <row r="127" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="B127" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="B128" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C128" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>348</v>
+        <v>529</v>
       </c>
       <c r="B129" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C129" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B130" s="20">
         <v>0</v>
@@ -19945,24 +20115,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>378</v>
+        <v>528</v>
       </c>
       <c r="B131" s="20">
         <v>0</v>
       </c>
-      <c r="C131" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="C131" s="1"/>
     </row>
     <row r="132" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B132" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C132" s="1">
         <f t="shared" si="1"/>
@@ -19971,7 +20138,7 @@
     </row>
     <row r="133" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="B133" s="20">
         <v>2</v>
@@ -19983,58 +20150,58 @@
     </row>
     <row r="134" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="B134" s="20">
-        <v>2</v>
-      </c>
-      <c r="C134" s="97">
+        <v>0</v>
+      </c>
+      <c r="C134" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="B135" s="20">
-        <v>2</v>
-      </c>
-      <c r="C135" s="97">
+        <v>0</v>
+      </c>
+      <c r="C135" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>476</v>
+        <v>346</v>
       </c>
       <c r="B136" s="20">
-        <v>0</v>
-      </c>
-      <c r="C136" s="97">
+        <v>3</v>
+      </c>
+      <c r="C136" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B137" s="20">
-        <v>0</v>
-      </c>
-      <c r="C137" s="97">
+        <v>2</v>
+      </c>
+      <c r="C137" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B138" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C138" s="97">
         <f t="shared" si="1"/>
@@ -20043,19 +20210,19 @@
     </row>
     <row r="139" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B139" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C139" s="97">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>340</v>
+        <v>475</v>
       </c>
       <c r="B140" s="20">
         <v>0</v>
@@ -20065,89 +20232,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="18" x14ac:dyDescent="0.15">
-      <c r="A143" s="100" t="s">
-        <v>497</v>
-      </c>
-      <c r="B143" s="101" t="s">
+    <row r="141" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B141" s="20">
+        <v>0</v>
+      </c>
+      <c r="C141" s="97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B142" s="20">
+        <v>1</v>
+      </c>
+      <c r="C142" s="97">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B143" s="20">
+        <v>1</v>
+      </c>
+      <c r="C143" s="97">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B144" s="20">
+        <v>0</v>
+      </c>
+      <c r="C144" s="97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A147" s="100" t="s">
+        <v>490</v>
+      </c>
+      <c r="B147" s="101" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="100" t="s">
-        <v>498</v>
-      </c>
-      <c r="B144" s="102">
-        <v>0</v>
-      </c>
-      <c r="C144" s="97">
-        <f t="shared" ref="C144:C173" si="2">IF(B144=0,0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="100" t="s">
-        <v>499</v>
-      </c>
-      <c r="B145" s="102">
-        <v>1</v>
-      </c>
-      <c r="C145" s="97">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="100" t="s">
-        <v>500</v>
-      </c>
-      <c r="B146" s="102">
-        <v>0</v>
-      </c>
-      <c r="C146" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="100" t="s">
-        <v>501</v>
-      </c>
-      <c r="B147" s="102">
-        <v>0</v>
-      </c>
-      <c r="C147" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A148" s="100" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="B148" s="102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C148" s="97">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" ref="C148:C177" si="2">IF(B148=0,0,1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A149" s="100" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="B149" s="102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" s="97">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A150" s="100" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="B150" s="102">
         <v>0</v>
@@ -20159,22 +20326,22 @@
     </row>
     <row r="151" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A151" s="100" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="B151" s="102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C151" s="97">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A152" s="100" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B152" s="102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C152" s="97">
         <f t="shared" si="2"/>
@@ -20183,34 +20350,34 @@
     </row>
     <row r="153" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A153" s="100" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="B153" s="102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C153" s="97">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A154" s="100" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="B154" s="102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" s="97">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A155" s="100" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B155" s="102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C155" s="97">
         <f t="shared" si="2"/>
@@ -20219,7 +20386,7 @@
     </row>
     <row r="156" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A156" s="100" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="B156" s="102">
         <v>1</v>
@@ -20231,22 +20398,22 @@
     </row>
     <row r="157" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A157" s="100" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="B157" s="102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C157" s="97">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A158" s="100" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="B158" s="102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C158" s="97">
         <f t="shared" si="2"/>
@@ -20255,10 +20422,10 @@
     </row>
     <row r="159" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A159" s="100" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="B159" s="102">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C159" s="97">
         <f t="shared" si="2"/>
@@ -20267,7 +20434,7 @@
     </row>
     <row r="160" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A160" s="100" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B160" s="102">
         <v>1</v>
@@ -20279,31 +20446,31 @@
     </row>
     <row r="161" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A161" s="100" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="B161" s="102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C161" s="97">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A162" s="100" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="B162" s="102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C162" s="97">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A163" s="100" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B163" s="102">
         <v>2</v>
@@ -20315,31 +20482,31 @@
     </row>
     <row r="164" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A164" s="100" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="B164" s="102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" s="97">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A165" s="100" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="B165" s="102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C165" s="97">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A166" s="100" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="B166" s="102">
         <v>0</v>
@@ -20351,31 +20518,31 @@
     </row>
     <row r="167" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A167" s="100" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="B167" s="102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C167" s="97">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A168" s="100" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="B168" s="102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" s="97">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A169" s="100" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="B169" s="102">
         <v>0</v>
@@ -20387,48 +20554,96 @@
     </row>
     <row r="170" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A170" s="100" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="B170" s="102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C170" s="97">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A171" s="100" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="B171" s="102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C171" s="97">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A172" s="100" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B172" s="102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" s="97">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A173" s="100" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="B173" s="102">
         <v>0</v>
       </c>
       <c r="C173" s="97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="100" t="s">
+        <v>517</v>
+      </c>
+      <c r="B174" s="102">
+        <v>2</v>
+      </c>
+      <c r="C174" s="97">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="100" t="s">
+        <v>518</v>
+      </c>
+      <c r="B175" s="102">
+        <v>3</v>
+      </c>
+      <c r="C175" s="97">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="100" t="s">
+        <v>519</v>
+      </c>
+      <c r="B176" s="102">
+        <v>0</v>
+      </c>
+      <c r="C176" s="97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="100" t="s">
+        <v>520</v>
+      </c>
+      <c r="B177" s="102">
+        <v>0</v>
+      </c>
+      <c r="C177" s="97">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20447,7 +20662,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O161"/>
+  <dimension ref="A1:O165"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:M1"/>
@@ -20472,21 +20687,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
@@ -21533,7 +21748,7 @@
       <c r="E28" s="71"/>
       <c r="F28" s="7"/>
       <c r="G28" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -21562,14 +21777,14 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="96" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B30" s="99">
-        <f>SUM(B35:B53)</f>
+        <f>SUM(B35:B55)</f>
         <v>22</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
       <c r="D30" s="73"/>
       <c r="E30" s="73"/>
@@ -21578,14 +21793,14 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="96" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B31" s="99">
-        <f>SUM(C132:C161)</f>
+        <f>SUM(C136:C165)</f>
         <v>13</v>
       </c>
       <c r="C31" s="73" t="s">
-        <v>483</v>
+        <v>534</v>
       </c>
       <c r="D31" s="73"/>
       <c r="E31" s="73"/>
@@ -21594,14 +21809,14 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="96" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B32" s="99">
-        <f>SUM(C92:C128)</f>
+        <f>SUM(C95:C132)</f>
         <v>14</v>
       </c>
       <c r="C32" s="73" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
       <c r="D32" s="73"/>
       <c r="E32" s="73"/>
@@ -21764,55 +21979,45 @@
       <c r="A53" s="2">
         <v>2022</v>
       </c>
-      <c r="B53" s="20"/>
+      <c r="B53" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B54" s="20"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B56" s="20">
-        <v>0</v>
-      </c>
-      <c r="C56" s="1">
-        <f t="shared" ref="C56:C88" si="0">IF(B56=0,0,1)</f>
-        <v>0</v>
-      </c>
+      <c r="A55" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B55" s="20"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B57" s="20">
-        <v>0</v>
-      </c>
-      <c r="C57" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>328</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>414</v>
+        <v>357</v>
       </c>
       <c r="B58" s="20">
         <v>0</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C58:C91" si="0">IF(B58=0,0,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B59" s="20">
         <v>0</v>
@@ -21824,19 +22029,19 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B60" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B61" s="20">
         <v>0</v>
@@ -21848,7 +22053,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B62" s="20">
         <v>1</v>
@@ -21860,19 +22065,19 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B63" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C63" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B64" s="20">
         <v>1</v>
@@ -21884,10 +22089,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B65" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65" s="1">
         <f t="shared" si="0"/>
@@ -21896,55 +22101,55 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B66" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B67" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C67" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B68" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B69" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C69" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B70" s="20">
         <v>1</v>
@@ -21956,7 +22161,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B71" s="20">
         <v>2</v>
@@ -21968,19 +22173,19 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B72" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B73" s="20">
         <v>2</v>
@@ -21992,7 +22197,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B74" s="20">
         <v>0</v>
@@ -22004,31 +22209,31 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B75" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C75" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B76" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C76" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>474</v>
+        <v>430</v>
       </c>
       <c r="B77" s="20">
         <v>0</v>
@@ -22040,19 +22245,15 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>433</v>
+        <v>527</v>
       </c>
       <c r="B78" s="20">
-        <v>0</v>
-      </c>
-      <c r="C78" s="1">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B79" s="20">
         <v>2</v>
@@ -22064,7 +22265,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="B80" s="20">
         <v>0</v>
@@ -22076,7 +22277,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B81" s="20">
         <v>0</v>
@@ -22088,19 +22289,19 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>475</v>
+        <v>433</v>
       </c>
       <c r="B82" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C82" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B83" s="20">
         <v>0</v>
@@ -22112,7 +22313,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B84" s="20">
         <v>0</v>
@@ -22124,31 +22325,31 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>439</v>
+        <v>474</v>
       </c>
       <c r="B85" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B86" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B87" s="20">
         <v>0</v>
@@ -22160,136 +22361,136 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B88" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B89" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" s="1">
-        <f>IF(B89=0,0,1)</f>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B90" s="20">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B91" s="20">
+        <v>0</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="C92" s="98"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B93" s="20">
-        <v>0</v>
-      </c>
-      <c r="C93" s="98">
-        <f t="shared" ref="C93:C121" si="1">IF(B93=0,0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B94" s="20">
-        <v>0</v>
-      </c>
-      <c r="C94" s="98">
-        <f t="shared" si="1"/>
+        <v>442</v>
+      </c>
+      <c r="B92" s="20">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
+        <f>IF(B92=0,0,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B95" s="20">
-        <v>0</v>
-      </c>
-      <c r="C95" s="98">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="C95" s="98"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B96" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" s="98">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C96:C125" si="1">IF(B96=0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="B97" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C97" s="98">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B98" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" s="98">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="B99" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" s="98">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B100" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C100" s="98">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="B101" s="20">
         <v>1</v>
@@ -22299,69 +22500,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="B102" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C102" s="98">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B103" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" s="98">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B104" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" s="98">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="B105" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C105" s="98">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="B106" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" s="98">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B107" s="20">
         <v>0</v>
@@ -22373,7 +22574,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B108" s="20">
         <v>0</v>
@@ -22385,55 +22586,55 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="B109" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" s="98">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="B110" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C110" s="98">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B111" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" s="98">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="B112" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C112" s="98">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B113" s="20">
         <v>0</v>
@@ -22445,7 +22646,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="B114" s="20">
         <v>0</v>
@@ -22457,7 +22658,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="B115" s="20">
         <v>0</v>
@@ -22469,70 +22670,64 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="B116" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C116" s="98">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>358</v>
+        <v>529</v>
       </c>
       <c r="B117" s="20">
-        <v>1</v>
-      </c>
-      <c r="C117" s="97">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C117" s="98"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B118" s="20">
         <v>0</v>
       </c>
-      <c r="C118" s="97">
+      <c r="C118" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>378</v>
+        <v>530</v>
       </c>
       <c r="B119" s="20">
         <v>0</v>
       </c>
-      <c r="C119" s="97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="C119" s="98"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B120" s="20">
         <v>2</v>
       </c>
-      <c r="C120" s="97">
+      <c r="C120" s="98">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="B121" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C121" s="97">
         <f t="shared" si="1"/>
@@ -22541,101 +22736,129 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="B122" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C122" s="97">
-        <f t="shared" ref="C122:C127" si="2">IF(B122=0,0,1)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="B123" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" s="97">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>476</v>
+        <v>346</v>
       </c>
       <c r="B124" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C124" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B125" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C125" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B126" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C126" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="C126:C131" si="2">IF(B126=0,0,1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B127" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" s="97">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B128" s="20">
+        <v>0</v>
+      </c>
+      <c r="C128" s="97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B129" s="20">
+        <v>0</v>
+      </c>
+      <c r="C129" s="97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B130" s="20">
+        <v>0</v>
+      </c>
+      <c r="C130" s="97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B131" s="20">
+        <v>0</v>
+      </c>
+      <c r="C131" s="97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B128" s="20">
-        <v>0</v>
-      </c>
-      <c r="C128" s="97">
-        <f>IF(B128=0,0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="104" t="s">
-        <v>497</v>
-      </c>
-      <c r="B131" s="105" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="104" t="s">
-        <v>498</v>
-      </c>
-      <c r="B132" s="106">
+      <c r="B132" s="20">
         <v>0</v>
       </c>
       <c r="C132" s="97">
@@ -22643,93 +22866,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="104" t="s">
-        <v>499</v>
-      </c>
-      <c r="B133" s="106">
-        <v>0</v>
-      </c>
-      <c r="C133" s="97">
-        <f t="shared" ref="C133:C161" si="3">IF(B133=0,0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="104" t="s">
-        <v>500</v>
-      </c>
-      <c r="B134" s="106">
-        <v>0</v>
-      </c>
-      <c r="C134" s="97">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="104" t="s">
-        <v>501</v>
-      </c>
-      <c r="B135" s="106">
-        <v>0</v>
-      </c>
-      <c r="C135" s="97">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>490</v>
+      </c>
+      <c r="B135" s="105" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="104" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="B136" s="106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" s="97">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>IF(B136=0,0,1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="104" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="B137" s="106">
         <v>0</v>
       </c>
       <c r="C137" s="97">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C137:C165" si="3">IF(B137=0,0,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="104" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="B138" s="106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" s="97">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="104" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="B139" s="106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C139" s="97">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="104" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B140" s="106">
         <v>1</v>
@@ -22741,22 +22936,22 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="104" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="B141" s="106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C141" s="97">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="104" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="B142" s="106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C142" s="97">
         <f t="shared" si="3"/>
@@ -22765,10 +22960,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="104" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B143" s="106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C143" s="97">
         <f t="shared" si="3"/>
@@ -22777,10 +22972,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="104" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="B144" s="106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C144" s="97">
         <f t="shared" si="3"/>
@@ -22789,19 +22984,19 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="104" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="B145" s="106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C145" s="97">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="104" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="B146" s="106">
         <v>2</v>
@@ -22813,67 +23008,67 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="104" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="B147" s="106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C147" s="97">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="104" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B148" s="106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C148" s="97">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="104" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="B149" s="106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C149" s="97">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="104" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="B150" s="106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C150" s="97">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="104" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B151" s="106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C151" s="97">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="104" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="B152" s="106">
         <v>0</v>
@@ -22885,19 +23080,19 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="104" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="B153" s="106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C153" s="97">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="104" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="B154" s="106">
         <v>0</v>
@@ -22909,19 +23104,19 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="104" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="B155" s="106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C155" s="97">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="104" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="B156" s="106">
         <v>0</v>
@@ -22933,7 +23128,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="104" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="B157" s="106">
         <v>0</v>
@@ -22945,31 +23140,31 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="104" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="B158" s="106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" s="97">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="104" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="B159" s="106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" s="97">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="104" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B160" s="106">
         <v>0</v>
@@ -22981,12 +23176,60 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="104" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="B161" s="106">
         <v>0</v>
       </c>
       <c r="C161" s="97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="104" t="s">
+        <v>517</v>
+      </c>
+      <c r="B162" s="106">
+        <v>1</v>
+      </c>
+      <c r="C162" s="97">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="104" t="s">
+        <v>518</v>
+      </c>
+      <c r="B163" s="106">
+        <v>1</v>
+      </c>
+      <c r="C163" s="97">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="104" t="s">
+        <v>519</v>
+      </c>
+      <c r="B164" s="106">
+        <v>0</v>
+      </c>
+      <c r="C164" s="97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="104" t="s">
+        <v>520</v>
+      </c>
+      <c r="B165" s="106">
+        <v>0</v>
+      </c>
+      <c r="C165" s="97">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -23005,7 +23248,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M238"/>
+  <dimension ref="A1:M242"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:M1"/>
@@ -23029,21 +23272,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="22"/>
@@ -23104,10 +23347,10 @@
         <v>372</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I3" s="30">
         <v>3</v>
@@ -26973,7 +27216,7 @@
       <c r="D104" s="6"/>
       <c r="E104" s="7"/>
       <c r="F104" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
@@ -26988,38 +27231,38 @@
     </row>
     <row r="106" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="96" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B106" s="99">
-        <f>SUM(B111:B129)</f>
+        <f>SUM(B111:B131)</f>
         <v>98</v>
       </c>
       <c r="C106" s="73" t="s">
-        <v>495</v>
+        <v>361</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="96" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B107" s="99">
-        <f>SUM(C209:C238)</f>
+        <f>SUM(C213:C242)</f>
         <v>23</v>
       </c>
       <c r="C107" s="73" t="s">
-        <v>491</v>
+        <v>534</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="96" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B108" s="99">
-        <f>SUM(C170:C205)</f>
+        <f>SUM(C173:C209)</f>
         <v>27</v>
       </c>
       <c r="C108" s="73" t="s">
-        <v>492</v>
+        <v>532</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="18" x14ac:dyDescent="0.15">
@@ -27190,94 +27433,84 @@
       <c r="A129" s="2">
         <v>2022</v>
       </c>
-      <c r="B129" s="20"/>
-    </row>
-    <row r="132" spans="1:3" ht="18" x14ac:dyDescent="0.15">
-      <c r="A132" s="2" t="s">
+      <c r="B129" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A130" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B130" s="20"/>
+    </row>
+    <row r="131" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A131" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B131" s="20"/>
+    </row>
+    <row r="134" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A134" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B132" s="21" t="s">
+      <c r="B134" s="21" t="s">
         <v>361</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B133" s="20">
-        <v>2</v>
-      </c>
-      <c r="C133" s="1">
-        <f t="shared" ref="C133:C166" si="0">IF(B133=0,0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B134" s="20">
-        <v>5</v>
-      </c>
-      <c r="C134" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>445</v>
+        <v>357</v>
       </c>
       <c r="B135" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C135" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="C135:C169" si="0">IF(B135=0,0,1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B136" s="20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C136" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B137" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C137" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B138" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C138" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B139" s="20">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C139" s="1">
         <f t="shared" si="0"/>
@@ -27286,10 +27519,10 @@
     </row>
     <row r="140" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B140" s="20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C140" s="1">
         <f t="shared" si="0"/>
@@ -27298,10 +27531,10 @@
     </row>
     <row r="141" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B141" s="20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C141" s="1">
         <f t="shared" si="0"/>
@@ -27310,10 +27543,10 @@
     </row>
     <row r="142" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B142" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C142" s="1">
         <f t="shared" si="0"/>
@@ -27322,55 +27555,55 @@
     </row>
     <row r="143" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B143" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C143" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B144" s="20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C144" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B145" s="20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C145" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B146" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C146" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B147" s="20">
         <v>5</v>
@@ -27382,10 +27615,10 @@
     </row>
     <row r="148" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B148" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C148" s="1">
         <f t="shared" si="0"/>
@@ -27394,10 +27627,10 @@
     </row>
     <row r="149" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B149" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C149" s="1">
         <f t="shared" si="0"/>
@@ -27406,10 +27639,10 @@
     </row>
     <row r="150" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B150" s="20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C150" s="1">
         <f t="shared" si="0"/>
@@ -27418,10 +27651,10 @@
     </row>
     <row r="151" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B151" s="20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C151" s="1">
         <f t="shared" si="0"/>
@@ -27430,10 +27663,10 @@
     </row>
     <row r="152" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B152" s="20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C152" s="1">
         <f t="shared" si="0"/>
@@ -27442,7 +27675,7 @@
     </row>
     <row r="153" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B153" s="20">
         <v>5</v>
@@ -27454,34 +27687,31 @@
     </row>
     <row r="154" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="B154" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C154" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>464</v>
+        <v>527</v>
       </c>
       <c r="B155" s="20">
         <v>0</v>
       </c>
-      <c r="C155" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C155" s="1"/>
     </row>
     <row r="156" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B156" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C156" s="1">
         <f t="shared" si="0"/>
@@ -27490,7 +27720,7 @@
     </row>
     <row r="157" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="B157" s="20">
         <v>0</v>
@@ -27502,94 +27732,94 @@
     </row>
     <row r="158" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B158" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="B159" s="20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C159" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B160" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C160" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B161" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B162" s="20">
-        <v>5</v>
-      </c>
-      <c r="C162" s="97">
+        <v>0</v>
+      </c>
+      <c r="C162" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B163" s="20">
-        <v>7</v>
-      </c>
-      <c r="C163" s="97">
+        <v>2</v>
+      </c>
+      <c r="C163" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B164" s="20">
         <v>0</v>
       </c>
-      <c r="C164" s="97">
+      <c r="C164" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B165" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C165" s="97">
         <f t="shared" si="0"/>
@@ -27598,90 +27828,90 @@
     </row>
     <row r="166" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>355</v>
+        <v>470</v>
       </c>
       <c r="B166" s="20">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C166" s="97">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B167" s="20">
+        <v>0</v>
+      </c>
+      <c r="C167" s="97">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B168" s="20">
+        <v>4</v>
+      </c>
+      <c r="C168" s="97">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B169" s="20">
+        <v>2</v>
+      </c>
+      <c r="C169" s="97">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A172" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B169" s="21" t="s">
+      <c r="B172" s="21" t="s">
         <v>361</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B170" s="20">
-        <v>5</v>
-      </c>
-      <c r="C170" s="1">
-        <f t="shared" ref="C170:C205" si="1">IF(B170=0,0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B171" s="20">
-        <v>0</v>
-      </c>
-      <c r="C171" s="97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B172" s="20">
-        <v>2</v>
-      </c>
-      <c r="C172" s="97">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B173" s="20">
-        <v>8</v>
-      </c>
-      <c r="C173" s="97">
-        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C173" s="1">
+        <f t="shared" ref="C173:C209" si="1">IF(B173=0,0,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="B174" s="20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C174" s="97">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B175" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C175" s="97">
         <f t="shared" si="1"/>
@@ -27690,22 +27920,22 @@
     </row>
     <row r="176" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="B176" s="20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C176" s="97">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B177" s="20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C177" s="97">
         <f t="shared" si="1"/>
@@ -27714,34 +27944,34 @@
     </row>
     <row r="178" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="B178" s="20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C178" s="97">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="B179" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C179" s="97">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B180" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C180" s="97">
         <f t="shared" si="1"/>
@@ -27750,43 +27980,43 @@
     </row>
     <row r="181" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B181" s="20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C181" s="97">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="B182" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C182" s="97">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="B183" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C183" s="97">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B184" s="20">
         <v>1</v>
@@ -27798,7 +28028,7 @@
     </row>
     <row r="185" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B185" s="20">
         <v>0</v>
@@ -27810,22 +28040,22 @@
     </row>
     <row r="186" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="B186" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C186" s="97">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="B187" s="20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C187" s="97">
         <f t="shared" si="1"/>
@@ -27834,10 +28064,10 @@
     </row>
     <row r="188" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B188" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C188" s="97">
         <f t="shared" si="1"/>
@@ -27846,10 +28076,10 @@
     </row>
     <row r="189" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="B189" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C189" s="97">
         <f t="shared" si="1"/>
@@ -27858,10 +28088,10 @@
     </row>
     <row r="190" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B190" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C190" s="97">
         <f t="shared" si="1"/>
@@ -27870,22 +28100,22 @@
     </row>
     <row r="191" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="B191" s="20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C191" s="97">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="B192" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C192" s="97">
         <f t="shared" si="1"/>
@@ -27894,70 +28124,64 @@
     </row>
     <row r="193" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="B193" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C193" s="97">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>348</v>
+        <v>529</v>
       </c>
       <c r="B194" s="20">
-        <v>4</v>
-      </c>
-      <c r="C194" s="97">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C194" s="97"/>
     </row>
     <row r="195" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B195" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" s="97">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>378</v>
+        <v>528</v>
       </c>
       <c r="B196" s="20">
         <v>0</v>
       </c>
-      <c r="C196" s="97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="C196" s="97"/>
     </row>
     <row r="197" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B197" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C197" s="97">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="B198" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C198" s="97">
         <f t="shared" si="1"/>
@@ -27966,46 +28190,46 @@
     </row>
     <row r="199" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="B199" s="20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C199" s="97">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="B200" s="20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C200" s="97">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>476</v>
+        <v>346</v>
       </c>
       <c r="B201" s="20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C201" s="97">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B202" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C202" s="97">
         <f t="shared" si="1"/>
@@ -28014,10 +28238,10 @@
     </row>
     <row r="203" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B203" s="20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C203" s="97">
         <f t="shared" si="1"/>
@@ -28026,102 +28250,102 @@
     </row>
     <row r="204" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B204" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C204" s="97">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>340</v>
+        <v>475</v>
       </c>
       <c r="B205" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C205" s="97">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="18" x14ac:dyDescent="0.15">
-      <c r="A208" s="103" t="s">
-        <v>497</v>
-      </c>
-      <c r="B208" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B206" s="20">
+        <v>3</v>
+      </c>
+      <c r="C206" s="97">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B207" s="20">
+        <v>4</v>
+      </c>
+      <c r="C207" s="97">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B208" s="20">
+        <v>2</v>
+      </c>
+      <c r="C208" s="97">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B209" s="20">
+        <v>2</v>
+      </c>
+      <c r="C209" s="97">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A212" s="103" t="s">
+        <v>490</v>
+      </c>
+      <c r="B212" s="21" t="s">
         <v>361</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="107" t="s">
-        <v>498</v>
-      </c>
-      <c r="B209" s="108">
-        <v>2</v>
-      </c>
-      <c r="C209" s="97">
-        <f t="shared" ref="C209:C238" si="2">IF(B209=0,0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="107" t="s">
-        <v>499</v>
-      </c>
-      <c r="B210" s="108">
-        <v>5</v>
-      </c>
-      <c r="C210" s="97">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="107" t="s">
-        <v>500</v>
-      </c>
-      <c r="B211" s="108">
-        <v>0</v>
-      </c>
-      <c r="C211" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="107" t="s">
-        <v>501</v>
-      </c>
-      <c r="B212" s="108">
-        <v>0</v>
-      </c>
-      <c r="C212" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A213" s="107" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="B213" s="108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C213" s="97">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C213:C242" si="2">IF(B213=0,0,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A214" s="107" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="B214" s="108">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C214" s="97">
         <f t="shared" si="2"/>
@@ -28130,31 +28354,31 @@
     </row>
     <row r="215" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A215" s="107" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="B215" s="108">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C215" s="97">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A216" s="107" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="B216" s="108">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C216" s="97">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A217" s="107" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B217" s="108">
         <v>3</v>
@@ -28166,10 +28390,10 @@
     </row>
     <row r="218" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A218" s="107" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="B218" s="108">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C218" s="97">
         <f t="shared" si="2"/>
@@ -28178,10 +28402,10 @@
     </row>
     <row r="219" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A219" s="107" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="B219" s="108">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C219" s="97">
         <f t="shared" si="2"/>
@@ -28190,10 +28414,10 @@
     </row>
     <row r="220" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A220" s="107" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B220" s="108">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C220" s="97">
         <f t="shared" si="2"/>
@@ -28202,10 +28426,10 @@
     </row>
     <row r="221" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A221" s="107" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="B221" s="108">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C221" s="97">
         <f t="shared" si="2"/>
@@ -28214,10 +28438,10 @@
     </row>
     <row r="222" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A222" s="107" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="B222" s="108">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C222" s="97">
         <f t="shared" si="2"/>
@@ -28226,10 +28450,10 @@
     </row>
     <row r="223" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A223" s="107" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="B223" s="108">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C223" s="97">
         <f t="shared" si="2"/>
@@ -28238,10 +28462,10 @@
     </row>
     <row r="224" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A224" s="107" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="B224" s="108">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C224" s="97">
         <f t="shared" si="2"/>
@@ -28250,10 +28474,10 @@
     </row>
     <row r="225" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A225" s="107" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B225" s="108">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C225" s="97">
         <f t="shared" si="2"/>
@@ -28262,10 +28486,10 @@
     </row>
     <row r="226" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A226" s="107" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="B226" s="108">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C226" s="97">
         <f t="shared" si="2"/>
@@ -28274,22 +28498,22 @@
     </row>
     <row r="227" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A227" s="107" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="B227" s="108">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C227" s="97">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A228" s="107" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B228" s="108">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C228" s="97">
         <f t="shared" si="2"/>
@@ -28298,67 +28522,67 @@
     </row>
     <row r="229" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A229" s="107" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="B229" s="108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C229" s="97">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A230" s="107" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="B230" s="108">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C230" s="97">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A231" s="107" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="B231" s="108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231" s="97">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A232" s="107" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="B232" s="108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C232" s="97">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A233" s="107" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="B233" s="108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C233" s="97">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A234" s="107" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="B234" s="108">
         <v>0</v>
@@ -28370,10 +28594,10 @@
     </row>
     <row r="235" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A235" s="107" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="B235" s="108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C235" s="97">
         <f t="shared" si="2"/>
@@ -28382,22 +28606,22 @@
     </row>
     <row r="236" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A236" s="107" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="B236" s="108">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C236" s="97">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A237" s="107" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B237" s="108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C237" s="97">
         <f t="shared" si="2"/>
@@ -28406,12 +28630,60 @@
     </row>
     <row r="238" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A238" s="107" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="B238" s="108">
+        <v>0</v>
+      </c>
+      <c r="C238" s="97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A239" s="107" t="s">
+        <v>517</v>
+      </c>
+      <c r="B239" s="108">
+        <v>5</v>
+      </c>
+      <c r="C239" s="97">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A240" s="107" t="s">
+        <v>518</v>
+      </c>
+      <c r="B240" s="108">
+        <v>9</v>
+      </c>
+      <c r="C240" s="97">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A241" s="107" t="s">
+        <v>519</v>
+      </c>
+      <c r="B241" s="108">
+        <v>4</v>
+      </c>
+      <c r="C241" s="97">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A242" s="107" t="s">
+        <v>520</v>
+      </c>
+      <c r="B242" s="108">
         <v>2</v>
       </c>
-      <c r="C238" s="97">
+      <c r="C242" s="97">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>

--- a/文档/其他文档/Others/Sports/The stats of Fernando Alonso in Formula One.xlsx
+++ b/文档/其他文档/Others/Sports/The stats of Fernando Alonso in Formula One.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Podiums" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Podiums!$A$2:$L$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Podiums!$A$2:$L$107</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Poles!$A$2:$L$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Victories!$A$2:$K$39</definedName>
   </definedNames>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="537">
   <si>
     <t>Fernando Alonso F1 Championships Summary</t>
   </si>
@@ -1519,10 +1519,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Mar 19th 2023 Saudi Arabian F1 GP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2023 Bahrain F1 GP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1901,6 +1897,14 @@
   </si>
   <si>
     <t>2003 Hungarian F1 GP</t>
+  </si>
+  <si>
+    <t>2023 Australian F1 GP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apr 2th 2023 Australian F1 GP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2503,6 +2507,14 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="9" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2521,14 +2533,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="9" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2765,11 +2769,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="215598368"/>
-        <c:axId val="216202048"/>
+        <c:axId val="127331104"/>
+        <c:axId val="127331496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="215598368"/>
+        <c:axId val="127331104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2779,7 +2783,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216202048"/>
+        <c:crossAx val="127331496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2787,7 +2791,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216202048"/>
+        <c:axId val="127331496"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2798,7 +2802,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215598368"/>
+        <c:crossAx val="127331104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2864,7 +2868,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Podiums!$B$112</c:f>
+              <c:f>Podiums!$B$113</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2885,7 +2889,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Podiums!$A$113:$A$133</c:f>
+              <c:f>Podiums!$A$114:$A$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2957,7 +2961,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Podiums!$B$113:$B$133</c:f>
+              <c:f>Podiums!$B$114:$B$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3019,7 +3023,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3035,11 +3039,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="216163232"/>
-        <c:axId val="217052712"/>
+        <c:axId val="206735744"/>
+        <c:axId val="206736136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="216163232"/>
+        <c:axId val="206735744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3049,7 +3053,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217052712"/>
+        <c:crossAx val="206736136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3057,7 +3061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217052712"/>
+        <c:axId val="206736136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3068,7 +3072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216163232"/>
+        <c:crossAx val="206735744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3140,7 +3144,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Podiums!$B$136</c:f>
+              <c:f>Podiums!$B$137</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3152,7 +3156,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Podiums!$A$137:$A$171</c:f>
+              <c:f>Podiums!$A$138:$A$172</c:f>
               <c:strCache>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
@@ -3265,7 +3269,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Podiums!$B$137:$B$171</c:f>
+              <c:f>Podiums!$B$138:$B$172</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -3273,7 +3277,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3387,11 +3391,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="217053496"/>
-        <c:axId val="217053888"/>
+        <c:axId val="206879856"/>
+        <c:axId val="206879464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="217053496"/>
+        <c:axId val="206879856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3401,7 +3405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217053888"/>
+        <c:crossAx val="206879464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3409,7 +3413,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217053888"/>
+        <c:axId val="206879464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3420,7 +3424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217053496"/>
+        <c:crossAx val="206879856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3492,7 +3496,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Podiums!$B$174</c:f>
+              <c:f>Podiums!$B$175</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3504,7 +3508,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Podiums!$A$175:$A$211</c:f>
+              <c:f>Podiums!$A$176:$A$212</c:f>
               <c:strCache>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
@@ -3623,12 +3627,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Podiums!$B$175:$B$211</c:f>
+              <c:f>Podiums!$B$176:$B$212</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3751,11 +3755,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="217640848"/>
-        <c:axId val="217641240"/>
+        <c:axId val="206881424"/>
+        <c:axId val="206878680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="217640848"/>
+        <c:axId val="206881424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3765,7 +3769,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217641240"/>
+        <c:crossAx val="206878680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3773,7 +3777,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217641240"/>
+        <c:axId val="206878680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3784,7 +3788,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217640848"/>
+        <c:crossAx val="206881424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3841,7 +3845,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3856,7 +3859,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Podiums!$B$214</c:f>
+              <c:f>Podiums!$B$215</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3868,7 +3871,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Podiums!$A$215:$A$244</c:f>
+              <c:f>Podiums!$A$216:$A$245</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
@@ -3966,7 +3969,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Podiums!$B$215:$B$244</c:f>
+              <c:f>Podiums!$B$216:$B$245</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4073,11 +4076,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="217642024"/>
-        <c:axId val="217642416"/>
+        <c:axId val="206737312"/>
+        <c:axId val="206737704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="217642024"/>
+        <c:axId val="206737312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4087,7 +4090,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217642416"/>
+        <c:crossAx val="206737704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4095,7 +4098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217642416"/>
+        <c:axId val="206737704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4106,14 +4109,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217642024"/>
+        <c:crossAx val="206737312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4158,7 +4160,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4340,11 +4341,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="216144912"/>
-        <c:axId val="214842736"/>
+        <c:axId val="127332280"/>
+        <c:axId val="127332672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="216144912"/>
+        <c:axId val="127332280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4354,7 +4355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214842736"/>
+        <c:crossAx val="127332672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4362,7 +4363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214842736"/>
+        <c:axId val="127332672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4373,14 +4374,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216144912"/>
+        <c:crossAx val="127332280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4430,7 +4430,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4692,11 +4691,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="217158488"/>
-        <c:axId val="215132008"/>
+        <c:axId val="127333456"/>
+        <c:axId val="127333848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="217158488"/>
+        <c:axId val="127333456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4706,7 +4705,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215132008"/>
+        <c:crossAx val="127333848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4714,7 +4713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215132008"/>
+        <c:axId val="127333848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4725,14 +4724,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217158488"/>
+        <c:crossAx val="127333456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4782,7 +4780,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5056,11 +5053,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="215157680"/>
-        <c:axId val="215158064"/>
+        <c:axId val="127334632"/>
+        <c:axId val="206877896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="215157680"/>
+        <c:axId val="127334632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5070,7 +5067,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215158064"/>
+        <c:crossAx val="206877896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5078,7 +5075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215158064"/>
+        <c:axId val="206877896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5089,14 +5086,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215157680"/>
+        <c:crossAx val="127334632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5146,7 +5142,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5378,11 +5373,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="215174496"/>
-        <c:axId val="215174880"/>
+        <c:axId val="206880248"/>
+        <c:axId val="206880640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="215174496"/>
+        <c:axId val="206880248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5392,7 +5387,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215174880"/>
+        <c:crossAx val="206880640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5400,7 +5395,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215174880"/>
+        <c:axId val="206880640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5411,14 +5406,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215174496"/>
+        <c:crossAx val="206880248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5463,7 +5457,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5645,11 +5638,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="216165192"/>
-        <c:axId val="216165584"/>
+        <c:axId val="206589904"/>
+        <c:axId val="206590296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="216165192"/>
+        <c:axId val="206589904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5659,7 +5652,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216165584"/>
+        <c:crossAx val="206590296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5667,7 +5660,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216165584"/>
+        <c:axId val="206590296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5678,14 +5671,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216165192"/>
+        <c:crossAx val="206589904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5735,7 +5727,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5997,11 +5988,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="216164800"/>
-        <c:axId val="217050752"/>
+        <c:axId val="206591080"/>
+        <c:axId val="206591472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216164800"/>
+        <c:axId val="206591080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6011,7 +6002,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217050752"/>
+        <c:crossAx val="206591472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6019,7 +6010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217050752"/>
+        <c:axId val="206591472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6030,14 +6021,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216164800"/>
+        <c:crossAx val="206591080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6084,7 +6074,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6358,11 +6347,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="217051536"/>
-        <c:axId val="217051928"/>
+        <c:axId val="206592256"/>
+        <c:axId val="206592648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="217051536"/>
+        <c:axId val="206592256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6372,7 +6361,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217051928"/>
+        <c:crossAx val="206592648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6380,7 +6369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217051928"/>
+        <c:axId val="206592648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6391,14 +6380,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217051536"/>
+        <c:crossAx val="206592256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6679,11 +6667,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="216164408"/>
-        <c:axId val="216164016"/>
+        <c:axId val="206593432"/>
+        <c:axId val="206734960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216164408"/>
+        <c:axId val="206593432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6693,7 +6681,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216164016"/>
+        <c:crossAx val="206734960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6701,7 +6689,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216164016"/>
+        <c:axId val="206734960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6712,7 +6700,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216164408"/>
+        <c:crossAx val="206593432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10884,13 +10872,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10939,13 +10927,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10994,7 +10982,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11044,7 +11032,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11094,7 +11082,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11144,7 +11132,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11194,7 +11182,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11244,7 +11232,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11294,7 +11282,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11344,7 +11332,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11394,7 +11382,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11444,7 +11432,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11494,7 +11482,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11544,7 +11532,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11594,7 +11582,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11644,7 +11632,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11694,7 +11682,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11744,7 +11732,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11794,7 +11782,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11844,7 +11832,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11894,7 +11882,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11944,7 +11932,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11994,7 +11982,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12044,7 +12032,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12094,7 +12082,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12144,7 +12132,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12194,7 +12182,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12244,7 +12232,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12294,7 +12282,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12344,7 +12332,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12394,7 +12382,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12444,7 +12432,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12494,7 +12482,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12544,7 +12532,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12594,7 +12582,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12644,7 +12632,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12694,7 +12682,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12744,7 +12732,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12794,7 +12782,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12844,7 +12832,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12894,7 +12882,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12944,7 +12932,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12994,7 +12982,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13044,7 +13032,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13094,7 +13082,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13144,7 +13132,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13194,7 +13182,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13244,7 +13232,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13294,7 +13282,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13344,7 +13332,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13394,7 +13382,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13444,7 +13432,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13494,7 +13482,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13544,7 +13532,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13594,7 +13582,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13644,7 +13632,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13694,13 +13682,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13749,7 +13737,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13799,7 +13787,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13849,7 +13837,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13899,13 +13887,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13954,7 +13942,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14004,7 +13992,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14054,7 +14042,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14104,7 +14092,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14154,7 +14142,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14204,7 +14192,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14254,7 +14242,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14304,7 +14292,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14354,7 +14342,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14404,7 +14392,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14454,7 +14442,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14504,7 +14492,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14554,7 +14542,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14604,7 +14592,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14654,7 +14642,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14704,7 +14692,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14754,7 +14742,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14804,7 +14792,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14854,7 +14842,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14904,7 +14892,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14954,7 +14942,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15004,7 +14992,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15054,7 +15042,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15104,7 +15092,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15154,7 +15142,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15204,7 +15192,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15254,7 +15242,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15304,7 +15292,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15354,7 +15342,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15404,7 +15392,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15454,7 +15442,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15504,7 +15492,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15554,7 +15542,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15604,7 +15592,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15654,7 +15642,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15704,7 +15692,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15754,13 +15742,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15784,13 +15772,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15814,13 +15802,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15844,7 +15832,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15894,7 +15882,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15944,7 +15932,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15994,13 +15982,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>409573</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>241</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16024,7 +16012,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -16074,7 +16062,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -16101,6 +16089,56 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="628650" y="457200"/>
+          <a:ext cx="152400" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="152400" cy="104775"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="图片 107" descr="United Kingdom"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10677525" y="714375"/>
           <a:ext cx="152400" cy="104775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16504,8 +16542,8 @@
       <c r="A11" s="108" t="s">
         <v>241</v>
       </c>
-      <c r="B11" s="121">
-        <v>100</v>
+      <c r="B11" s="115">
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -16597,7 +16635,7 @@
         <v>54</v>
       </c>
       <c r="B23" s="108" t="s">
-        <v>410</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -16633,23 +16671,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
+      <c r="A1" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -16739,10 +16777,10 @@
       <c r="E4" s="111"/>
       <c r="F4" s="111"/>
       <c r="G4" s="111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="111"/>
       <c r="J4" s="111"/>
@@ -17654,35 +17692,35 @@
         <v>22</v>
       </c>
       <c r="D24" s="18">
-        <f>SUM(D2:D23)</f>
+        <f t="shared" ref="D24:K24" si="0">SUM(D2:D23)</f>
         <v>355</v>
       </c>
       <c r="E24" s="18">
-        <f>SUM(E2:E23)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="F24" s="18">
-        <f>SUM(F2:F23)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="G24" s="18">
-        <f>SUM(G2:G23)</f>
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="H24" s="18">
-        <f>SUM(H2:H23)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>101</v>
       </c>
       <c r="I24" s="18">
-        <f>SUM(I2:I23)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="J24" s="18">
-        <f>SUM(J2:J23)</f>
+        <f t="shared" si="0"/>
         <v>19133</v>
       </c>
       <c r="K24" s="18">
-        <f>SUM(K2:K23)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="L24" s="18"/>
@@ -17702,16 +17740,16 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.15">
-      <c r="A30" s="115"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
+      <c r="A30" s="119"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="120"/>
     </row>
     <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
@@ -17922,20 +17960,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="A2" s="31"/>
@@ -18057,7 +18095,7 @@
         <v>2012</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>144</v>
@@ -18095,7 +18133,7 @@
         <v>2012</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>151</v>
@@ -18133,7 +18171,7 @@
         <v>2012</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>120</v>
@@ -18171,7 +18209,7 @@
         <v>2011</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>140</v>
@@ -18209,7 +18247,7 @@
         <v>2010</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>176</v>
@@ -18247,7 +18285,7 @@
         <v>2010</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>160</v>
@@ -18285,7 +18323,7 @@
         <v>2010</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>157</v>
@@ -18323,7 +18361,7 @@
         <v>2010</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>144</v>
@@ -18361,7 +18399,7 @@
         <v>2010</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>123</v>
@@ -18399,7 +18437,7 @@
         <v>2008</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>166</v>
@@ -18437,7 +18475,7 @@
         <v>2008</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>159</v>
@@ -18475,7 +18513,7 @@
         <v>2007</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>157</v>
@@ -18513,7 +18551,7 @@
         <v>2007</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>149</v>
@@ -18551,7 +18589,7 @@
         <v>2007</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>131</v>
@@ -18589,7 +18627,7 @@
         <v>2007</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>119</v>
@@ -18627,7 +18665,7 @@
         <v>2006</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>162</v>
@@ -18665,7 +18703,7 @@
         <v>2006</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>136</v>
@@ -18703,7 +18741,7 @@
         <v>2006</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>140</v>
@@ -18741,7 +18779,7 @@
         <v>2006</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>130</v>
@@ -18779,7 +18817,7 @@
         <v>2006</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>124</v>
@@ -18817,7 +18855,7 @@
         <v>2006</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>116</v>
@@ -18855,7 +18893,7 @@
         <v>2006</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>122</v>
@@ -18893,7 +18931,7 @@
         <v>2005</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>168</v>
@@ -18931,7 +18969,7 @@
         <v>2005</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>144</v>
@@ -18969,7 +19007,7 @@
         <v>2005</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>138</v>
@@ -19007,7 +19045,7 @@
         <v>2005</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>149</v>
@@ -19045,7 +19083,7 @@
         <v>2005</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>183</v>
@@ -19083,7 +19121,7 @@
         <v>2005</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>121</v>
@@ -19121,7 +19159,7 @@
         <v>2005</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>119</v>
@@ -19159,7 +19197,7 @@
         <v>2003</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>154</v>
@@ -19296,7 +19334,7 @@
         <v>32</v>
       </c>
       <c r="C41" s="72" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="18" x14ac:dyDescent="0.25">
@@ -19507,7 +19545,7 @@
     </row>
     <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>59</v>
@@ -19923,7 +19961,7 @@
     </row>
     <row r="104" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B104" s="20">
         <v>0</v>
@@ -19953,7 +19991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>259</v>
       </c>
@@ -20049,7 +20087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>234</v>
       </c>
@@ -20217,7 +20255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>403</v>
       </c>
@@ -20322,7 +20360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>352</v>
       </c>
@@ -20740,7 +20778,7 @@
     </row>
     <row r="177" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A177" s="99" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B177" s="101">
         <v>0</v>
@@ -20789,21 +20827,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
@@ -20854,7 +20892,7 @@
         <v>2012</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>144</v>
@@ -20897,7 +20935,7 @@
         <v>2012</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>140</v>
@@ -20940,7 +20978,7 @@
         <v>2010</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>159</v>
@@ -20983,7 +21021,7 @@
         <v>2010</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>158</v>
@@ -21026,7 +21064,7 @@
         <v>2009</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>153</v>
@@ -21069,7 +21107,7 @@
         <v>2007</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>157</v>
@@ -21112,7 +21150,7 @@
         <v>2007</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>133</v>
@@ -21155,7 +21193,7 @@
         <v>2006</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>169</v>
@@ -21198,7 +21236,7 @@
         <v>2006</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>137</v>
@@ -21241,7 +21279,7 @@
         <v>2006</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>140</v>
@@ -21284,7 +21322,7 @@
         <v>2006</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>132</v>
@@ -21327,7 +21365,7 @@
         <v>2006</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>126</v>
@@ -21370,7 +21408,7 @@
         <v>2006</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>150</v>
@@ -21413,7 +21451,7 @@
         <v>2005</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>169</v>
@@ -21456,7 +21494,7 @@
         <v>2005</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>171</v>
@@ -21499,7 +21537,7 @@
         <v>2005</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>141</v>
@@ -21542,7 +21580,7 @@
         <v>2005</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>139</v>
@@ -21585,7 +21623,7 @@
         <v>2005</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>123</v>
@@ -21626,7 +21664,7 @@
         <v>2005</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>120</v>
@@ -21667,7 +21705,7 @@
         <v>2004</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>139</v>
@@ -21708,7 +21746,7 @@
         <v>2003</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>153</v>
@@ -21749,7 +21787,7 @@
         <v>2003</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>119</v>
@@ -22099,7 +22137,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>240</v>
@@ -22511,7 +22549,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B92" s="20">
         <v>0</v>
@@ -22638,7 +22676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>234</v>
       </c>
@@ -22803,7 +22841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>405</v>
       </c>
@@ -22872,7 +22910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>211</v>
       </c>
@@ -23326,7 +23364,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="103" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B165" s="105">
         <v>0</v>
@@ -23350,7 +23388,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M244"/>
+  <dimension ref="A1:M245"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:M1"/>
@@ -23374,21 +23412,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="22"/>
@@ -23430,173 +23468,173 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="122">
-        <v>100</v>
-      </c>
-      <c r="B3" s="123">
+      <c r="A3" s="116">
+        <v>101</v>
+      </c>
+      <c r="B3" s="117">
         <v>2023</v>
       </c>
-      <c r="C3" s="123" t="s">
-        <v>412</v>
-      </c>
-      <c r="D3" s="123" t="s">
-        <v>414</v>
-      </c>
-      <c r="E3" s="123">
+      <c r="C3" s="117" t="s">
+        <v>535</v>
+      </c>
+      <c r="D3" s="117" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="117">
         <v>14</v>
       </c>
       <c r="F3" s="109" t="s">
         <v>398</v>
       </c>
-      <c r="G3" s="123" t="s">
+      <c r="G3" s="117" t="s">
+        <v>399</v>
+      </c>
+      <c r="H3" s="117" t="s">
+        <v>400</v>
+      </c>
+      <c r="I3" s="117">
+        <v>4</v>
+      </c>
+      <c r="J3" s="117">
+        <v>3</v>
+      </c>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117">
+        <v>15</v>
+      </c>
+      <c r="M3" s="118">
+        <v>45018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="116">
+        <v>100</v>
+      </c>
+      <c r="B4" s="117">
+        <v>2023</v>
+      </c>
+      <c r="C4" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="D4" s="117" t="s">
         <v>413</v>
       </c>
-      <c r="H3" s="123" t="s">
-        <v>415</v>
-      </c>
-      <c r="I3" s="123">
-        <v>2</v>
-      </c>
-      <c r="J3" s="123">
-        <v>3</v>
-      </c>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123">
-        <v>15</v>
-      </c>
-      <c r="M3" s="124">
-        <v>44990</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="122">
-        <v>99</v>
-      </c>
-      <c r="B4" s="123">
-        <v>2023</v>
-      </c>
-      <c r="C4" s="123" t="s">
-        <v>411</v>
-      </c>
-      <c r="D4" s="123" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="123">
+      <c r="E4" s="117">
         <v>14</v>
       </c>
       <c r="F4" s="109" t="s">
         <v>398</v>
       </c>
-      <c r="G4" s="123" t="s">
-        <v>413</v>
-      </c>
-      <c r="H4" s="123" t="s">
-        <v>415</v>
-      </c>
-      <c r="I4" s="123">
+      <c r="G4" s="117" t="s">
+        <v>412</v>
+      </c>
+      <c r="H4" s="117" t="s">
+        <v>414</v>
+      </c>
+      <c r="I4" s="117">
+        <v>2</v>
+      </c>
+      <c r="J4" s="117">
+        <v>3</v>
+      </c>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117">
+        <v>15</v>
+      </c>
+      <c r="M4" s="118">
+        <v>44990</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="116">
+        <v>99</v>
+      </c>
+      <c r="B5" s="117">
+        <v>2023</v>
+      </c>
+      <c r="C5" s="117" t="s">
+        <v>410</v>
+      </c>
+      <c r="D5" s="117" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="117">
+        <v>14</v>
+      </c>
+      <c r="F5" s="109" t="s">
+        <v>398</v>
+      </c>
+      <c r="G5" s="117" t="s">
+        <v>412</v>
+      </c>
+      <c r="H5" s="117" t="s">
+        <v>414</v>
+      </c>
+      <c r="I5" s="117">
         <v>5</v>
       </c>
-      <c r="J4" s="123">
+      <c r="J5" s="117">
         <v>3</v>
       </c>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123">
+      <c r="K5" s="117"/>
+      <c r="L5" s="117">
         <v>15</v>
       </c>
-      <c r="M4" s="124">
+      <c r="M5" s="118">
         <v>45004</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="73">
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="73">
         <v>98</v>
       </c>
-      <c r="B5" s="93">
+      <c r="B6" s="93">
         <v>2021</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C6" s="93" t="s">
         <v>249</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D6" s="93" t="s">
         <v>252</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E6" s="29">
         <v>14</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F6" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G6" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H6" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I6" s="30">
         <v>3</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J6" s="30">
         <v>3</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30">
+      <c r="K6" s="30"/>
+      <c r="L6" s="30">
         <v>15</v>
       </c>
-      <c r="M5" s="74">
+      <c r="M6" s="74">
         <v>44521</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="79">
-        <v>97</v>
-      </c>
-      <c r="B6" s="24">
-        <v>2014</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="23">
-        <v>14</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" s="59">
-        <v>5</v>
-      </c>
-      <c r="J6" s="59">
-        <v>2</v>
-      </c>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59">
-        <v>18</v>
-      </c>
-      <c r="M6" s="60">
-        <v>41847</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="79">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B7" s="24">
         <v>2014</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="E7" s="23">
         <v>14</v>
@@ -23614,31 +23652,31 @@
         <v>5</v>
       </c>
       <c r="J7" s="59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7" s="59"/>
       <c r="L7" s="59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M7" s="60">
-        <v>41749</v>
+        <v>41847</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="79">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" s="24">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E8" s="23">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>19</v>
@@ -23647,10 +23685,10 @@
         <v>16</v>
       </c>
       <c r="H8" s="59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I8" s="59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J8" s="59">
         <v>3</v>
@@ -23660,21 +23698,21 @@
         <v>15</v>
       </c>
       <c r="M8" s="60">
-        <v>41602</v>
+        <v>41749</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="79">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" s="24">
         <v>2013</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="E9" s="23">
         <v>3</v>
@@ -23689,31 +23727,31 @@
         <v>92</v>
       </c>
       <c r="I9" s="59">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J9" s="59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9" s="59"/>
       <c r="L9" s="59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M9" s="60">
-        <v>41539</v>
+        <v>41602</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="79">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B10" s="24">
         <v>2013</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E10" s="23">
         <v>3</v>
@@ -23728,7 +23766,7 @@
         <v>92</v>
       </c>
       <c r="I10" s="59">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J10" s="59">
         <v>2</v>
@@ -23738,21 +23776,21 @@
         <v>18</v>
       </c>
       <c r="M10" s="60">
-        <v>41525</v>
+        <v>41539</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="79">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B11" s="24">
         <v>2013</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E11" s="23">
         <v>3</v>
@@ -23767,7 +23805,7 @@
         <v>92</v>
       </c>
       <c r="I11" s="59">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J11" s="59">
         <v>2</v>
@@ -23777,21 +23815,21 @@
         <v>18</v>
       </c>
       <c r="M11" s="60">
-        <v>41512</v>
+        <v>41525</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="79">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B12" s="24">
         <v>2013</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="E12" s="23">
         <v>3</v>
@@ -23809,28 +23847,28 @@
         <v>9</v>
       </c>
       <c r="J12" s="59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" s="59"/>
       <c r="L12" s="59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M12" s="60">
-        <v>41455</v>
+        <v>41512</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="79">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B13" s="24">
         <v>2013</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E13" s="23">
         <v>3</v>
@@ -23845,31 +23883,31 @@
         <v>92</v>
       </c>
       <c r="I13" s="59">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J13" s="59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13" s="59"/>
       <c r="L13" s="59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M13" s="60">
-        <v>41434</v>
+        <v>41455</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="79">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B14" s="24">
         <v>2013</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E14" s="23">
         <v>3</v>
@@ -23884,31 +23922,31 @@
         <v>92</v>
       </c>
       <c r="I14" s="59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J14" s="59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" s="59"/>
       <c r="L14" s="59">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M14" s="60">
-        <v>41406</v>
+        <v>41434</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="79">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B15" s="24">
         <v>2013</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="E15" s="23">
         <v>3</v>
@@ -23923,7 +23961,7 @@
         <v>92</v>
       </c>
       <c r="I15" s="59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J15" s="59">
         <v>1</v>
@@ -23933,21 +23971,21 @@
         <v>25</v>
       </c>
       <c r="M15" s="60">
-        <v>41378</v>
+        <v>41406</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="79">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B16" s="24">
         <v>2013</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="E16" s="23">
         <v>3</v>
@@ -23962,34 +24000,34 @@
         <v>92</v>
       </c>
       <c r="I16" s="59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J16" s="59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" s="59"/>
       <c r="L16" s="59">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M16" s="60">
-        <v>41350</v>
+        <v>41378</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="79">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B17" s="24">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>425</v>
+        <v>76</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="E17" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>19</v>
@@ -23998,10 +24036,10 @@
         <v>16</v>
       </c>
       <c r="H17" s="59" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I17" s="59">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J17" s="59">
         <v>2</v>
@@ -24011,21 +24049,21 @@
         <v>18</v>
       </c>
       <c r="M17" s="60">
-        <v>41238</v>
+        <v>41350</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="79">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" s="24">
         <v>2012</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>501</v>
+        <v>424</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E18" s="23">
         <v>5</v>
@@ -24043,28 +24081,28 @@
         <v>7</v>
       </c>
       <c r="J18" s="59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" s="59"/>
       <c r="L18" s="59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M18" s="60">
-        <v>41231</v>
+        <v>41238</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="79">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B19" s="24">
         <v>2012</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>426</v>
+        <v>500</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E19" s="23">
         <v>5</v>
@@ -24079,31 +24117,31 @@
         <v>91</v>
       </c>
       <c r="I19" s="59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J19" s="59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19" s="59"/>
       <c r="L19" s="59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M19" s="60">
-        <v>41217</v>
+        <v>41231</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="79">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" s="24">
         <v>2012</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E20" s="23">
         <v>5</v>
@@ -24118,7 +24156,7 @@
         <v>91</v>
       </c>
       <c r="I20" s="59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J20" s="59">
         <v>2</v>
@@ -24128,21 +24166,21 @@
         <v>18</v>
       </c>
       <c r="M20" s="60">
-        <v>41210</v>
+        <v>41217</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="79">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B21" s="24">
         <v>2012</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E21" s="23">
         <v>5</v>
@@ -24157,31 +24195,31 @@
         <v>91</v>
       </c>
       <c r="I21" s="59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J21" s="59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21" s="59"/>
       <c r="L21" s="59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M21" s="60">
-        <v>41196</v>
+        <v>41210</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="79">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B22" s="24">
         <v>2012</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="E22" s="23">
         <v>5</v>
@@ -24196,7 +24234,7 @@
         <v>91</v>
       </c>
       <c r="I22" s="59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22" s="59">
         <v>3</v>
@@ -24206,21 +24244,21 @@
         <v>15</v>
       </c>
       <c r="M22" s="60">
-        <v>41175</v>
+        <v>41196</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="79">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B23" s="24">
         <v>2012</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E23" s="23">
         <v>5</v>
@@ -24235,7 +24273,7 @@
         <v>91</v>
       </c>
       <c r="I23" s="59">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J23" s="59">
         <v>3</v>
@@ -24245,21 +24283,21 @@
         <v>15</v>
       </c>
       <c r="M23" s="60">
-        <v>41161</v>
+        <v>41175</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="79">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B24" s="24">
         <v>2012</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E24" s="23">
         <v>5</v>
@@ -24274,31 +24312,31 @@
         <v>91</v>
       </c>
       <c r="I24" s="59">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J24" s="59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K24" s="59"/>
       <c r="L24" s="59">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M24" s="60">
-        <v>41112</v>
+        <v>41161</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="79">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B25" s="24">
         <v>2012</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E25" s="23">
         <v>5</v>
@@ -24316,28 +24354,28 @@
         <v>1</v>
       </c>
       <c r="J25" s="59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" s="59"/>
       <c r="L25" s="59">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M25" s="60">
-        <v>41097</v>
+        <v>41112</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="79">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B26" s="24">
         <v>2012</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E26" s="23">
         <v>5</v>
@@ -24352,31 +24390,31 @@
         <v>91</v>
       </c>
       <c r="I26" s="59">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J26" s="59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" s="59"/>
       <c r="L26" s="59">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M26" s="60">
-        <v>41084</v>
+        <v>41097</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="79">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" s="24">
         <v>2012</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="E27" s="23">
         <v>5</v>
@@ -24391,31 +24429,31 @@
         <v>91</v>
       </c>
       <c r="I27" s="59">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J27" s="59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K27" s="59"/>
       <c r="L27" s="59">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M27" s="60">
-        <v>41056</v>
+        <v>41084</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="79">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28" s="24">
         <v>2012</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E28" s="23">
         <v>5</v>
@@ -24430,31 +24468,31 @@
         <v>91</v>
       </c>
       <c r="I28" s="59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J28" s="59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K28" s="59"/>
       <c r="L28" s="59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M28" s="60">
-        <v>41042</v>
+        <v>41056</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="79">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B29" s="24">
         <v>2012</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E29" s="23">
         <v>5</v>
@@ -24469,31 +24507,31 @@
         <v>91</v>
       </c>
       <c r="I29" s="59">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J29" s="59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" s="59"/>
       <c r="L29" s="59">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M29" s="60">
-        <v>40993</v>
+        <v>41042</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="79">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B30" s="24">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="E30" s="23">
         <v>5</v>
@@ -24505,34 +24543,34 @@
         <v>16</v>
       </c>
       <c r="H30" s="59" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="I30" s="59">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J30" s="59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30" s="59"/>
       <c r="L30" s="59">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M30" s="60">
-        <v>40860</v>
+        <v>40993</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="79">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B31" s="24">
         <v>2011</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E31" s="23">
         <v>5</v>
@@ -24547,31 +24585,31 @@
         <v>114</v>
       </c>
       <c r="I31" s="59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J31" s="59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K31" s="59"/>
       <c r="L31" s="59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M31" s="60">
-        <v>40846</v>
+        <v>40860</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="79">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B32" s="24">
         <v>2011</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="E32" s="23">
         <v>5</v>
@@ -24586,31 +24624,31 @@
         <v>114</v>
       </c>
       <c r="I32" s="59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J32" s="59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K32" s="59"/>
       <c r="L32" s="59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M32" s="60">
-        <v>40825</v>
+        <v>40846</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="79">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B33" s="24">
         <v>2011</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E33" s="23">
         <v>5</v>
@@ -24625,31 +24663,31 @@
         <v>114</v>
       </c>
       <c r="I33" s="59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J33" s="59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K33" s="59"/>
       <c r="L33" s="59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M33" s="60">
-        <v>40797</v>
+        <v>40825</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="79">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" s="24">
         <v>2011</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E34" s="23">
         <v>5</v>
@@ -24664,7 +24702,7 @@
         <v>114</v>
       </c>
       <c r="I34" s="59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J34" s="59">
         <v>3</v>
@@ -24674,21 +24712,21 @@
         <v>15</v>
       </c>
       <c r="M34" s="60">
-        <v>40755</v>
+        <v>40797</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="79">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" s="24">
         <v>2011</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E35" s="23">
         <v>5</v>
@@ -24703,31 +24741,31 @@
         <v>114</v>
       </c>
       <c r="I35" s="59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J35" s="59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K35" s="59"/>
       <c r="L35" s="59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M35" s="60">
-        <v>40748</v>
+        <v>40755</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="79">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" s="24">
         <v>2011</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E36" s="23">
         <v>5</v>
@@ -24742,31 +24780,31 @@
         <v>114</v>
       </c>
       <c r="I36" s="59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J36" s="59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36" s="59"/>
       <c r="L36" s="59">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M36" s="60">
-        <v>40734</v>
+        <v>40748</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="79">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B37" s="24">
         <v>2011</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E37" s="23">
         <v>5</v>
@@ -24781,31 +24819,31 @@
         <v>114</v>
       </c>
       <c r="I37" s="59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J37" s="59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37" s="59"/>
       <c r="L37" s="59">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M37" s="60">
-        <v>40720</v>
+        <v>40734</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="79">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B38" s="24">
         <v>2011</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E38" s="23">
         <v>5</v>
@@ -24830,21 +24868,21 @@
         <v>18</v>
       </c>
       <c r="M38" s="60">
-        <v>40692</v>
+        <v>40720</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="79">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B39" s="24">
         <v>2011</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E39" s="23">
         <v>5</v>
@@ -24859,34 +24897,34 @@
         <v>114</v>
       </c>
       <c r="I39" s="59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J39" s="59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K39" s="59"/>
       <c r="L39" s="59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M39" s="60">
-        <v>40671</v>
+        <v>40692</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="79">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B40" s="24">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="E40" s="23">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F40" s="24" t="s">
         <v>19</v>
@@ -24895,7 +24933,7 @@
         <v>16</v>
       </c>
       <c r="H40" s="59" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="I40" s="59">
         <v>5</v>
@@ -24908,21 +24946,21 @@
         <v>15</v>
       </c>
       <c r="M40" s="60">
-        <v>40489</v>
+        <v>40671</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="79">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41" s="24">
         <v>2010</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E41" s="23">
         <v>8</v>
@@ -24937,31 +24975,31 @@
         <v>90</v>
       </c>
       <c r="I41" s="59">
+        <v>5</v>
+      </c>
+      <c r="J41" s="59">
         <v>3</v>
-      </c>
-      <c r="J41" s="59">
-        <v>1</v>
       </c>
       <c r="K41" s="59"/>
       <c r="L41" s="59">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M41" s="60">
-        <v>40475</v>
+        <v>40489</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="79">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B42" s="24">
         <v>2010</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="E42" s="23">
         <v>8</v>
@@ -24976,31 +25014,31 @@
         <v>90</v>
       </c>
       <c r="I42" s="59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J42" s="59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K42" s="59"/>
       <c r="L42" s="59">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M42" s="60">
-        <v>40461</v>
+        <v>40475</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A43" s="79">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" s="24">
         <v>2010</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E43" s="23">
         <v>8</v>
@@ -25015,31 +25053,31 @@
         <v>90</v>
       </c>
       <c r="I43" s="59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J43" s="59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K43" s="59"/>
       <c r="L43" s="59">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M43" s="60">
-        <v>40447</v>
+        <v>40461</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A44" s="79">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44" s="24">
         <v>2010</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E44" s="23">
         <v>8</v>
@@ -25064,21 +25102,21 @@
         <v>25</v>
       </c>
       <c r="M44" s="60">
-        <v>40433</v>
+        <v>40447</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="79">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B45" s="24">
         <v>2010</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E45" s="23">
         <v>8</v>
@@ -25093,31 +25131,31 @@
         <v>90</v>
       </c>
       <c r="I45" s="59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" s="59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K45" s="59"/>
       <c r="L45" s="59">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M45" s="60">
-        <v>40391</v>
+        <v>40433</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="79">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" s="24">
         <v>2010</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E46" s="23">
         <v>8</v>
@@ -25132,31 +25170,31 @@
         <v>90</v>
       </c>
       <c r="I46" s="59">
+        <v>3</v>
+      </c>
+      <c r="J46" s="59">
         <v>2</v>
-      </c>
-      <c r="J46" s="59">
-        <v>1</v>
       </c>
       <c r="K46" s="59"/>
       <c r="L46" s="59">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M46" s="60">
-        <v>40384</v>
+        <v>40391</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A47" s="79">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47" s="24">
         <v>2010</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E47" s="23">
         <v>8</v>
@@ -25171,31 +25209,31 @@
         <v>90</v>
       </c>
       <c r="I47" s="59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47" s="59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K47" s="59"/>
       <c r="L47" s="59">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M47" s="60">
-        <v>40342</v>
+        <v>40384</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="79">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48" s="24">
         <v>2010</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E48" s="23">
         <v>8</v>
@@ -25210,31 +25248,31 @@
         <v>90</v>
       </c>
       <c r="I48" s="59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J48" s="59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K48" s="59"/>
       <c r="L48" s="59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M48" s="60">
-        <v>40307</v>
+        <v>40342</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A49" s="79">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49" s="24">
         <v>2010</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E49" s="23">
         <v>8</v>
@@ -25249,73 +25287,73 @@
         <v>90</v>
       </c>
       <c r="I49" s="59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J49" s="59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K49" s="59"/>
       <c r="L49" s="59">
+        <v>18</v>
+      </c>
+      <c r="M49" s="60">
+        <v>40307</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="79">
+        <v>54</v>
+      </c>
+      <c r="B50" s="24">
+        <v>2010</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="23">
+        <v>8</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="I50" s="59">
+        <v>3</v>
+      </c>
+      <c r="J50" s="59">
+        <v>1</v>
+      </c>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59">
         <v>25</v>
       </c>
-      <c r="M49" s="60">
+      <c r="M50" s="60">
         <v>40251</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="80">
-        <v>53</v>
-      </c>
-      <c r="B50" s="26">
-        <v>2009</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>448</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="E50" s="25">
-        <v>7</v>
-      </c>
-      <c r="F50" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="I50" s="61">
-        <v>5</v>
-      </c>
-      <c r="J50" s="61">
-        <v>3</v>
-      </c>
-      <c r="K50" s="61"/>
-      <c r="L50" s="61">
-        <v>6</v>
-      </c>
-      <c r="M50" s="62">
-        <v>39718</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A51" s="80">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51" s="26">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E51" s="25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F51" s="26" t="s">
         <v>20</v>
@@ -25324,34 +25362,34 @@
         <v>14</v>
       </c>
       <c r="H51" s="61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I51" s="61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J51" s="61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K51" s="61"/>
       <c r="L51" s="61">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M51" s="62">
-        <v>39754</v>
+        <v>39718</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A52" s="80">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="26">
         <v>2008</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E52" s="25">
         <v>5</v>
@@ -25366,31 +25404,31 @@
         <v>95</v>
       </c>
       <c r="I52" s="61">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J52" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K52" s="61"/>
       <c r="L52" s="61">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M52" s="62">
-        <v>39733</v>
+        <v>39754</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="80">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" s="26">
         <v>2008</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E53" s="25">
         <v>5</v>
@@ -25405,7 +25443,7 @@
         <v>95</v>
       </c>
       <c r="I53" s="61">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J53" s="61">
         <v>1</v>
@@ -25415,60 +25453,60 @@
         <v>10</v>
       </c>
       <c r="M53" s="62">
+        <v>39733</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="80">
+        <v>50</v>
+      </c>
+      <c r="B54" s="26">
+        <v>2008</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="25">
+        <v>5</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="I54" s="61">
+        <v>15</v>
+      </c>
+      <c r="J54" s="61">
+        <v>1</v>
+      </c>
+      <c r="K54" s="61"/>
+      <c r="L54" s="61">
+        <v>10</v>
+      </c>
+      <c r="M54" s="62">
         <v>39719</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="81">
-        <v>49</v>
-      </c>
-      <c r="B54" s="28">
-        <v>2007</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>452</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="E54" s="27">
-        <v>1</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="I54" s="63">
-        <v>4</v>
-      </c>
-      <c r="J54" s="63">
-        <v>3</v>
-      </c>
-      <c r="K54" s="63"/>
-      <c r="L54" s="63">
-        <v>6</v>
-      </c>
-      <c r="M54" s="64">
-        <v>39376</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" s="81">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B55" s="28">
         <v>2007</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E55" s="27">
         <v>1</v>
@@ -25486,28 +25524,28 @@
         <v>4</v>
       </c>
       <c r="J55" s="63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K55" s="63"/>
       <c r="L55" s="63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M55" s="64">
-        <v>39362</v>
+        <v>39376</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A56" s="81">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B56" s="28">
         <v>2007</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E56" s="27">
         <v>1</v>
@@ -25522,31 +25560,31 @@
         <v>96</v>
       </c>
       <c r="I56" s="63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J56" s="63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K56" s="63"/>
       <c r="L56" s="63">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M56" s="64">
-        <v>39341</v>
+        <v>39362</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A57" s="81">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B57" s="28">
         <v>2007</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E57" s="27">
         <v>1</v>
@@ -25561,31 +25599,31 @@
         <v>96</v>
       </c>
       <c r="I57" s="63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J57" s="63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K57" s="63"/>
       <c r="L57" s="63">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M57" s="64">
-        <v>39334</v>
+        <v>39341</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A58" s="81">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B58" s="28">
         <v>2007</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="E58" s="27">
         <v>1</v>
@@ -25600,31 +25638,31 @@
         <v>96</v>
       </c>
       <c r="I58" s="63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J58" s="63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K58" s="63"/>
       <c r="L58" s="63">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M58" s="64">
-        <v>39320</v>
+        <v>39334</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" s="81">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B59" s="28">
         <v>2007</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E59" s="27">
         <v>1</v>
@@ -25639,31 +25677,31 @@
         <v>96</v>
       </c>
       <c r="I59" s="63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J59" s="63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K59" s="63"/>
       <c r="L59" s="63">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M59" s="64">
-        <v>39285</v>
+        <v>39320</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" s="81">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B60" s="28">
         <v>2007</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E60" s="27">
         <v>1</v>
@@ -25678,31 +25716,31 @@
         <v>96</v>
       </c>
       <c r="I60" s="63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60" s="63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K60" s="63"/>
       <c r="L60" s="63">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M60" s="64">
-        <v>39271</v>
+        <v>39285</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="81">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B61" s="28">
         <v>2007</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>502</v>
+        <v>457</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="E61" s="27">
         <v>1</v>
@@ -25717,7 +25755,7 @@
         <v>96</v>
       </c>
       <c r="I61" s="63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J61" s="63">
         <v>2</v>
@@ -25727,21 +25765,21 @@
         <v>8</v>
       </c>
       <c r="M61" s="64">
-        <v>39250</v>
+        <v>39271</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A62" s="81">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B62" s="28">
         <v>2007</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>459</v>
+        <v>501</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="E62" s="27">
         <v>1</v>
@@ -25756,31 +25794,31 @@
         <v>96</v>
       </c>
       <c r="I62" s="63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" s="63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K62" s="63"/>
       <c r="L62" s="63">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M62" s="64">
-        <v>39229</v>
+        <v>39250</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A63" s="81">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B63" s="28">
         <v>2007</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E63" s="27">
         <v>1</v>
@@ -25795,31 +25833,31 @@
         <v>96</v>
       </c>
       <c r="I63" s="63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" s="63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K63" s="63"/>
       <c r="L63" s="63">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M63" s="64">
-        <v>39215</v>
+        <v>39229</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A64" s="81">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B64" s="28">
         <v>2007</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E64" s="27">
         <v>1</v>
@@ -25837,28 +25875,28 @@
         <v>2</v>
       </c>
       <c r="J64" s="63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K64" s="63"/>
       <c r="L64" s="63">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M64" s="64">
-        <v>39180</v>
+        <v>39215</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A65" s="81">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B65" s="28">
         <v>2007</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E65" s="27">
         <v>1</v>
@@ -25876,67 +25914,67 @@
         <v>2</v>
       </c>
       <c r="J65" s="63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K65" s="63"/>
       <c r="L65" s="63">
+        <v>10</v>
+      </c>
+      <c r="M65" s="64">
+        <v>39180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="81">
+        <v>38</v>
+      </c>
+      <c r="B66" s="28">
+        <v>2007</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66" s="27">
+        <v>1</v>
+      </c>
+      <c r="F66" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="I66" s="63">
+        <v>2</v>
+      </c>
+      <c r="J66" s="63">
+        <v>2</v>
+      </c>
+      <c r="K66" s="63"/>
+      <c r="L66" s="63">
         <v>8</v>
       </c>
-      <c r="M65" s="64">
+      <c r="M66" s="64">
         <v>39159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="73">
-        <v>37</v>
-      </c>
-      <c r="B66" s="93">
-        <v>2006</v>
-      </c>
-      <c r="C66" s="93" t="s">
-        <v>463</v>
-      </c>
-      <c r="D66" s="93" t="s">
-        <v>172</v>
-      </c>
-      <c r="E66" s="29">
-        <v>1</v>
-      </c>
-      <c r="F66" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="I66" s="65">
-        <v>4</v>
-      </c>
-      <c r="J66" s="65">
-        <v>2</v>
-      </c>
-      <c r="K66" s="65"/>
-      <c r="L66" s="65">
-        <v>8</v>
-      </c>
-      <c r="M66" s="66">
-        <v>39012</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A67" s="73">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B67" s="93">
         <v>2006</v>
       </c>
       <c r="C67" s="93" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D67" s="93" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E67" s="29">
         <v>1</v>
@@ -25951,31 +25989,31 @@
         <v>103</v>
       </c>
       <c r="I67" s="65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J67" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K67" s="65"/>
       <c r="L67" s="65">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M67" s="66">
-        <v>38998</v>
+        <v>39012</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A68" s="73">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B68" s="93">
         <v>2006</v>
       </c>
       <c r="C68" s="93" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D68" s="93" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E68" s="29">
         <v>1</v>
@@ -25990,31 +26028,31 @@
         <v>103</v>
       </c>
       <c r="I68" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J68" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K68" s="65"/>
       <c r="L68" s="65">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M68" s="66">
-        <v>38991</v>
+        <v>38998</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A69" s="73">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B69" s="93">
         <v>2006</v>
       </c>
       <c r="C69" s="93" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D69" s="93" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="E69" s="29">
         <v>1</v>
@@ -26029,7 +26067,7 @@
         <v>103</v>
       </c>
       <c r="I69" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J69" s="65">
         <v>2</v>
@@ -26039,21 +26077,21 @@
         <v>8</v>
       </c>
       <c r="M69" s="66">
-        <v>38956</v>
+        <v>38991</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="73">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B70" s="93">
         <v>2006</v>
       </c>
       <c r="C70" s="93" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D70" s="93" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E70" s="29">
         <v>1</v>
@@ -26078,21 +26116,21 @@
         <v>8</v>
       </c>
       <c r="M70" s="66">
-        <v>38914</v>
+        <v>38956</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A71" s="73">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B71" s="93">
         <v>2006</v>
       </c>
       <c r="C71" s="93" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D71" s="93" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E71" s="29">
         <v>1</v>
@@ -26107,31 +26145,31 @@
         <v>103</v>
       </c>
       <c r="I71" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J71" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K71" s="65"/>
       <c r="L71" s="65">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M71" s="66">
-        <v>38893</v>
+        <v>38914</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A72" s="73">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B72" s="93">
         <v>2006</v>
       </c>
       <c r="C72" s="93" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D72" s="93" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E72" s="29">
         <v>1</v>
@@ -26156,21 +26194,21 @@
         <v>10</v>
       </c>
       <c r="M72" s="66">
-        <v>38879</v>
+        <v>38893</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A73" s="73">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B73" s="93">
         <v>2006</v>
       </c>
       <c r="C73" s="93" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D73" s="93" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E73" s="29">
         <v>1</v>
@@ -26195,21 +26233,21 @@
         <v>10</v>
       </c>
       <c r="M73" s="66">
-        <v>38865</v>
+        <v>38879</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A74" s="73">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B74" s="93">
         <v>2006</v>
       </c>
       <c r="C74" s="93" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D74" s="93" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E74" s="29">
         <v>1</v>
@@ -26234,21 +26272,21 @@
         <v>10</v>
       </c>
       <c r="M74" s="66">
-        <v>38851</v>
+        <v>38865</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A75" s="73">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B75" s="93">
         <v>2006</v>
       </c>
       <c r="C75" s="93" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D75" s="93" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E75" s="29">
         <v>1</v>
@@ -26266,28 +26304,28 @@
         <v>1</v>
       </c>
       <c r="J75" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K75" s="65"/>
       <c r="L75" s="65">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M75" s="66">
-        <v>38844</v>
+        <v>38851</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A76" s="73">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B76" s="93">
         <v>2006</v>
       </c>
       <c r="C76" s="93" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D76" s="93" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="E76" s="29">
         <v>1</v>
@@ -26302,7 +26340,7 @@
         <v>103</v>
       </c>
       <c r="I76" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J76" s="65">
         <v>2</v>
@@ -26312,21 +26350,21 @@
         <v>8</v>
       </c>
       <c r="M76" s="66">
-        <v>38830</v>
+        <v>38844</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A77" s="73">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B77" s="93">
         <v>2006</v>
       </c>
       <c r="C77" s="93" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D77" s="93" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="E77" s="29">
         <v>1</v>
@@ -26341,31 +26379,31 @@
         <v>103</v>
       </c>
       <c r="I77" s="65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J77" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K77" s="65"/>
       <c r="L77" s="65">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M77" s="66">
-        <v>38809</v>
+        <v>38830</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A78" s="73">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B78" s="93">
         <v>2006</v>
       </c>
       <c r="C78" s="93" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D78" s="93" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E78" s="29">
         <v>1</v>
@@ -26380,31 +26418,31 @@
         <v>103</v>
       </c>
       <c r="I78" s="65">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J78" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K78" s="65"/>
       <c r="L78" s="65">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M78" s="66">
-        <v>38795</v>
+        <v>38809</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A79" s="73">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B79" s="93">
         <v>2006</v>
       </c>
       <c r="C79" s="93" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D79" s="93" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E79" s="29">
         <v>1</v>
@@ -26419,34 +26457,34 @@
         <v>103</v>
       </c>
       <c r="I79" s="65">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J79" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K79" s="65"/>
       <c r="L79" s="65">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M79" s="66">
-        <v>38788</v>
+        <v>38795</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A80" s="73">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B80" s="93">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C80" s="93" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D80" s="93" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="E80" s="29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F80" s="30" t="s">
         <v>20</v>
@@ -26455,10 +26493,10 @@
         <v>14</v>
       </c>
       <c r="H80" s="65" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I80" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J80" s="65">
         <v>1</v>
@@ -26468,21 +26506,21 @@
         <v>10</v>
       </c>
       <c r="M80" s="66">
-        <v>38641</v>
+        <v>38788</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A81" s="73">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B81" s="93">
         <v>2005</v>
       </c>
       <c r="C81" s="93" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D81" s="93" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E81" s="29">
         <v>5</v>
@@ -26497,31 +26535,31 @@
         <v>102</v>
       </c>
       <c r="I81" s="65">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J81" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K81" s="65"/>
       <c r="L81" s="65">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M81" s="66">
-        <v>38634</v>
+        <v>38641</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A82" s="73">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B82" s="93">
         <v>2005</v>
       </c>
       <c r="C82" s="93" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D82" s="93" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E82" s="29">
         <v>5</v>
@@ -26536,7 +26574,7 @@
         <v>102</v>
       </c>
       <c r="I82" s="65">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J82" s="65">
         <v>3</v>
@@ -26546,21 +26584,21 @@
         <v>6</v>
       </c>
       <c r="M82" s="66">
-        <v>38620</v>
+        <v>38634</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A83" s="73">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B83" s="93">
         <v>2005</v>
       </c>
       <c r="C83" s="93" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D83" s="93" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="E83" s="29">
         <v>5</v>
@@ -26575,31 +26613,31 @@
         <v>102</v>
       </c>
       <c r="I83" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J83" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K83" s="65"/>
       <c r="L83" s="65">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M83" s="66">
-        <v>38606</v>
+        <v>38620</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A84" s="73">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B84" s="93">
         <v>2005</v>
       </c>
       <c r="C84" s="93" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D84" s="93" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E84" s="29">
         <v>5</v>
@@ -26614,7 +26652,7 @@
         <v>102</v>
       </c>
       <c r="I84" s="65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J84" s="65">
         <v>2</v>
@@ -26624,21 +26662,21 @@
         <v>8</v>
       </c>
       <c r="M84" s="66">
-        <v>38599</v>
+        <v>38606</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A85" s="73">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B85" s="93">
         <v>2005</v>
       </c>
       <c r="C85" s="93" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D85" s="93" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="E85" s="29">
         <v>5</v>
@@ -26653,7 +26691,7 @@
         <v>102</v>
       </c>
       <c r="I85" s="65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J85" s="65">
         <v>2</v>
@@ -26663,21 +26701,21 @@
         <v>8</v>
       </c>
       <c r="M85" s="66">
-        <v>38585</v>
+        <v>38599</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A86" s="73">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B86" s="93">
         <v>2005</v>
       </c>
       <c r="C86" s="93" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D86" s="93" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E86" s="29">
         <v>5</v>
@@ -26695,28 +26733,28 @@
         <v>3</v>
       </c>
       <c r="J86" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K86" s="65"/>
       <c r="L86" s="65">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M86" s="66">
-        <v>38557</v>
+        <v>38585</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A87" s="73">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B87" s="93">
         <v>2005</v>
       </c>
       <c r="C87" s="93" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D87" s="93" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E87" s="29">
         <v>5</v>
@@ -26731,31 +26769,31 @@
         <v>102</v>
       </c>
       <c r="I87" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J87" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K87" s="65"/>
       <c r="L87" s="65">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M87" s="66">
-        <v>38543</v>
+        <v>38557</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A88" s="73">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B88" s="93">
         <v>2005</v>
       </c>
       <c r="C88" s="93" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D88" s="93" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E88" s="29">
         <v>5</v>
@@ -26773,28 +26811,28 @@
         <v>1</v>
       </c>
       <c r="J88" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K88" s="65"/>
       <c r="L88" s="65">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M88" s="66">
-        <v>38536</v>
+        <v>38543</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A89" s="73">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B89" s="93">
         <v>2005</v>
       </c>
       <c r="C89" s="93" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D89" s="93" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E89" s="29">
         <v>5</v>
@@ -26809,7 +26847,7 @@
         <v>102</v>
       </c>
       <c r="I89" s="65">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J89" s="65">
         <v>1</v>
@@ -26819,21 +26857,21 @@
         <v>10</v>
       </c>
       <c r="M89" s="66">
-        <v>38501</v>
+        <v>38536</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A90" s="73">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B90" s="93">
         <v>2005</v>
       </c>
       <c r="C90" s="93" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D90" s="93" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="E90" s="29">
         <v>5</v>
@@ -26848,31 +26886,31 @@
         <v>102</v>
       </c>
       <c r="I90" s="65">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J90" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K90" s="65"/>
       <c r="L90" s="65">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M90" s="66">
-        <v>38480</v>
+        <v>38501</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A91" s="73">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B91" s="93">
         <v>2005</v>
       </c>
       <c r="C91" s="93" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D91" s="93" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="E91" s="29">
         <v>5</v>
@@ -26887,31 +26925,31 @@
         <v>102</v>
       </c>
       <c r="I91" s="65">
+        <v>3</v>
+      </c>
+      <c r="J91" s="65">
         <v>2</v>
-      </c>
-      <c r="J91" s="65">
-        <v>1</v>
       </c>
       <c r="K91" s="65"/>
       <c r="L91" s="65">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M91" s="66">
-        <v>38466</v>
+        <v>38480</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A92" s="73">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B92" s="93">
         <v>2005</v>
       </c>
       <c r="C92" s="93" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D92" s="93" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="E92" s="29">
         <v>5</v>
@@ -26926,7 +26964,7 @@
         <v>102</v>
       </c>
       <c r="I92" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" s="65">
         <v>1</v>
@@ -26936,21 +26974,21 @@
         <v>10</v>
       </c>
       <c r="M92" s="66">
-        <v>38445</v>
+        <v>38466</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A93" s="73">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B93" s="93">
         <v>2005</v>
       </c>
       <c r="C93" s="93" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D93" s="93" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E93" s="29">
         <v>5</v>
@@ -26975,21 +27013,21 @@
         <v>10</v>
       </c>
       <c r="M93" s="66">
-        <v>38431</v>
+        <v>38445</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A94" s="73">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B94" s="93">
         <v>2005</v>
       </c>
       <c r="C94" s="93" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D94" s="93" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E94" s="29">
         <v>5</v>
@@ -27004,34 +27042,34 @@
         <v>102</v>
       </c>
       <c r="I94" s="65">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J94" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K94" s="65"/>
       <c r="L94" s="65">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M94" s="66">
-        <v>38417</v>
+        <v>38431</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A95" s="73">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B95" s="93">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C95" s="93" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D95" s="93" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="E95" s="29">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F95" s="30" t="s">
         <v>20</v>
@@ -27040,10 +27078,10 @@
         <v>14</v>
       </c>
       <c r="H95" s="65" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="I95" s="65">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J95" s="65">
         <v>3</v>
@@ -27053,21 +27091,21 @@
         <v>6</v>
       </c>
       <c r="M95" s="66">
-        <v>38214</v>
+        <v>38417</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A96" s="73">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B96" s="93">
         <v>2004</v>
       </c>
       <c r="C96" s="93" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D96" s="93" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E96" s="29">
         <v>8</v>
@@ -27092,21 +27130,21 @@
         <v>6</v>
       </c>
       <c r="M96" s="66">
-        <v>38193</v>
+        <v>38214</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A97" s="73">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B97" s="93">
         <v>2004</v>
       </c>
       <c r="C97" s="93" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D97" s="93" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E97" s="29">
         <v>8</v>
@@ -27121,31 +27159,31 @@
         <v>113</v>
       </c>
       <c r="I97" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J97" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K97" s="65"/>
       <c r="L97" s="65">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M97" s="66">
-        <v>38172</v>
+        <v>38193</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A98" s="73">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B98" s="93">
         <v>2004</v>
       </c>
       <c r="C98" s="93" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D98" s="93" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E98" s="29">
         <v>8</v>
@@ -27160,31 +27198,31 @@
         <v>113</v>
       </c>
       <c r="I98" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J98" s="65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K98" s="65"/>
       <c r="L98" s="65">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M98" s="66">
-        <v>38053</v>
+        <v>38172</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A99" s="73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B99" s="93">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C99" s="93" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D99" s="93" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="E99" s="29">
         <v>8</v>
@@ -27196,34 +27234,34 @@
         <v>14</v>
       </c>
       <c r="H99" s="65" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I99" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J99" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K99" s="65"/>
       <c r="L99" s="65">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M99" s="66">
-        <v>37857</v>
+        <v>38053</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A100" s="73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B100" s="93">
         <v>2003</v>
       </c>
       <c r="C100" s="93" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D100" s="93" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="E100" s="29">
         <v>8</v>
@@ -27238,31 +27276,31 @@
         <v>110</v>
       </c>
       <c r="I100" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J100" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K100" s="65"/>
       <c r="L100" s="65">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M100" s="66">
-        <v>37745</v>
+        <v>37857</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A101" s="73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B101" s="93">
         <v>2003</v>
       </c>
       <c r="C101" s="93" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D101" s="93" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="E101" s="29">
         <v>8</v>
@@ -27277,309 +27315,340 @@
         <v>110</v>
       </c>
       <c r="I101" s="65">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J101" s="65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K101" s="65"/>
       <c r="L101" s="65">
+        <v>8</v>
+      </c>
+      <c r="M101" s="66">
+        <v>37745</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="73">
+        <v>2</v>
+      </c>
+      <c r="B102" s="93">
+        <v>2003</v>
+      </c>
+      <c r="C102" s="93" t="s">
+        <v>497</v>
+      </c>
+      <c r="D102" s="93" t="s">
+        <v>172</v>
+      </c>
+      <c r="E102" s="29">
+        <v>8</v>
+      </c>
+      <c r="F102" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G102" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="I102" s="65">
+        <v>10</v>
+      </c>
+      <c r="J102" s="65">
+        <v>3</v>
+      </c>
+      <c r="K102" s="65"/>
+      <c r="L102" s="65">
         <v>6</v>
       </c>
-      <c r="M101" s="66">
+      <c r="M102" s="66">
         <v>37717</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="82">
-        <v>1</v>
-      </c>
-      <c r="B102" s="94">
+    <row r="103" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="82">
+        <v>1</v>
+      </c>
+      <c r="B103" s="94">
         <v>2003</v>
       </c>
-      <c r="C102" s="94" t="s">
-        <v>499</v>
-      </c>
-      <c r="D102" s="94" t="s">
+      <c r="C103" s="94" t="s">
+        <v>498</v>
+      </c>
+      <c r="D103" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="E102" s="83">
+      <c r="E103" s="83">
         <v>8</v>
       </c>
-      <c r="F102" s="84" t="s">
+      <c r="F103" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="G102" s="85" t="s">
+      <c r="G103" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="H102" s="85" t="s">
+      <c r="H103" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="I102" s="85">
-        <v>1</v>
-      </c>
-      <c r="J102" s="85">
+      <c r="I103" s="85">
+        <v>1</v>
+      </c>
+      <c r="J103" s="85">
         <v>3</v>
       </c>
-      <c r="K102" s="85"/>
-      <c r="L102" s="85">
+      <c r="K103" s="85"/>
+      <c r="L103" s="85">
         <v>6</v>
       </c>
-      <c r="M102" s="86">
+      <c r="M103" s="86">
         <v>37703</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6" t="s">
+    <row r="104" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="46">
-        <f>(A66-A102+1)+(A50-A53+1)</f>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="46">
+        <f>(A67-A103+1)+(A51-A54+1)</f>
         <v>41</v>
       </c>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
-      <c r="L103" s="6"/>
-      <c r="M103" s="56"/>
-    </row>
-    <row r="104" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="33"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="10" t="s">
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="56"/>
+    </row>
+    <row r="105" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="33"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="11">
-        <f>A54-A65+1</f>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11">
+        <f>A55-A66+1</f>
         <v>12</v>
       </c>
-      <c r="J104" s="11"/>
-      <c r="K104" s="11"/>
-      <c r="L104" s="11"/>
-      <c r="M104" s="54"/>
-    </row>
-    <row r="105" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="32"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="16" t="s">
+      <c r="J105" s="11"/>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="54"/>
+    </row>
+    <row r="106" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="32"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17">
-        <f>A6-A49+1</f>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17">
+        <f>A7-A50+1</f>
         <v>44</v>
       </c>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17"/>
-      <c r="M105" s="55"/>
-    </row>
-    <row r="106" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="34"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="6" t="s">
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
+      <c r="M106" s="55"/>
+    </row>
+    <row r="107" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="34"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7">
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="J106" s="7"/>
-      <c r="K106" s="7"/>
-      <c r="L106" s="7"/>
-      <c r="M106" s="56"/>
-    </row>
-    <row r="108" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A108" s="95" t="s">
-        <v>365</v>
-      </c>
-      <c r="B108" s="98">
-        <f>SUM(B113:B133)</f>
-        <v>100</v>
-      </c>
-      <c r="C108" s="72" t="s">
-        <v>241</v>
-      </c>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="56"/>
     </row>
     <row r="109" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="95" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B109" s="98">
-        <f>SUM(C215:C244)</f>
-        <v>24</v>
+        <f>SUM(B114:B134)</f>
+        <v>101</v>
       </c>
       <c r="C109" s="72" t="s">
-        <v>409</v>
+        <v>241</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="95" t="s">
+        <v>363</v>
+      </c>
+      <c r="B110" s="98">
+        <f>SUM(C216:C245)</f>
+        <v>24</v>
+      </c>
+      <c r="C110" s="72" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A111" s="95" t="s">
         <v>364</v>
       </c>
-      <c r="B110" s="98">
-        <f>SUM(C175:C211)</f>
+      <c r="B111" s="98">
+        <f>SUM(C176:C212)</f>
         <v>28</v>
       </c>
-      <c r="C110" s="72" t="s">
+      <c r="C111" s="72" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A112" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="21" t="s">
+    <row r="113" spans="1:2" ht="18" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113" s="21" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="18" x14ac:dyDescent="0.15">
-      <c r="A113" s="2">
-        <v>2001</v>
-      </c>
-      <c r="B113" s="20">
-        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B114" s="20">
-        <f>A99-A102+1</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B115" s="20">
-        <f>A95-A98+1</f>
+        <f>A100-A103+1</f>
         <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B116" s="20">
-        <f>A80-A94+1</f>
-        <v>15</v>
+        <f>A96-A99+1</f>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B117" s="20">
-        <f>A66-A79+1</f>
-        <v>14</v>
+        <f>A81-A95+1</f>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B118" s="20">
-        <f>A54-A65+1</f>
-        <v>12</v>
+        <f>A67-A80+1</f>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B119" s="20">
-        <f>A51-A53+1</f>
-        <v>3</v>
+        <f>A55-A66+1</f>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B120" s="20">
-        <f>A50-A50+1</f>
-        <v>1</v>
+        <f>A52-A54+1</f>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B121" s="20">
-        <f>A40-A49+1</f>
-        <v>10</v>
+        <f>A51-A51+1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B122" s="20">
-        <f>A30-A39+1</f>
+        <f>A41-A50+1</f>
         <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B123" s="20">
-        <f>A17-A29+1</f>
-        <v>13</v>
+        <f>A31-A40+1</f>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B124" s="20">
-        <f>A8-A16+1</f>
-        <v>9</v>
+        <f>A18-A30+1</f>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B125" s="20">
-        <f>A6-A7+1</f>
-        <v>2</v>
+        <f>A9-A17+1</f>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B126" s="20">
-        <v>0</v>
+        <f>A7-A8+1</f>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B127" s="20">
         <v>0</v>
@@ -27587,7 +27656,7 @@
     </row>
     <row r="128" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B128" s="20">
         <v>0</v>
@@ -27595,7 +27664,7 @@
     </row>
     <row r="129" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B129" s="20">
         <v>0</v>
@@ -27603,81 +27672,77 @@
     </row>
     <row r="130" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B130" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B131" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B132" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B133" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A134" s="2">
         <v>2024</v>
       </c>
-      <c r="B133" s="20"/>
-    </row>
-    <row r="136" spans="1:3" ht="18" x14ac:dyDescent="0.15">
-      <c r="A136" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B136" s="21" t="s">
+      <c r="B134" s="20"/>
+    </row>
+    <row r="137" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A137" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B137" s="21" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B137" s="20">
-        <v>2</v>
-      </c>
-      <c r="C137" s="1">
-        <f t="shared" ref="C137:C171" si="0">IF(B137=0,0,1)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>320</v>
+        <v>237</v>
       </c>
       <c r="B138" s="20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C138" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C138:C172" si="0">IF(B138=0,0,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B139" s="20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C139" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B140" s="20">
         <v>0</v>
@@ -27689,22 +27754,22 @@
     </row>
     <row r="141" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B141" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C141" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B142" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C142" s="1">
         <f t="shared" si="0"/>
@@ -27713,10 +27778,10 @@
     </row>
     <row r="143" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B143" s="20">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C143" s="1">
         <f t="shared" si="0"/>
@@ -27725,10 +27790,10 @@
     </row>
     <row r="144" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B144" s="20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C144" s="1">
         <f t="shared" si="0"/>
@@ -27737,10 +27802,10 @@
     </row>
     <row r="145" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B145" s="20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C145" s="1">
         <f t="shared" si="0"/>
@@ -27749,10 +27814,10 @@
     </row>
     <row r="146" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B146" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C146" s="1">
         <f t="shared" si="0"/>
@@ -27761,19 +27826,19 @@
     </row>
     <row r="147" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B147" s="20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C147" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B148" s="20">
         <v>0</v>
@@ -27785,22 +27850,22 @@
     </row>
     <row r="149" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B149" s="20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C149" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B150" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C150" s="1">
         <f t="shared" si="0"/>
@@ -27809,10 +27874,10 @@
     </row>
     <row r="151" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B151" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C151" s="1">
         <f t="shared" si="0"/>
@@ -27821,7 +27886,7 @@
     </row>
     <row r="152" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B152" s="20">
         <v>5</v>
@@ -27833,10 +27898,10 @@
     </row>
     <row r="153" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B153" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C153" s="1">
         <f t="shared" si="0"/>
@@ -27845,10 +27910,10 @@
     </row>
     <row r="154" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B154" s="20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C154" s="1">
         <f t="shared" si="0"/>
@@ -27857,10 +27922,10 @@
     </row>
     <row r="155" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B155" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C155" s="1">
         <f t="shared" si="0"/>
@@ -27869,10 +27934,10 @@
     </row>
     <row r="156" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B156" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C156" s="1">
         <f t="shared" si="0"/>
@@ -27881,40 +27946,40 @@
     </row>
     <row r="157" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>402</v>
+        <v>338</v>
       </c>
       <c r="B157" s="20">
-        <v>0</v>
-      </c>
-      <c r="C157" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C157" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>339</v>
+        <v>402</v>
       </c>
       <c r="B158" s="20">
-        <v>5</v>
-      </c>
-      <c r="C158" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C158" s="1"/>
     </row>
     <row r="159" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B159" s="20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C159" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B160" s="20">
         <v>0</v>
@@ -27926,70 +27991,70 @@
     </row>
     <row r="161" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B161" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C161" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B162" s="20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C162" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B163" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B164" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B165" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C165" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B166" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C166" s="1">
         <f t="shared" si="0"/>
@@ -27998,22 +28063,22 @@
     </row>
     <row r="167" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B167" s="20">
-        <v>5</v>
-      </c>
-      <c r="C167" s="96">
+        <v>1</v>
+      </c>
+      <c r="C167" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B168" s="20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C168" s="96">
         <f t="shared" si="0"/>
@@ -28022,102 +28087,102 @@
     </row>
     <row r="169" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B169" s="20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C169" s="96">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B170" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C170" s="96">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>503</v>
+        <v>349</v>
       </c>
       <c r="B171" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C171" s="96">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="18" x14ac:dyDescent="0.15">
-      <c r="A174" s="2" t="s">
+    <row r="172" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B172" s="20">
+        <v>2</v>
+      </c>
+      <c r="C172" s="96">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A175" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B174" s="21" t="s">
+      <c r="B175" s="21" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
+    <row r="176" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B175" s="20">
-        <v>5</v>
-      </c>
-      <c r="C175" s="1">
-        <f t="shared" ref="C175:C211" si="1">IF(B175=0,0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
+      <c r="B176" s="20">
+        <v>6</v>
+      </c>
+      <c r="C176" s="1">
+        <f t="shared" ref="C176:C212" si="1">IF(B176=0,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B176" s="20">
-        <v>0</v>
-      </c>
-      <c r="C176" s="96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="B177" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C177" s="96">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="B178" s="20">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C178" s="96">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B179" s="20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C179" s="96">
         <f t="shared" si="1"/>
@@ -28126,10 +28191,10 @@
     </row>
     <row r="180" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B180" s="20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C180" s="96">
         <f t="shared" si="1"/>
@@ -28138,55 +28203,55 @@
     </row>
     <row r="181" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="B181" s="20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C181" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="B182" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C182" s="96">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B183" s="20">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C183" s="96">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B184" s="20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C184" s="96">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="B185" s="20">
         <v>3</v>
@@ -28198,10 +28263,10 @@
     </row>
     <row r="186" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B186" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C186" s="96">
         <f t="shared" si="1"/>
@@ -28210,19 +28275,19 @@
     </row>
     <row r="187" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="B187" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B188" s="20">
         <v>0</v>
@@ -28234,22 +28299,22 @@
     </row>
     <row r="189" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B189" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" s="96">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B190" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C190" s="96">
         <f t="shared" si="1"/>
@@ -28258,10 +28323,10 @@
     </row>
     <row r="191" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="B191" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C191" s="96">
         <f t="shared" si="1"/>
@@ -28270,10 +28335,10 @@
     </row>
     <row r="192" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="B192" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C192" s="96">
         <f t="shared" si="1"/>
@@ -28282,10 +28347,10 @@
     </row>
     <row r="193" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B193" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C193" s="96">
         <f t="shared" si="1"/>
@@ -28294,10 +28359,10 @@
     </row>
     <row r="194" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B194" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C194" s="96">
         <f t="shared" si="1"/>
@@ -28306,10 +28371,10 @@
     </row>
     <row r="195" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B195" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C195" s="96">
         <f t="shared" si="1"/>
@@ -28318,49 +28383,49 @@
     </row>
     <row r="196" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>404</v>
+        <v>253</v>
       </c>
       <c r="B196" s="20">
-        <v>0</v>
-      </c>
-      <c r="C196" s="96"/>
+        <v>1</v>
+      </c>
+      <c r="C196" s="96">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="197" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B197" s="20">
+        <v>0</v>
+      </c>
+      <c r="C197" s="96"/>
+    </row>
+    <row r="198" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B197" s="20">
-        <v>1</v>
-      </c>
-      <c r="C197" s="96">
+      <c r="B198" s="20">
+        <v>1</v>
+      </c>
+      <c r="C198" s="96">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B198" s="20">
-        <v>0</v>
-      </c>
-      <c r="C198" s="96"/>
     </row>
     <row r="199" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>226</v>
+        <v>403</v>
       </c>
       <c r="B199" s="20">
-        <v>4</v>
-      </c>
-      <c r="C199" s="96">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C199" s="96"/>
     </row>
     <row r="200" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B200" s="20">
         <v>4</v>
@@ -28372,19 +28437,19 @@
     </row>
     <row r="201" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="B201" s="20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C201" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B202" s="20">
         <v>0</v>
@@ -28396,19 +28461,19 @@
     </row>
     <row r="203" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="B203" s="20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C203" s="96">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="B204" s="20">
         <v>5</v>
@@ -28420,10 +28485,10 @@
     </row>
     <row r="205" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B205" s="20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C205" s="96">
         <f t="shared" si="1"/>
@@ -28432,46 +28497,46 @@
     </row>
     <row r="206" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B206" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C206" s="96">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>352</v>
+        <v>213</v>
       </c>
       <c r="B207" s="20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C207" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>215</v>
+        <v>352</v>
       </c>
       <c r="B208" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C208" s="96">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B209" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C209" s="96">
         <f t="shared" si="1"/>
@@ -28480,10 +28545,10 @@
     </row>
     <row r="210" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B210" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C210" s="96">
         <f t="shared" si="1"/>
@@ -28492,7 +28557,7 @@
     </row>
     <row r="211" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B211" s="20">
         <v>2</v>
@@ -28502,53 +28567,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="18" x14ac:dyDescent="0.15">
-      <c r="A214" s="102" t="s">
+    <row r="212" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B212" s="20">
+        <v>2</v>
+      </c>
+      <c r="C212" s="96">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A215" s="102" t="s">
         <v>366</v>
       </c>
-      <c r="B214" s="21" t="s">
+      <c r="B215" s="21" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="106" t="s">
-        <v>367</v>
-      </c>
-      <c r="B215" s="107">
-        <v>2</v>
-      </c>
-      <c r="C215" s="96">
-        <f t="shared" ref="C215:C244" si="2">IF(B215=0,0,1)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A216" s="106" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B216" s="107">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C216" s="96">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C216:C245" si="2">IF(B216=0,0,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A217" s="106" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B217" s="107">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C217" s="96">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A218" s="106" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B218" s="107">
         <v>0</v>
@@ -28560,22 +28625,22 @@
     </row>
     <row r="219" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A219" s="106" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B219" s="107">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C219" s="96">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A220" s="106" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B220" s="107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C220" s="96">
         <f t="shared" si="2"/>
@@ -28584,10 +28649,10 @@
     </row>
     <row r="221" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A221" s="106" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B221" s="107">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C221" s="96">
         <f t="shared" si="2"/>
@@ -28596,10 +28661,10 @@
     </row>
     <row r="222" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A222" s="106" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B222" s="107">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C222" s="96">
         <f t="shared" si="2"/>
@@ -28608,10 +28673,10 @@
     </row>
     <row r="223" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A223" s="106" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B223" s="107">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C223" s="96">
         <f t="shared" si="2"/>
@@ -28620,10 +28685,10 @@
     </row>
     <row r="224" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A224" s="106" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B224" s="107">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C224" s="96">
         <f t="shared" si="2"/>
@@ -28632,10 +28697,10 @@
     </row>
     <row r="225" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A225" s="106" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B225" s="107">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C225" s="96">
         <f t="shared" si="2"/>
@@ -28644,10 +28709,10 @@
     </row>
     <row r="226" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A226" s="106" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B226" s="107">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C226" s="96">
         <f t="shared" si="2"/>
@@ -28656,10 +28721,10 @@
     </row>
     <row r="227" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A227" s="106" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B227" s="107">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C227" s="96">
         <f t="shared" si="2"/>
@@ -28668,10 +28733,10 @@
     </row>
     <row r="228" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A228" s="106" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B228" s="107">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C228" s="96">
         <f t="shared" si="2"/>
@@ -28680,10 +28745,10 @@
     </row>
     <row r="229" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A229" s="106" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B229" s="107">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C229" s="96">
         <f t="shared" si="2"/>
@@ -28692,10 +28757,10 @@
     </row>
     <row r="230" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A230" s="106" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B230" s="107">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C230" s="96">
         <f t="shared" si="2"/>
@@ -28704,10 +28769,10 @@
     </row>
     <row r="231" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A231" s="106" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B231" s="107">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C231" s="96">
         <f t="shared" si="2"/>
@@ -28716,10 +28781,10 @@
     </row>
     <row r="232" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A232" s="106" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B232" s="107">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C232" s="96">
         <f t="shared" si="2"/>
@@ -28728,43 +28793,43 @@
     </row>
     <row r="233" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A233" s="106" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B233" s="107">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C233" s="96">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A234" s="106" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B234" s="107">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C234" s="96">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A235" s="106" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B235" s="107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C235" s="96">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A236" s="106" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B236" s="107">
         <v>0</v>
@@ -28776,46 +28841,46 @@
     </row>
     <row r="237" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A237" s="106" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B237" s="107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" s="96">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A238" s="106" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B238" s="107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" s="96">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A239" s="106" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B239" s="107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C239" s="96">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A240" s="106" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B240" s="107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C240" s="96">
         <f t="shared" si="2"/>
@@ -28824,10 +28889,10 @@
     </row>
     <row r="241" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A241" s="106" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B241" s="107">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C241" s="96">
         <f t="shared" si="2"/>
@@ -28836,10 +28901,10 @@
     </row>
     <row r="242" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A242" s="106" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B242" s="107">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C242" s="96">
         <f t="shared" si="2"/>
@@ -28848,10 +28913,10 @@
     </row>
     <row r="243" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A243" s="106" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B243" s="107">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C243" s="96">
         <f t="shared" si="2"/>
@@ -28860,18 +28925,30 @@
     </row>
     <row r="244" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A244" s="106" t="s">
-        <v>504</v>
+        <v>395</v>
       </c>
       <c r="B244" s="107">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C244" s="96">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
+    <row r="245" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A245" s="106" t="s">
+        <v>503</v>
+      </c>
+      <c r="B245" s="107">
+        <v>2</v>
+      </c>
+      <c r="C245" s="96">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:L106"/>
+  <autoFilter ref="A2:L107"/>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>

--- a/文档/其他文档/Others/Sports/The stats of Fernando Alonso in Formula One.xlsx
+++ b/文档/其他文档/Others/Sports/The stats of Fernando Alonso in Formula One.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Podiums" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Podiums!$A$2:$L$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Podiums!$A$2:$L$108</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Poles!$A$2:$L$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Victories!$A$2:$K$39</definedName>
   </definedNames>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="539">
   <si>
     <t>Fernando Alonso F1 Championships Summary</t>
   </si>
@@ -1903,7 +1903,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Apr 2th 2023 Australian F1 GP</t>
+    <t>May 7th 2023 Miami F1 GP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023 Miami F1 GP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miami International Autodromo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2249,7 +2257,7 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2533,6 +2541,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2587,7 +2598,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2769,11 +2779,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="127331104"/>
-        <c:axId val="127331496"/>
+        <c:axId val="223526360"/>
+        <c:axId val="127563704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127331104"/>
+        <c:axId val="223526360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2783,7 +2793,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127331496"/>
+        <c:crossAx val="127563704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2791,7 +2801,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127331496"/>
+        <c:axId val="127563704"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2802,14 +2812,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127331104"/>
+        <c:crossAx val="223526360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2868,7 +2877,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Podiums!$B$113</c:f>
+              <c:f>Podiums!$B$114</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2889,7 +2898,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Podiums!$A$114:$A$134</c:f>
+              <c:f>Podiums!$A$115:$A$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2961,7 +2970,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Podiums!$B$114:$B$134</c:f>
+              <c:f>Podiums!$B$115:$B$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3023,7 +3032,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3039,11 +3048,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="206735744"/>
-        <c:axId val="206736136"/>
+        <c:axId val="224332624"/>
+        <c:axId val="224333016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="206735744"/>
+        <c:axId val="224332624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3053,7 +3062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206736136"/>
+        <c:crossAx val="224333016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3061,7 +3070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206736136"/>
+        <c:axId val="224333016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3072,7 +3081,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206735744"/>
+        <c:crossAx val="224332624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3144,7 +3153,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Podiums!$B$137</c:f>
+              <c:f>Podiums!$B$138</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3156,7 +3165,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Podiums!$A$138:$A$172</c:f>
+              <c:f>Podiums!$A$139:$A$173</c:f>
               <c:strCache>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
@@ -3269,7 +3278,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Podiums!$B$138:$B$172</c:f>
+              <c:f>Podiums!$B$139:$B$173</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -3343,7 +3352,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4</c:v>
@@ -3391,11 +3400,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="206879856"/>
-        <c:axId val="206879464"/>
+        <c:axId val="224333800"/>
+        <c:axId val="224334192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206879856"/>
+        <c:axId val="224333800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3405,7 +3414,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206879464"/>
+        <c:crossAx val="224334192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3413,7 +3422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206879464"/>
+        <c:axId val="224334192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3424,7 +3433,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206879856"/>
+        <c:crossAx val="224333800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3496,7 +3505,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Podiums!$B$175</c:f>
+              <c:f>Podiums!$B$176</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3508,7 +3517,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Podiums!$A$176:$A$212</c:f>
+              <c:f>Podiums!$A$177:$A$213</c:f>
               <c:strCache>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
@@ -3627,7 +3636,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Podiums!$B$176:$B$212</c:f>
+              <c:f>Podiums!$B$177:$B$213</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -3701,7 +3710,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4</c:v>
@@ -3755,11 +3764,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="206881424"/>
-        <c:axId val="206878680"/>
+        <c:axId val="224334976"/>
+        <c:axId val="224335368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206881424"/>
+        <c:axId val="224334976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3769,7 +3778,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206878680"/>
+        <c:crossAx val="224335368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3777,7 +3786,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206878680"/>
+        <c:axId val="224335368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3788,7 +3797,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206881424"/>
+        <c:crossAx val="224334976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3845,6 +3854,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3859,7 +3869,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Podiums!$B$215</c:f>
+              <c:f>Podiums!$B$216</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3871,7 +3881,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Podiums!$A$216:$A$245</c:f>
+              <c:f>Podiums!$A$217:$A$246</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
@@ -3969,7 +3979,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Podiums!$B$216:$B$245</c:f>
+              <c:f>Podiums!$B$217:$B$246</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4061,7 +4071,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4076,11 +4086,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="206737312"/>
-        <c:axId val="206737704"/>
+        <c:axId val="225099544"/>
+        <c:axId val="225099936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206737312"/>
+        <c:axId val="225099544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4090,7 +4100,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206737704"/>
+        <c:crossAx val="225099936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4098,7 +4108,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206737704"/>
+        <c:axId val="225099936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4109,13 +4119,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206737312"/>
+        <c:crossAx val="225099544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4341,11 +4352,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="127332280"/>
-        <c:axId val="127332672"/>
+        <c:axId val="224387256"/>
+        <c:axId val="224394808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127332280"/>
+        <c:axId val="224387256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4355,7 +4366,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127332672"/>
+        <c:crossAx val="224394808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4363,7 +4374,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127332672"/>
+        <c:axId val="224394808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4374,7 +4385,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127332280"/>
+        <c:crossAx val="224387256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4691,11 +4702,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="127333456"/>
-        <c:axId val="127333848"/>
+        <c:axId val="222698072"/>
+        <c:axId val="222704600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127333456"/>
+        <c:axId val="222698072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4705,7 +4716,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127333848"/>
+        <c:crossAx val="222704600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4713,7 +4724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127333848"/>
+        <c:axId val="222704600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4724,7 +4735,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127333456"/>
+        <c:crossAx val="222698072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5053,11 +5064,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="127334632"/>
-        <c:axId val="206877896"/>
+        <c:axId val="222726824"/>
+        <c:axId val="222727208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127334632"/>
+        <c:axId val="222726824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5067,7 +5078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206877896"/>
+        <c:crossAx val="222727208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5075,7 +5086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206877896"/>
+        <c:axId val="222727208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5086,7 +5097,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127334632"/>
+        <c:crossAx val="222726824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5373,11 +5384,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="206880248"/>
-        <c:axId val="206880640"/>
+        <c:axId val="222833224"/>
+        <c:axId val="222835656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206880248"/>
+        <c:axId val="222833224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5387,7 +5398,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206880640"/>
+        <c:crossAx val="222835656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5395,7 +5406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206880640"/>
+        <c:axId val="222835656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5406,7 +5417,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206880248"/>
+        <c:crossAx val="222833224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5638,11 +5649,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="206589904"/>
-        <c:axId val="206590296"/>
+        <c:axId val="224133520"/>
+        <c:axId val="224133912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="206589904"/>
+        <c:axId val="224133520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5652,7 +5663,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206590296"/>
+        <c:crossAx val="224133912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5660,7 +5671,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206590296"/>
+        <c:axId val="224133912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5671,7 +5682,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206589904"/>
+        <c:crossAx val="224133520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5988,11 +5999,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="206591080"/>
-        <c:axId val="206591472"/>
+        <c:axId val="224134696"/>
+        <c:axId val="224135088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206591080"/>
+        <c:axId val="224134696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6002,7 +6013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206591472"/>
+        <c:crossAx val="224135088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6010,7 +6021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206591472"/>
+        <c:axId val="224135088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6021,7 +6032,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206591080"/>
+        <c:crossAx val="224134696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6347,11 +6358,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="206592256"/>
-        <c:axId val="206592648"/>
+        <c:axId val="224135872"/>
+        <c:axId val="224136264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206592256"/>
+        <c:axId val="224135872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6361,7 +6372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206592648"/>
+        <c:crossAx val="224136264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6369,7 +6380,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206592648"/>
+        <c:axId val="224136264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6380,7 +6391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206592256"/>
+        <c:crossAx val="224135872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6667,11 +6678,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="206593432"/>
-        <c:axId val="206734960"/>
+        <c:axId val="224137048"/>
+        <c:axId val="224331840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206593432"/>
+        <c:axId val="224137048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6681,7 +6692,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206734960"/>
+        <c:crossAx val="224331840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6689,7 +6700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206734960"/>
+        <c:axId val="224331840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6700,7 +6711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206593432"/>
+        <c:crossAx val="224137048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10872,13 +10883,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10927,13 +10938,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10982,7 +10993,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11032,7 +11043,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11082,7 +11093,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11132,7 +11143,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11182,7 +11193,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11232,7 +11243,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11282,7 +11293,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11332,7 +11343,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11382,7 +11393,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11432,7 +11443,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11482,7 +11493,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11532,7 +11543,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11582,7 +11593,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11632,7 +11643,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11682,7 +11693,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11732,7 +11743,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11782,7 +11793,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11832,7 +11843,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11882,7 +11893,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11932,7 +11943,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -11982,7 +11993,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12032,7 +12043,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12082,7 +12093,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12132,7 +12143,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12182,7 +12193,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12232,7 +12243,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12282,7 +12293,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12332,7 +12343,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12382,7 +12393,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12432,7 +12443,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12482,7 +12493,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12532,7 +12543,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12582,7 +12593,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12632,7 +12643,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12682,7 +12693,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12732,7 +12743,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12782,7 +12793,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12832,7 +12843,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12882,7 +12893,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12932,7 +12943,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -12982,7 +12993,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13032,7 +13043,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13082,7 +13093,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13132,7 +13143,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13182,7 +13193,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13232,7 +13243,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13282,7 +13293,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13332,7 +13343,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13382,7 +13393,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13432,7 +13443,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13482,7 +13493,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13532,7 +13543,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13582,7 +13593,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13632,7 +13643,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13682,13 +13693,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13737,7 +13748,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13787,7 +13798,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13837,7 +13848,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13887,13 +13898,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13942,7 +13953,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -13992,7 +14003,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14042,7 +14053,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14092,7 +14103,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14142,7 +14153,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14192,7 +14203,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14242,7 +14253,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14292,7 +14303,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14342,7 +14353,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14392,7 +14403,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14442,7 +14453,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14492,7 +14503,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14542,7 +14553,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14592,7 +14603,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14642,7 +14653,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14692,7 +14703,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14742,7 +14753,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14792,7 +14803,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14842,7 +14853,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14892,7 +14903,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14942,7 +14953,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -14992,7 +15003,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15042,7 +15053,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15092,7 +15103,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15142,7 +15153,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15192,7 +15203,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15242,7 +15253,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15292,7 +15303,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15342,7 +15353,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15392,7 +15403,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15442,7 +15453,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15492,7 +15503,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15542,7 +15553,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15592,7 +15603,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15642,7 +15653,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15692,7 +15703,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15742,13 +15753,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15772,13 +15783,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15802,13 +15813,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15832,7 +15843,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15882,7 +15893,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15932,7 +15943,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -15982,13 +15993,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>409573</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>242</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16012,7 +16023,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -16062,7 +16073,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
@@ -16112,13 +16123,63 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="152400" cy="104775"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="图片 107" descr="United Kingdom"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10677525" y="714375"/>
+          <a:ext cx="152400" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="104775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="图片 107" descr="United Kingdom"/>
+        <xdr:cNvPr id="109" name="图片 108" descr="United Kingdom"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -16450,7 +16511,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16543,7 +16606,7 @@
         <v>241</v>
       </c>
       <c r="B11" s="115">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -16777,10 +16840,10 @@
       <c r="E4" s="111"/>
       <c r="F4" s="111"/>
       <c r="G4" s="111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="111"/>
       <c r="J4" s="111"/>
@@ -17705,11 +17768,11 @@
       </c>
       <c r="G24" s="18">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24" s="18">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I24" s="18">
         <f t="shared" si="0"/>
@@ -23388,7 +23451,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M245"/>
+  <dimension ref="A1:M246"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:M1"/>
@@ -23469,16 +23532,16 @@
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="116">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B3" s="117">
         <v>2023</v>
       </c>
       <c r="C3" s="117" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D3" s="117" t="s">
-        <v>116</v>
+        <v>538</v>
       </c>
       <c r="E3" s="117">
         <v>14</v>
@@ -23493,31 +23556,31 @@
         <v>400</v>
       </c>
       <c r="I3" s="117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="117">
         <v>3</v>
       </c>
-      <c r="K3" s="117"/>
+      <c r="K3" s="125"/>
       <c r="L3" s="117">
         <v>15</v>
       </c>
       <c r="M3" s="118">
-        <v>45018</v>
+        <v>45053</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="116">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B4" s="117">
         <v>2023</v>
       </c>
       <c r="C4" s="117" t="s">
-        <v>411</v>
+        <v>535</v>
       </c>
       <c r="D4" s="117" t="s">
-        <v>413</v>
+        <v>116</v>
       </c>
       <c r="E4" s="117">
         <v>14</v>
@@ -23526,13 +23589,13 @@
         <v>398</v>
       </c>
       <c r="G4" s="117" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="H4" s="117" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="I4" s="117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="117">
         <v>3</v>
@@ -23542,21 +23605,21 @@
         <v>15</v>
       </c>
       <c r="M4" s="118">
-        <v>44990</v>
+        <v>45018</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="116">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" s="117">
         <v>2023</v>
       </c>
       <c r="C5" s="117" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D5" s="117" t="s">
-        <v>121</v>
+        <v>413</v>
       </c>
       <c r="E5" s="117">
         <v>14</v>
@@ -23571,7 +23634,7 @@
         <v>414</v>
       </c>
       <c r="I5" s="117">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5" s="117">
         <v>3</v>
@@ -23581,99 +23644,99 @@
         <v>15</v>
       </c>
       <c r="M5" s="118">
+        <v>44990</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="116">
+        <v>99</v>
+      </c>
+      <c r="B6" s="117">
+        <v>2023</v>
+      </c>
+      <c r="C6" s="117" t="s">
+        <v>410</v>
+      </c>
+      <c r="D6" s="117" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="117">
+        <v>14</v>
+      </c>
+      <c r="F6" s="109" t="s">
+        <v>398</v>
+      </c>
+      <c r="G6" s="117" t="s">
+        <v>412</v>
+      </c>
+      <c r="H6" s="117" t="s">
+        <v>414</v>
+      </c>
+      <c r="I6" s="117">
+        <v>5</v>
+      </c>
+      <c r="J6" s="117">
+        <v>3</v>
+      </c>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117">
+        <v>15</v>
+      </c>
+      <c r="M6" s="118">
         <v>45004</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="73">
+    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="73">
         <v>98</v>
       </c>
-      <c r="B6" s="93">
+      <c r="B7" s="93">
         <v>2021</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C7" s="93" t="s">
         <v>249</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D7" s="93" t="s">
         <v>252</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E7" s="29">
         <v>14</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F7" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G7" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H7" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I7" s="30">
         <v>3</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J7" s="30">
         <v>3</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30">
+      <c r="K7" s="30"/>
+      <c r="L7" s="30">
         <v>15</v>
       </c>
-      <c r="M6" s="74">
+      <c r="M7" s="74">
         <v>44521</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="79">
-        <v>97</v>
-      </c>
-      <c r="B7" s="24">
-        <v>2014</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="23">
-        <v>14</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="I7" s="59">
-        <v>5</v>
-      </c>
-      <c r="J7" s="59">
-        <v>2</v>
-      </c>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59">
-        <v>18</v>
-      </c>
-      <c r="M7" s="60">
-        <v>41847</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="79">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B8" s="24">
         <v>2014</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="E8" s="23">
         <v>14</v>
@@ -23691,31 +23754,31 @@
         <v>5</v>
       </c>
       <c r="J8" s="59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" s="59"/>
       <c r="L8" s="59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M8" s="60">
-        <v>41749</v>
+        <v>41847</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="79">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" s="24">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E9" s="23">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>19</v>
@@ -23724,10 +23787,10 @@
         <v>16</v>
       </c>
       <c r="H9" s="59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I9" s="59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J9" s="59">
         <v>3</v>
@@ -23737,21 +23800,21 @@
         <v>15</v>
       </c>
       <c r="M9" s="60">
-        <v>41602</v>
+        <v>41749</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="79">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10" s="24">
         <v>2013</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="E10" s="23">
         <v>3</v>
@@ -23766,31 +23829,31 @@
         <v>92</v>
       </c>
       <c r="I10" s="59">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J10" s="59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" s="59"/>
       <c r="L10" s="59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M10" s="60">
-        <v>41539</v>
+        <v>41602</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="79">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B11" s="24">
         <v>2013</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E11" s="23">
         <v>3</v>
@@ -23805,7 +23868,7 @@
         <v>92</v>
       </c>
       <c r="I11" s="59">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J11" s="59">
         <v>2</v>
@@ -23815,21 +23878,21 @@
         <v>18</v>
       </c>
       <c r="M11" s="60">
-        <v>41525</v>
+        <v>41539</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="79">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B12" s="24">
         <v>2013</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E12" s="23">
         <v>3</v>
@@ -23844,7 +23907,7 @@
         <v>92</v>
       </c>
       <c r="I12" s="59">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J12" s="59">
         <v>2</v>
@@ -23854,21 +23917,21 @@
         <v>18</v>
       </c>
       <c r="M12" s="60">
-        <v>41512</v>
+        <v>41525</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="79">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B13" s="24">
         <v>2013</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="E13" s="23">
         <v>3</v>
@@ -23886,28 +23949,28 @@
         <v>9</v>
       </c>
       <c r="J13" s="59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K13" s="59"/>
       <c r="L13" s="59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M13" s="60">
-        <v>41455</v>
+        <v>41512</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="79">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B14" s="24">
         <v>2013</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E14" s="23">
         <v>3</v>
@@ -23922,31 +23985,31 @@
         <v>92</v>
       </c>
       <c r="I14" s="59">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J14" s="59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K14" s="59"/>
       <c r="L14" s="59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M14" s="60">
-        <v>41434</v>
+        <v>41455</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="79">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B15" s="24">
         <v>2013</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E15" s="23">
         <v>3</v>
@@ -23961,31 +24024,31 @@
         <v>92</v>
       </c>
       <c r="I15" s="59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15" s="59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" s="59"/>
       <c r="L15" s="59">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M15" s="60">
-        <v>41406</v>
+        <v>41434</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="79">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B16" s="24">
         <v>2013</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="E16" s="23">
         <v>3</v>
@@ -24000,7 +24063,7 @@
         <v>92</v>
       </c>
       <c r="I16" s="59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J16" s="59">
         <v>1</v>
@@ -24010,21 +24073,21 @@
         <v>25</v>
       </c>
       <c r="M16" s="60">
-        <v>41378</v>
+        <v>41406</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="79">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B17" s="24">
         <v>2013</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="E17" s="23">
         <v>3</v>
@@ -24039,34 +24102,34 @@
         <v>92</v>
       </c>
       <c r="I17" s="59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17" s="59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" s="59"/>
       <c r="L17" s="59">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M17" s="60">
-        <v>41350</v>
+        <v>41378</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="79">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B18" s="24">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>424</v>
+        <v>76</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="E18" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>19</v>
@@ -24075,10 +24138,10 @@
         <v>16</v>
       </c>
       <c r="H18" s="59" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I18" s="59">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J18" s="59">
         <v>2</v>
@@ -24088,21 +24151,21 @@
         <v>18</v>
       </c>
       <c r="M18" s="60">
-        <v>41238</v>
+        <v>41350</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="79">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B19" s="24">
         <v>2012</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>500</v>
+        <v>424</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E19" s="23">
         <v>5</v>
@@ -24120,28 +24183,28 @@
         <v>7</v>
       </c>
       <c r="J19" s="59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19" s="59"/>
       <c r="L19" s="59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M19" s="60">
-        <v>41231</v>
+        <v>41238</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="79">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B20" s="24">
         <v>2012</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>425</v>
+        <v>500</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E20" s="23">
         <v>5</v>
@@ -24156,31 +24219,31 @@
         <v>91</v>
       </c>
       <c r="I20" s="59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J20" s="59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" s="59"/>
       <c r="L20" s="59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M20" s="60">
-        <v>41217</v>
+        <v>41231</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="79">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B21" s="24">
         <v>2012</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E21" s="23">
         <v>5</v>
@@ -24195,7 +24258,7 @@
         <v>91</v>
       </c>
       <c r="I21" s="59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J21" s="59">
         <v>2</v>
@@ -24205,21 +24268,21 @@
         <v>18</v>
       </c>
       <c r="M21" s="60">
-        <v>41210</v>
+        <v>41217</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="79">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B22" s="24">
         <v>2012</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E22" s="23">
         <v>5</v>
@@ -24234,31 +24297,31 @@
         <v>91</v>
       </c>
       <c r="I22" s="59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J22" s="59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K22" s="59"/>
       <c r="L22" s="59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M22" s="60">
-        <v>41196</v>
+        <v>41210</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="79">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B23" s="24">
         <v>2012</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="E23" s="23">
         <v>5</v>
@@ -24273,7 +24336,7 @@
         <v>91</v>
       </c>
       <c r="I23" s="59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J23" s="59">
         <v>3</v>
@@ -24283,21 +24346,21 @@
         <v>15</v>
       </c>
       <c r="M23" s="60">
-        <v>41175</v>
+        <v>41196</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="79">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" s="24">
         <v>2012</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E24" s="23">
         <v>5</v>
@@ -24312,7 +24375,7 @@
         <v>91</v>
       </c>
       <c r="I24" s="59">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J24" s="59">
         <v>3</v>
@@ -24322,21 +24385,21 @@
         <v>15</v>
       </c>
       <c r="M24" s="60">
-        <v>41161</v>
+        <v>41175</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="79">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B25" s="24">
         <v>2012</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E25" s="23">
         <v>5</v>
@@ -24351,31 +24414,31 @@
         <v>91</v>
       </c>
       <c r="I25" s="59">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J25" s="59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K25" s="59"/>
       <c r="L25" s="59">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M25" s="60">
-        <v>41112</v>
+        <v>41161</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="79">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B26" s="24">
         <v>2012</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E26" s="23">
         <v>5</v>
@@ -24393,28 +24456,28 @@
         <v>1</v>
       </c>
       <c r="J26" s="59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K26" s="59"/>
       <c r="L26" s="59">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M26" s="60">
-        <v>41097</v>
+        <v>41112</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="79">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27" s="24">
         <v>2012</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E27" s="23">
         <v>5</v>
@@ -24429,31 +24492,31 @@
         <v>91</v>
       </c>
       <c r="I27" s="59">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J27" s="59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" s="59"/>
       <c r="L27" s="59">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M27" s="60">
-        <v>41084</v>
+        <v>41097</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="79">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" s="24">
         <v>2012</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="E28" s="23">
         <v>5</v>
@@ -24468,31 +24531,31 @@
         <v>91</v>
       </c>
       <c r="I28" s="59">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J28" s="59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K28" s="59"/>
       <c r="L28" s="59">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M28" s="60">
-        <v>41056</v>
+        <v>41084</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="79">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B29" s="24">
         <v>2012</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E29" s="23">
         <v>5</v>
@@ -24507,31 +24570,31 @@
         <v>91</v>
       </c>
       <c r="I29" s="59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J29" s="59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K29" s="59"/>
       <c r="L29" s="59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M29" s="60">
-        <v>41042</v>
+        <v>41056</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="79">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B30" s="24">
         <v>2012</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E30" s="23">
         <v>5</v>
@@ -24546,31 +24609,31 @@
         <v>91</v>
       </c>
       <c r="I30" s="59">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J30" s="59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30" s="59"/>
       <c r="L30" s="59">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M30" s="60">
-        <v>40993</v>
+        <v>41042</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="79">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B31" s="24">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="E31" s="23">
         <v>5</v>
@@ -24582,34 +24645,34 @@
         <v>16</v>
       </c>
       <c r="H31" s="59" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="I31" s="59">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J31" s="59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K31" s="59"/>
       <c r="L31" s="59">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M31" s="60">
-        <v>40860</v>
+        <v>40993</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="79">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B32" s="24">
         <v>2011</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E32" s="23">
         <v>5</v>
@@ -24624,31 +24687,31 @@
         <v>114</v>
       </c>
       <c r="I32" s="59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J32" s="59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K32" s="59"/>
       <c r="L32" s="59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M32" s="60">
-        <v>40846</v>
+        <v>40860</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="79">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B33" s="24">
         <v>2011</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="E33" s="23">
         <v>5</v>
@@ -24663,31 +24726,31 @@
         <v>114</v>
       </c>
       <c r="I33" s="59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J33" s="59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33" s="59"/>
       <c r="L33" s="59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M33" s="60">
-        <v>40825</v>
+        <v>40846</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="79">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B34" s="24">
         <v>2011</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E34" s="23">
         <v>5</v>
@@ -24702,31 +24765,31 @@
         <v>114</v>
       </c>
       <c r="I34" s="59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J34" s="59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K34" s="59"/>
       <c r="L34" s="59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M34" s="60">
-        <v>40797</v>
+        <v>40825</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="79">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B35" s="24">
         <v>2011</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E35" s="23">
         <v>5</v>
@@ -24741,7 +24804,7 @@
         <v>114</v>
       </c>
       <c r="I35" s="59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J35" s="59">
         <v>3</v>
@@ -24751,21 +24814,21 @@
         <v>15</v>
       </c>
       <c r="M35" s="60">
-        <v>40755</v>
+        <v>40797</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="79">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B36" s="24">
         <v>2011</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E36" s="23">
         <v>5</v>
@@ -24780,31 +24843,31 @@
         <v>114</v>
       </c>
       <c r="I36" s="59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J36" s="59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K36" s="59"/>
       <c r="L36" s="59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M36" s="60">
-        <v>40748</v>
+        <v>40755</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="79">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" s="24">
         <v>2011</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E37" s="23">
         <v>5</v>
@@ -24819,31 +24882,31 @@
         <v>114</v>
       </c>
       <c r="I37" s="59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J37" s="59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37" s="59"/>
       <c r="L37" s="59">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M37" s="60">
-        <v>40734</v>
+        <v>40748</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="79">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B38" s="24">
         <v>2011</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E38" s="23">
         <v>5</v>
@@ -24858,31 +24921,31 @@
         <v>114</v>
       </c>
       <c r="I38" s="59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38" s="59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" s="59"/>
       <c r="L38" s="59">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M38" s="60">
-        <v>40720</v>
+        <v>40734</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="79">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B39" s="24">
         <v>2011</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E39" s="23">
         <v>5</v>
@@ -24907,21 +24970,21 @@
         <v>18</v>
       </c>
       <c r="M39" s="60">
-        <v>40692</v>
+        <v>40720</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="79">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B40" s="24">
         <v>2011</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E40" s="23">
         <v>5</v>
@@ -24936,34 +24999,34 @@
         <v>114</v>
       </c>
       <c r="I40" s="59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J40" s="59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K40" s="59"/>
       <c r="L40" s="59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M40" s="60">
-        <v>40671</v>
+        <v>40692</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="79">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B41" s="24">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="E41" s="23">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>19</v>
@@ -24972,7 +25035,7 @@
         <v>16</v>
       </c>
       <c r="H41" s="59" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="I41" s="59">
         <v>5</v>
@@ -24985,21 +25048,21 @@
         <v>15</v>
       </c>
       <c r="M41" s="60">
-        <v>40489</v>
+        <v>40671</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="79">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B42" s="24">
         <v>2010</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E42" s="23">
         <v>8</v>
@@ -25014,31 +25077,31 @@
         <v>90</v>
       </c>
       <c r="I42" s="59">
+        <v>5</v>
+      </c>
+      <c r="J42" s="59">
         <v>3</v>
-      </c>
-      <c r="J42" s="59">
-        <v>1</v>
       </c>
       <c r="K42" s="59"/>
       <c r="L42" s="59">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M42" s="60">
-        <v>40475</v>
+        <v>40489</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A43" s="79">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" s="24">
         <v>2010</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="E43" s="23">
         <v>8</v>
@@ -25053,31 +25116,31 @@
         <v>90</v>
       </c>
       <c r="I43" s="59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J43" s="59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K43" s="59"/>
       <c r="L43" s="59">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M43" s="60">
-        <v>40461</v>
+        <v>40475</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A44" s="79">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B44" s="24">
         <v>2010</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E44" s="23">
         <v>8</v>
@@ -25092,31 +25155,31 @@
         <v>90</v>
       </c>
       <c r="I44" s="59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J44" s="59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K44" s="59"/>
       <c r="L44" s="59">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M44" s="60">
-        <v>40447</v>
+        <v>40461</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="79">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" s="24">
         <v>2010</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E45" s="23">
         <v>8</v>
@@ -25141,21 +25204,21 @@
         <v>25</v>
       </c>
       <c r="M45" s="60">
-        <v>40433</v>
+        <v>40447</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="79">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B46" s="24">
         <v>2010</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E46" s="23">
         <v>8</v>
@@ -25170,31 +25233,31 @@
         <v>90</v>
       </c>
       <c r="I46" s="59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" s="59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K46" s="59"/>
       <c r="L46" s="59">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M46" s="60">
-        <v>40391</v>
+        <v>40433</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A47" s="79">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" s="24">
         <v>2010</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E47" s="23">
         <v>8</v>
@@ -25209,31 +25272,31 @@
         <v>90</v>
       </c>
       <c r="I47" s="59">
+        <v>3</v>
+      </c>
+      <c r="J47" s="59">
         <v>2</v>
-      </c>
-      <c r="J47" s="59">
-        <v>1</v>
       </c>
       <c r="K47" s="59"/>
       <c r="L47" s="59">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M47" s="60">
-        <v>40384</v>
+        <v>40391</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="79">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48" s="24">
         <v>2010</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E48" s="23">
         <v>8</v>
@@ -25248,31 +25311,31 @@
         <v>90</v>
       </c>
       <c r="I48" s="59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48" s="59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K48" s="59"/>
       <c r="L48" s="59">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M48" s="60">
-        <v>40342</v>
+        <v>40384</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A49" s="79">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49" s="24">
         <v>2010</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E49" s="23">
         <v>8</v>
@@ -25287,31 +25350,31 @@
         <v>90</v>
       </c>
       <c r="I49" s="59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J49" s="59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K49" s="59"/>
       <c r="L49" s="59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M49" s="60">
-        <v>40307</v>
+        <v>40342</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A50" s="79">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50" s="24">
         <v>2010</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E50" s="23">
         <v>8</v>
@@ -25326,73 +25389,73 @@
         <v>90</v>
       </c>
       <c r="I50" s="59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J50" s="59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K50" s="59"/>
       <c r="L50" s="59">
+        <v>18</v>
+      </c>
+      <c r="M50" s="60">
+        <v>40307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="79">
+        <v>54</v>
+      </c>
+      <c r="B51" s="24">
+        <v>2010</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="23">
+        <v>8</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="I51" s="59">
+        <v>3</v>
+      </c>
+      <c r="J51" s="59">
+        <v>1</v>
+      </c>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59">
         <v>25</v>
       </c>
-      <c r="M50" s="60">
+      <c r="M51" s="60">
         <v>40251</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="80">
-        <v>53</v>
-      </c>
-      <c r="B51" s="26">
-        <v>2009</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>447</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="E51" s="25">
-        <v>7</v>
-      </c>
-      <c r="F51" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="I51" s="61">
-        <v>5</v>
-      </c>
-      <c r="J51" s="61">
-        <v>3</v>
-      </c>
-      <c r="K51" s="61"/>
-      <c r="L51" s="61">
-        <v>6</v>
-      </c>
-      <c r="M51" s="62">
-        <v>39718</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A52" s="80">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52" s="26">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E52" s="25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F52" s="26" t="s">
         <v>20</v>
@@ -25401,34 +25464,34 @@
         <v>14</v>
       </c>
       <c r="H52" s="61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I52" s="61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J52" s="61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K52" s="61"/>
       <c r="L52" s="61">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M52" s="62">
-        <v>39754</v>
+        <v>39718</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="80">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="26">
         <v>2008</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E53" s="25">
         <v>5</v>
@@ -25443,31 +25506,31 @@
         <v>95</v>
       </c>
       <c r="I53" s="61">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J53" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K53" s="61"/>
       <c r="L53" s="61">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M53" s="62">
-        <v>39733</v>
+        <v>39754</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A54" s="80">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" s="26">
         <v>2008</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E54" s="25">
         <v>5</v>
@@ -25482,7 +25545,7 @@
         <v>95</v>
       </c>
       <c r="I54" s="61">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J54" s="61">
         <v>1</v>
@@ -25492,60 +25555,60 @@
         <v>10</v>
       </c>
       <c r="M54" s="62">
+        <v>39733</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="80">
+        <v>50</v>
+      </c>
+      <c r="B55" s="26">
+        <v>2008</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55" s="25">
+        <v>5</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="I55" s="61">
+        <v>15</v>
+      </c>
+      <c r="J55" s="61">
+        <v>1</v>
+      </c>
+      <c r="K55" s="61"/>
+      <c r="L55" s="61">
+        <v>10</v>
+      </c>
+      <c r="M55" s="62">
         <v>39719</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="81">
-        <v>49</v>
-      </c>
-      <c r="B55" s="28">
-        <v>2007</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>451</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="E55" s="27">
-        <v>1</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G55" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="I55" s="63">
-        <v>4</v>
-      </c>
-      <c r="J55" s="63">
-        <v>3</v>
-      </c>
-      <c r="K55" s="63"/>
-      <c r="L55" s="63">
-        <v>6</v>
-      </c>
-      <c r="M55" s="64">
-        <v>39376</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A56" s="81">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B56" s="28">
         <v>2007</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E56" s="27">
         <v>1</v>
@@ -25563,28 +25626,28 @@
         <v>4</v>
       </c>
       <c r="J56" s="63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K56" s="63"/>
       <c r="L56" s="63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M56" s="64">
-        <v>39362</v>
+        <v>39376</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A57" s="81">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B57" s="28">
         <v>2007</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E57" s="27">
         <v>1</v>
@@ -25599,31 +25662,31 @@
         <v>96</v>
       </c>
       <c r="I57" s="63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J57" s="63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K57" s="63"/>
       <c r="L57" s="63">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M57" s="64">
-        <v>39341</v>
+        <v>39362</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A58" s="81">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B58" s="28">
         <v>2007</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E58" s="27">
         <v>1</v>
@@ -25638,31 +25701,31 @@
         <v>96</v>
       </c>
       <c r="I58" s="63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58" s="63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K58" s="63"/>
       <c r="L58" s="63">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M58" s="64">
-        <v>39334</v>
+        <v>39341</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" s="81">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B59" s="28">
         <v>2007</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="E59" s="27">
         <v>1</v>
@@ -25677,31 +25740,31 @@
         <v>96</v>
       </c>
       <c r="I59" s="63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J59" s="63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K59" s="63"/>
       <c r="L59" s="63">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M59" s="64">
-        <v>39320</v>
+        <v>39334</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" s="81">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B60" s="28">
         <v>2007</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E60" s="27">
         <v>1</v>
@@ -25716,31 +25779,31 @@
         <v>96</v>
       </c>
       <c r="I60" s="63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J60" s="63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K60" s="63"/>
       <c r="L60" s="63">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M60" s="64">
-        <v>39285</v>
+        <v>39320</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="81">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B61" s="28">
         <v>2007</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E61" s="27">
         <v>1</v>
@@ -25755,31 +25818,31 @@
         <v>96</v>
       </c>
       <c r="I61" s="63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J61" s="63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K61" s="63"/>
       <c r="L61" s="63">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M61" s="64">
-        <v>39271</v>
+        <v>39285</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A62" s="81">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B62" s="28">
         <v>2007</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="E62" s="27">
         <v>1</v>
@@ -25794,7 +25857,7 @@
         <v>96</v>
       </c>
       <c r="I62" s="63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J62" s="63">
         <v>2</v>
@@ -25804,21 +25867,21 @@
         <v>8</v>
       </c>
       <c r="M62" s="64">
-        <v>39250</v>
+        <v>39271</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A63" s="81">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B63" s="28">
         <v>2007</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="E63" s="27">
         <v>1</v>
@@ -25833,31 +25896,31 @@
         <v>96</v>
       </c>
       <c r="I63" s="63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" s="63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K63" s="63"/>
       <c r="L63" s="63">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M63" s="64">
-        <v>39229</v>
+        <v>39250</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A64" s="81">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B64" s="28">
         <v>2007</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E64" s="27">
         <v>1</v>
@@ -25872,31 +25935,31 @@
         <v>96</v>
       </c>
       <c r="I64" s="63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" s="63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K64" s="63"/>
       <c r="L64" s="63">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M64" s="64">
-        <v>39215</v>
+        <v>39229</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A65" s="81">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B65" s="28">
         <v>2007</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E65" s="27">
         <v>1</v>
@@ -25914,28 +25977,28 @@
         <v>2</v>
       </c>
       <c r="J65" s="63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K65" s="63"/>
       <c r="L65" s="63">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M65" s="64">
-        <v>39180</v>
+        <v>39215</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A66" s="81">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B66" s="28">
         <v>2007</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E66" s="27">
         <v>1</v>
@@ -25953,67 +26016,67 @@
         <v>2</v>
       </c>
       <c r="J66" s="63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K66" s="63"/>
       <c r="L66" s="63">
+        <v>10</v>
+      </c>
+      <c r="M66" s="64">
+        <v>39180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="81">
+        <v>38</v>
+      </c>
+      <c r="B67" s="28">
+        <v>2007</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E67" s="27">
+        <v>1</v>
+      </c>
+      <c r="F67" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="I67" s="63">
+        <v>2</v>
+      </c>
+      <c r="J67" s="63">
+        <v>2</v>
+      </c>
+      <c r="K67" s="63"/>
+      <c r="L67" s="63">
         <v>8</v>
       </c>
-      <c r="M66" s="64">
+      <c r="M67" s="64">
         <v>39159</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="73">
-        <v>37</v>
-      </c>
-      <c r="B67" s="93">
-        <v>2006</v>
-      </c>
-      <c r="C67" s="93" t="s">
-        <v>462</v>
-      </c>
-      <c r="D67" s="93" t="s">
-        <v>172</v>
-      </c>
-      <c r="E67" s="29">
-        <v>1</v>
-      </c>
-      <c r="F67" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="I67" s="65">
-        <v>4</v>
-      </c>
-      <c r="J67" s="65">
-        <v>2</v>
-      </c>
-      <c r="K67" s="65"/>
-      <c r="L67" s="65">
-        <v>8</v>
-      </c>
-      <c r="M67" s="66">
-        <v>39012</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A68" s="73">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B68" s="93">
         <v>2006</v>
       </c>
       <c r="C68" s="93" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D68" s="93" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E68" s="29">
         <v>1</v>
@@ -26028,31 +26091,31 @@
         <v>103</v>
       </c>
       <c r="I68" s="65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J68" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K68" s="65"/>
       <c r="L68" s="65">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M68" s="66">
-        <v>38998</v>
+        <v>39012</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A69" s="73">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B69" s="93">
         <v>2006</v>
       </c>
       <c r="C69" s="93" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D69" s="93" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E69" s="29">
         <v>1</v>
@@ -26067,31 +26130,31 @@
         <v>103</v>
       </c>
       <c r="I69" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J69" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K69" s="65"/>
       <c r="L69" s="65">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M69" s="66">
-        <v>38991</v>
+        <v>38998</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="73">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B70" s="93">
         <v>2006</v>
       </c>
       <c r="C70" s="93" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D70" s="93" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="E70" s="29">
         <v>1</v>
@@ -26106,7 +26169,7 @@
         <v>103</v>
       </c>
       <c r="I70" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J70" s="65">
         <v>2</v>
@@ -26116,21 +26179,21 @@
         <v>8</v>
       </c>
       <c r="M70" s="66">
-        <v>38956</v>
+        <v>38991</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A71" s="73">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B71" s="93">
         <v>2006</v>
       </c>
       <c r="C71" s="93" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D71" s="93" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E71" s="29">
         <v>1</v>
@@ -26155,21 +26218,21 @@
         <v>8</v>
       </c>
       <c r="M71" s="66">
-        <v>38914</v>
+        <v>38956</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A72" s="73">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B72" s="93">
         <v>2006</v>
       </c>
       <c r="C72" s="93" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D72" s="93" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E72" s="29">
         <v>1</v>
@@ -26184,31 +26247,31 @@
         <v>103</v>
       </c>
       <c r="I72" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J72" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K72" s="65"/>
       <c r="L72" s="65">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M72" s="66">
-        <v>38893</v>
+        <v>38914</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A73" s="73">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B73" s="93">
         <v>2006</v>
       </c>
       <c r="C73" s="93" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D73" s="93" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E73" s="29">
         <v>1</v>
@@ -26233,21 +26296,21 @@
         <v>10</v>
       </c>
       <c r="M73" s="66">
-        <v>38879</v>
+        <v>38893</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A74" s="73">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B74" s="93">
         <v>2006</v>
       </c>
       <c r="C74" s="93" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D74" s="93" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E74" s="29">
         <v>1</v>
@@ -26272,21 +26335,21 @@
         <v>10</v>
       </c>
       <c r="M74" s="66">
-        <v>38865</v>
+        <v>38879</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A75" s="73">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B75" s="93">
         <v>2006</v>
       </c>
       <c r="C75" s="93" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D75" s="93" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E75" s="29">
         <v>1</v>
@@ -26311,21 +26374,21 @@
         <v>10</v>
       </c>
       <c r="M75" s="66">
-        <v>38851</v>
+        <v>38865</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A76" s="73">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B76" s="93">
         <v>2006</v>
       </c>
       <c r="C76" s="93" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D76" s="93" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E76" s="29">
         <v>1</v>
@@ -26343,28 +26406,28 @@
         <v>1</v>
       </c>
       <c r="J76" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K76" s="65"/>
       <c r="L76" s="65">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M76" s="66">
-        <v>38844</v>
+        <v>38851</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A77" s="73">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B77" s="93">
         <v>2006</v>
       </c>
       <c r="C77" s="93" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D77" s="93" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="E77" s="29">
         <v>1</v>
@@ -26379,7 +26442,7 @@
         <v>103</v>
       </c>
       <c r="I77" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J77" s="65">
         <v>2</v>
@@ -26389,21 +26452,21 @@
         <v>8</v>
       </c>
       <c r="M77" s="66">
-        <v>38830</v>
+        <v>38844</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A78" s="73">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B78" s="93">
         <v>2006</v>
       </c>
       <c r="C78" s="93" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D78" s="93" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="E78" s="29">
         <v>1</v>
@@ -26418,31 +26481,31 @@
         <v>103</v>
       </c>
       <c r="I78" s="65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J78" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K78" s="65"/>
       <c r="L78" s="65">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M78" s="66">
-        <v>38809</v>
+        <v>38830</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A79" s="73">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B79" s="93">
         <v>2006</v>
       </c>
       <c r="C79" s="93" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D79" s="93" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E79" s="29">
         <v>1</v>
@@ -26457,31 +26520,31 @@
         <v>103</v>
       </c>
       <c r="I79" s="65">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J79" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K79" s="65"/>
       <c r="L79" s="65">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M79" s="66">
-        <v>38795</v>
+        <v>38809</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A80" s="73">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B80" s="93">
         <v>2006</v>
       </c>
       <c r="C80" s="93" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D80" s="93" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E80" s="29">
         <v>1</v>
@@ -26496,34 +26559,34 @@
         <v>103</v>
       </c>
       <c r="I80" s="65">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J80" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K80" s="65"/>
       <c r="L80" s="65">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M80" s="66">
-        <v>38788</v>
+        <v>38795</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A81" s="73">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B81" s="93">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C81" s="93" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D81" s="93" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="E81" s="29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F81" s="30" t="s">
         <v>20</v>
@@ -26532,10 +26595,10 @@
         <v>14</v>
       </c>
       <c r="H81" s="65" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I81" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J81" s="65">
         <v>1</v>
@@ -26545,21 +26608,21 @@
         <v>10</v>
       </c>
       <c r="M81" s="66">
-        <v>38641</v>
+        <v>38788</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A82" s="73">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B82" s="93">
         <v>2005</v>
       </c>
       <c r="C82" s="93" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D82" s="93" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E82" s="29">
         <v>5</v>
@@ -26574,31 +26637,31 @@
         <v>102</v>
       </c>
       <c r="I82" s="65">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J82" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K82" s="65"/>
       <c r="L82" s="65">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M82" s="66">
-        <v>38634</v>
+        <v>38641</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A83" s="73">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B83" s="93">
         <v>2005</v>
       </c>
       <c r="C83" s="93" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D83" s="93" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E83" s="29">
         <v>5</v>
@@ -26613,7 +26676,7 @@
         <v>102</v>
       </c>
       <c r="I83" s="65">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J83" s="65">
         <v>3</v>
@@ -26623,21 +26686,21 @@
         <v>6</v>
       </c>
       <c r="M83" s="66">
-        <v>38620</v>
+        <v>38634</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A84" s="73">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B84" s="93">
         <v>2005</v>
       </c>
       <c r="C84" s="93" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D84" s="93" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="E84" s="29">
         <v>5</v>
@@ -26652,31 +26715,31 @@
         <v>102</v>
       </c>
       <c r="I84" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J84" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K84" s="65"/>
       <c r="L84" s="65">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M84" s="66">
-        <v>38606</v>
+        <v>38620</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A85" s="73">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B85" s="93">
         <v>2005</v>
       </c>
       <c r="C85" s="93" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D85" s="93" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E85" s="29">
         <v>5</v>
@@ -26691,7 +26754,7 @@
         <v>102</v>
       </c>
       <c r="I85" s="65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J85" s="65">
         <v>2</v>
@@ -26701,21 +26764,21 @@
         <v>8</v>
       </c>
       <c r="M85" s="66">
-        <v>38599</v>
+        <v>38606</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A86" s="73">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B86" s="93">
         <v>2005</v>
       </c>
       <c r="C86" s="93" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D86" s="93" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="E86" s="29">
         <v>5</v>
@@ -26730,7 +26793,7 @@
         <v>102</v>
       </c>
       <c r="I86" s="65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J86" s="65">
         <v>2</v>
@@ -26740,21 +26803,21 @@
         <v>8</v>
       </c>
       <c r="M86" s="66">
-        <v>38585</v>
+        <v>38599</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A87" s="73">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B87" s="93">
         <v>2005</v>
       </c>
       <c r="C87" s="93" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D87" s="93" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E87" s="29">
         <v>5</v>
@@ -26772,28 +26835,28 @@
         <v>3</v>
       </c>
       <c r="J87" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K87" s="65"/>
       <c r="L87" s="65">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M87" s="66">
-        <v>38557</v>
+        <v>38585</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A88" s="73">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B88" s="93">
         <v>2005</v>
       </c>
       <c r="C88" s="93" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D88" s="93" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E88" s="29">
         <v>5</v>
@@ -26808,31 +26871,31 @@
         <v>102</v>
       </c>
       <c r="I88" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J88" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K88" s="65"/>
       <c r="L88" s="65">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M88" s="66">
-        <v>38543</v>
+        <v>38557</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A89" s="73">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B89" s="93">
         <v>2005</v>
       </c>
       <c r="C89" s="93" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D89" s="93" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E89" s="29">
         <v>5</v>
@@ -26850,28 +26913,28 @@
         <v>1</v>
       </c>
       <c r="J89" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K89" s="65"/>
       <c r="L89" s="65">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M89" s="66">
-        <v>38536</v>
+        <v>38543</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A90" s="73">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B90" s="93">
         <v>2005</v>
       </c>
       <c r="C90" s="93" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D90" s="93" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E90" s="29">
         <v>5</v>
@@ -26886,7 +26949,7 @@
         <v>102</v>
       </c>
       <c r="I90" s="65">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J90" s="65">
         <v>1</v>
@@ -26896,21 +26959,21 @@
         <v>10</v>
       </c>
       <c r="M90" s="66">
-        <v>38501</v>
+        <v>38536</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A91" s="73">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B91" s="93">
         <v>2005</v>
       </c>
       <c r="C91" s="93" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D91" s="93" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="E91" s="29">
         <v>5</v>
@@ -26925,31 +26988,31 @@
         <v>102</v>
       </c>
       <c r="I91" s="65">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J91" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K91" s="65"/>
       <c r="L91" s="65">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M91" s="66">
-        <v>38480</v>
+        <v>38501</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A92" s="73">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B92" s="93">
         <v>2005</v>
       </c>
       <c r="C92" s="93" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D92" s="93" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="E92" s="29">
         <v>5</v>
@@ -26964,31 +27027,31 @@
         <v>102</v>
       </c>
       <c r="I92" s="65">
+        <v>3</v>
+      </c>
+      <c r="J92" s="65">
         <v>2</v>
-      </c>
-      <c r="J92" s="65">
-        <v>1</v>
       </c>
       <c r="K92" s="65"/>
       <c r="L92" s="65">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M92" s="66">
-        <v>38466</v>
+        <v>38480</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A93" s="73">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B93" s="93">
         <v>2005</v>
       </c>
       <c r="C93" s="93" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D93" s="93" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="E93" s="29">
         <v>5</v>
@@ -27003,7 +27066,7 @@
         <v>102</v>
       </c>
       <c r="I93" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" s="65">
         <v>1</v>
@@ -27013,21 +27076,21 @@
         <v>10</v>
       </c>
       <c r="M93" s="66">
-        <v>38445</v>
+        <v>38466</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A94" s="73">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B94" s="93">
         <v>2005</v>
       </c>
       <c r="C94" s="93" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D94" s="93" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E94" s="29">
         <v>5</v>
@@ -27052,21 +27115,21 @@
         <v>10</v>
       </c>
       <c r="M94" s="66">
-        <v>38431</v>
+        <v>38445</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A95" s="73">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B95" s="93">
         <v>2005</v>
       </c>
       <c r="C95" s="93" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D95" s="93" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E95" s="29">
         <v>5</v>
@@ -27081,34 +27144,34 @@
         <v>102</v>
       </c>
       <c r="I95" s="65">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J95" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K95" s="65"/>
       <c r="L95" s="65">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M95" s="66">
-        <v>38417</v>
+        <v>38431</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A96" s="73">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B96" s="93">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C96" s="93" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D96" s="93" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="E96" s="29">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F96" s="30" t="s">
         <v>20</v>
@@ -27117,10 +27180,10 @@
         <v>14</v>
       </c>
       <c r="H96" s="65" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="I96" s="65">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J96" s="65">
         <v>3</v>
@@ -27130,21 +27193,21 @@
         <v>6</v>
       </c>
       <c r="M96" s="66">
-        <v>38214</v>
+        <v>38417</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A97" s="73">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B97" s="93">
         <v>2004</v>
       </c>
       <c r="C97" s="93" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D97" s="93" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E97" s="29">
         <v>8</v>
@@ -27169,21 +27232,21 @@
         <v>6</v>
       </c>
       <c r="M97" s="66">
-        <v>38193</v>
+        <v>38214</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A98" s="73">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B98" s="93">
         <v>2004</v>
       </c>
       <c r="C98" s="93" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D98" s="93" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E98" s="29">
         <v>8</v>
@@ -27198,31 +27261,31 @@
         <v>113</v>
       </c>
       <c r="I98" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J98" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K98" s="65"/>
       <c r="L98" s="65">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M98" s="66">
-        <v>38172</v>
+        <v>38193</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A99" s="73">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B99" s="93">
         <v>2004</v>
       </c>
       <c r="C99" s="93" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D99" s="93" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E99" s="29">
         <v>8</v>
@@ -27237,31 +27300,31 @@
         <v>113</v>
       </c>
       <c r="I99" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J99" s="65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K99" s="65"/>
       <c r="L99" s="65">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M99" s="66">
-        <v>38053</v>
+        <v>38172</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A100" s="73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B100" s="93">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C100" s="93" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D100" s="93" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="E100" s="29">
         <v>8</v>
@@ -27273,34 +27336,34 @@
         <v>14</v>
       </c>
       <c r="H100" s="65" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I100" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J100" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K100" s="65"/>
       <c r="L100" s="65">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M100" s="66">
-        <v>37857</v>
+        <v>38053</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A101" s="73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B101" s="93">
         <v>2003</v>
       </c>
       <c r="C101" s="93" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D101" s="93" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="E101" s="29">
         <v>8</v>
@@ -27315,31 +27378,31 @@
         <v>110</v>
       </c>
       <c r="I101" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J101" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K101" s="65"/>
       <c r="L101" s="65">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M101" s="66">
-        <v>37745</v>
+        <v>37857</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A102" s="73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B102" s="93">
         <v>2003</v>
       </c>
       <c r="C102" s="93" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D102" s="93" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="E102" s="29">
         <v>8</v>
@@ -27354,309 +27417,340 @@
         <v>110</v>
       </c>
       <c r="I102" s="65">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J102" s="65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K102" s="65"/>
       <c r="L102" s="65">
+        <v>8</v>
+      </c>
+      <c r="M102" s="66">
+        <v>37745</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="73">
+        <v>2</v>
+      </c>
+      <c r="B103" s="93">
+        <v>2003</v>
+      </c>
+      <c r="C103" s="93" t="s">
+        <v>497</v>
+      </c>
+      <c r="D103" s="93" t="s">
+        <v>172</v>
+      </c>
+      <c r="E103" s="29">
+        <v>8</v>
+      </c>
+      <c r="F103" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="I103" s="65">
+        <v>10</v>
+      </c>
+      <c r="J103" s="65">
+        <v>3</v>
+      </c>
+      <c r="K103" s="65"/>
+      <c r="L103" s="65">
         <v>6</v>
       </c>
-      <c r="M102" s="66">
+      <c r="M103" s="66">
         <v>37717</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="82">
-        <v>1</v>
-      </c>
-      <c r="B103" s="94">
+    <row r="104" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="82">
+        <v>1</v>
+      </c>
+      <c r="B104" s="94">
         <v>2003</v>
       </c>
-      <c r="C103" s="94" t="s">
+      <c r="C104" s="94" t="s">
         <v>498</v>
       </c>
-      <c r="D103" s="94" t="s">
+      <c r="D104" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="E103" s="83">
+      <c r="E104" s="83">
         <v>8</v>
       </c>
-      <c r="F103" s="84" t="s">
+      <c r="F104" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="G103" s="85" t="s">
+      <c r="G104" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="H103" s="85" t="s">
+      <c r="H104" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="I103" s="85">
-        <v>1</v>
-      </c>
-      <c r="J103" s="85">
+      <c r="I104" s="85">
+        <v>1</v>
+      </c>
+      <c r="J104" s="85">
         <v>3</v>
       </c>
-      <c r="K103" s="85"/>
-      <c r="L103" s="85">
+      <c r="K104" s="85"/>
+      <c r="L104" s="85">
         <v>6</v>
       </c>
-      <c r="M103" s="86">
+      <c r="M104" s="86">
         <v>37703</v>
       </c>
     </row>
-    <row r="104" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6" t="s">
+    <row r="105" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="46">
-        <f>(A67-A103+1)+(A51-A54+1)</f>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="46">
+        <f>(A68-A104+1)+(A52-A55+1)</f>
         <v>41</v>
       </c>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-      <c r="L104" s="6"/>
-      <c r="M104" s="56"/>
-    </row>
-    <row r="105" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="33"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="10" t="s">
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="56"/>
+    </row>
+    <row r="106" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="33"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11">
-        <f>A55-A66+1</f>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11">
+        <f>A56-A67+1</f>
         <v>12</v>
       </c>
-      <c r="J105" s="11"/>
-      <c r="K105" s="11"/>
-      <c r="L105" s="11"/>
-      <c r="M105" s="54"/>
-    </row>
-    <row r="106" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="32"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="16" t="s">
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="54"/>
+    </row>
+    <row r="107" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="32"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17">
-        <f>A7-A50+1</f>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17">
+        <f>A8-A51+1</f>
         <v>44</v>
       </c>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="17"/>
-      <c r="M106" s="55"/>
-    </row>
-    <row r="107" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="34"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="6" t="s">
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="55"/>
+    </row>
+    <row r="108" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="34"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7">
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
-      <c r="L107" s="7"/>
-      <c r="M107" s="56"/>
-    </row>
-    <row r="109" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A109" s="95" t="s">
-        <v>365</v>
-      </c>
-      <c r="B109" s="98">
-        <f>SUM(B114:B134)</f>
-        <v>101</v>
-      </c>
-      <c r="C109" s="72" t="s">
-        <v>241</v>
-      </c>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="56"/>
     </row>
     <row r="110" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="95" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B110" s="98">
-        <f>SUM(C216:C245)</f>
-        <v>24</v>
+        <f>SUM(B115:B135)</f>
+        <v>102</v>
       </c>
       <c r="C110" s="72" t="s">
-        <v>409</v>
+        <v>241</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="95" t="s">
+        <v>363</v>
+      </c>
+      <c r="B111" s="98">
+        <f>SUM(C217:C246)</f>
+        <v>24</v>
+      </c>
+      <c r="C111" s="72" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A112" s="95" t="s">
         <v>364</v>
       </c>
-      <c r="B111" s="98">
-        <f>SUM(C176:C212)</f>
-        <v>28</v>
-      </c>
-      <c r="C111" s="72" t="s">
+      <c r="B112" s="98">
+        <f>SUM(C177:C213)</f>
+        <v>29</v>
+      </c>
+      <c r="C112" s="72" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="18" x14ac:dyDescent="0.15">
-      <c r="A113" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B113" s="21" t="s">
+    <row r="114" spans="1:2" ht="18" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="21" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="18" x14ac:dyDescent="0.15">
-      <c r="A114" s="2">
-        <v>2001</v>
-      </c>
-      <c r="B114" s="20">
-        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B115" s="20">
-        <f>A100-A103+1</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B116" s="20">
-        <f>A96-A99+1</f>
+        <f>A101-A104+1</f>
         <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B117" s="20">
-        <f>A81-A95+1</f>
-        <v>15</v>
+        <f>A97-A100+1</f>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B118" s="20">
-        <f>A67-A80+1</f>
-        <v>14</v>
+        <f>A82-A96+1</f>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B119" s="20">
-        <f>A55-A66+1</f>
-        <v>12</v>
+        <f>A68-A81+1</f>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B120" s="20">
-        <f>A52-A54+1</f>
-        <v>3</v>
+        <f>A56-A67+1</f>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B121" s="20">
-        <f>A51-A51+1</f>
-        <v>1</v>
+        <f>A53-A55+1</f>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B122" s="20">
-        <f>A41-A50+1</f>
-        <v>10</v>
+        <f>A52-A52+1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B123" s="20">
-        <f>A31-A40+1</f>
+        <f>A42-A51+1</f>
         <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B124" s="20">
-        <f>A18-A30+1</f>
-        <v>13</v>
+        <f>A32-A41+1</f>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B125" s="20">
-        <f>A9-A17+1</f>
-        <v>9</v>
+        <f>A19-A31+1</f>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B126" s="20">
-        <f>A7-A8+1</f>
-        <v>2</v>
+        <f>A10-A18+1</f>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B127" s="20">
-        <v>0</v>
+        <f>A8-A9+1</f>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B128" s="20">
         <v>0</v>
@@ -27664,7 +27758,7 @@
     </row>
     <row r="129" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B129" s="20">
         <v>0</v>
@@ -27672,7 +27766,7 @@
     </row>
     <row r="130" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B130" s="20">
         <v>0</v>
@@ -27680,81 +27774,77 @@
     </row>
     <row r="131" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B131" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B132" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B133" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B134" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A135" s="2">
         <v>2024</v>
       </c>
-      <c r="B134" s="20"/>
-    </row>
-    <row r="137" spans="1:3" ht="18" x14ac:dyDescent="0.15">
-      <c r="A137" s="2" t="s">
+      <c r="B135" s="20"/>
+    </row>
+    <row r="138" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A138" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B137" s="21" t="s">
+      <c r="B138" s="21" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B138" s="20">
-        <v>2</v>
-      </c>
-      <c r="C138" s="1">
-        <f t="shared" ref="C138:C172" si="0">IF(B138=0,0,1)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>320</v>
+        <v>237</v>
       </c>
       <c r="B139" s="20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C139" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C139:C173" si="0">IF(B139=0,0,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B140" s="20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C140" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B141" s="20">
         <v>0</v>
@@ -27766,22 +27856,22 @@
     </row>
     <row r="142" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B142" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C142" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B143" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C143" s="1">
         <f t="shared" si="0"/>
@@ -27790,10 +27880,10 @@
     </row>
     <row r="144" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B144" s="20">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C144" s="1">
         <f t="shared" si="0"/>
@@ -27802,10 +27892,10 @@
     </row>
     <row r="145" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B145" s="20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C145" s="1">
         <f t="shared" si="0"/>
@@ -27814,10 +27904,10 @@
     </row>
     <row r="146" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B146" s="20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C146" s="1">
         <f t="shared" si="0"/>
@@ -27826,10 +27916,10 @@
     </row>
     <row r="147" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B147" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C147" s="1">
         <f t="shared" si="0"/>
@@ -27838,19 +27928,19 @@
     </row>
     <row r="148" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B148" s="20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C148" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B149" s="20">
         <v>0</v>
@@ -27862,22 +27952,22 @@
     </row>
     <row r="150" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B150" s="20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C150" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B151" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C151" s="1">
         <f t="shared" si="0"/>
@@ -27886,10 +27976,10 @@
     </row>
     <row r="152" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B152" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C152" s="1">
         <f t="shared" si="0"/>
@@ -27898,7 +27988,7 @@
     </row>
     <row r="153" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B153" s="20">
         <v>5</v>
@@ -27910,10 +28000,10 @@
     </row>
     <row r="154" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B154" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C154" s="1">
         <f t="shared" si="0"/>
@@ -27922,10 +28012,10 @@
     </row>
     <row r="155" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B155" s="20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C155" s="1">
         <f t="shared" si="0"/>
@@ -27934,10 +28024,10 @@
     </row>
     <row r="156" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B156" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C156" s="1">
         <f t="shared" si="0"/>
@@ -27946,10 +28036,10 @@
     </row>
     <row r="157" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B157" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C157" s="1">
         <f t="shared" si="0"/>
@@ -27958,40 +28048,40 @@
     </row>
     <row r="158" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>402</v>
+        <v>338</v>
       </c>
       <c r="B158" s="20">
-        <v>0</v>
-      </c>
-      <c r="C158" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C158" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="159" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>339</v>
+        <v>402</v>
       </c>
       <c r="B159" s="20">
-        <v>5</v>
-      </c>
-      <c r="C159" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C159" s="1"/>
     </row>
     <row r="160" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B160" s="20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C160" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B161" s="20">
         <v>0</v>
@@ -28003,10 +28093,10 @@
     </row>
     <row r="162" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B162" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C162" s="1">
         <f t="shared" si="0"/>
@@ -28015,58 +28105,58 @@
     </row>
     <row r="163" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B163" s="20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C163" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B164" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B165" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B166" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C166" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B167" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C167" s="1">
         <f t="shared" si="0"/>
@@ -28075,22 +28165,22 @@
     </row>
     <row r="168" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B168" s="20">
-        <v>5</v>
-      </c>
-      <c r="C168" s="96">
+        <v>1</v>
+      </c>
+      <c r="C168" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B169" s="20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C169" s="96">
         <f t="shared" si="0"/>
@@ -28099,90 +28189,90 @@
     </row>
     <row r="170" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B170" s="20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C170" s="96">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B171" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C171" s="96">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>502</v>
+        <v>349</v>
       </c>
       <c r="B172" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C172" s="96">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="18" x14ac:dyDescent="0.15">
-      <c r="A175" s="2" t="s">
+    <row r="173" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B173" s="20">
+        <v>2</v>
+      </c>
+      <c r="C173" s="96">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A176" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B175" s="21" t="s">
+      <c r="B176" s="21" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
+    <row r="177" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B176" s="20">
+      <c r="B177" s="20">
         <v>6</v>
       </c>
-      <c r="C176" s="1">
-        <f t="shared" ref="C176:C212" si="1">IF(B176=0,0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
+      <c r="C177" s="1">
+        <f t="shared" ref="C177:C213" si="1">IF(B177=0,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B177" s="20">
-        <v>0</v>
-      </c>
-      <c r="C177" s="96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="B178" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C178" s="96">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="B179" s="20">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C179" s="96">
         <f t="shared" si="1"/>
@@ -28191,10 +28281,10 @@
     </row>
     <row r="180" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B180" s="20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C180" s="96">
         <f t="shared" si="1"/>
@@ -28203,10 +28293,10 @@
     </row>
     <row r="181" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B181" s="20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C181" s="96">
         <f t="shared" si="1"/>
@@ -28215,55 +28305,55 @@
     </row>
     <row r="182" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="B182" s="20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C182" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="B183" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C183" s="96">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B184" s="20">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C184" s="96">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B185" s="20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C185" s="96">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="B186" s="20">
         <v>3</v>
@@ -28275,10 +28365,10 @@
     </row>
     <row r="187" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B187" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C187" s="96">
         <f t="shared" si="1"/>
@@ -28287,19 +28377,19 @@
     </row>
     <row r="188" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="B188" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B189" s="20">
         <v>0</v>
@@ -28311,22 +28401,22 @@
     </row>
     <row r="190" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B190" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" s="96">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B191" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C191" s="96">
         <f t="shared" si="1"/>
@@ -28335,10 +28425,10 @@
     </row>
     <row r="192" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="B192" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C192" s="96">
         <f t="shared" si="1"/>
@@ -28347,10 +28437,10 @@
     </row>
     <row r="193" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="B193" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C193" s="96">
         <f t="shared" si="1"/>
@@ -28359,10 +28449,10 @@
     </row>
     <row r="194" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B194" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C194" s="96">
         <f t="shared" si="1"/>
@@ -28371,10 +28461,10 @@
     </row>
     <row r="195" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B195" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C195" s="96">
         <f t="shared" si="1"/>
@@ -28383,10 +28473,10 @@
     </row>
     <row r="196" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B196" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C196" s="96">
         <f t="shared" si="1"/>
@@ -28395,40 +28485,46 @@
     </row>
     <row r="197" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>404</v>
+        <v>253</v>
       </c>
       <c r="B197" s="20">
-        <v>0</v>
-      </c>
-      <c r="C197" s="96"/>
+        <v>1</v>
+      </c>
+      <c r="C197" s="96">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="198" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>250</v>
+        <v>404</v>
       </c>
       <c r="B198" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" s="96">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>403</v>
+        <v>250</v>
       </c>
       <c r="B199" s="20">
-        <v>0</v>
-      </c>
-      <c r="C199" s="96"/>
+        <v>1</v>
+      </c>
+      <c r="C199" s="96">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="200" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>226</v>
+        <v>403</v>
       </c>
       <c r="B200" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C200" s="96">
         <f t="shared" si="1"/>
@@ -28437,7 +28533,7 @@
     </row>
     <row r="201" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B201" s="20">
         <v>4</v>
@@ -28449,19 +28545,19 @@
     </row>
     <row r="202" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="B202" s="20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C202" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B203" s="20">
         <v>0</v>
@@ -28473,19 +28569,19 @@
     </row>
     <row r="204" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="B204" s="20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C204" s="96">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="B205" s="20">
         <v>5</v>
@@ -28497,10 +28593,10 @@
     </row>
     <row r="206" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B206" s="20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C206" s="96">
         <f t="shared" si="1"/>
@@ -28509,46 +28605,46 @@
     </row>
     <row r="207" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B207" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207" s="96">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>352</v>
+        <v>213</v>
       </c>
       <c r="B208" s="20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C208" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>215</v>
+        <v>352</v>
       </c>
       <c r="B209" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C209" s="96">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B210" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C210" s="96">
         <f t="shared" si="1"/>
@@ -28557,10 +28653,10 @@
     </row>
     <row r="211" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B211" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C211" s="96">
         <f t="shared" si="1"/>
@@ -28569,7 +28665,7 @@
     </row>
     <row r="212" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B212" s="20">
         <v>2</v>
@@ -28579,53 +28675,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="18" x14ac:dyDescent="0.15">
-      <c r="A215" s="102" t="s">
+    <row r="213" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B213" s="20">
+        <v>2</v>
+      </c>
+      <c r="C213" s="96">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A216" s="102" t="s">
         <v>366</v>
       </c>
-      <c r="B215" s="21" t="s">
+      <c r="B216" s="21" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="106" t="s">
-        <v>367</v>
-      </c>
-      <c r="B216" s="107">
-        <v>2</v>
-      </c>
-      <c r="C216" s="96">
-        <f t="shared" ref="C216:C245" si="2">IF(B216=0,0,1)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A217" s="106" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B217" s="107">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C217" s="96">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C217:C246" si="2">IF(B217=0,0,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A218" s="106" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B218" s="107">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C218" s="96">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A219" s="106" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B219" s="107">
         <v>0</v>
@@ -28637,22 +28733,22 @@
     </row>
     <row r="220" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A220" s="106" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B220" s="107">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C220" s="96">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A221" s="106" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B221" s="107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C221" s="96">
         <f t="shared" si="2"/>
@@ -28661,10 +28757,10 @@
     </row>
     <row r="222" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A222" s="106" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B222" s="107">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C222" s="96">
         <f t="shared" si="2"/>
@@ -28673,10 +28769,10 @@
     </row>
     <row r="223" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A223" s="106" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B223" s="107">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C223" s="96">
         <f t="shared" si="2"/>
@@ -28685,10 +28781,10 @@
     </row>
     <row r="224" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A224" s="106" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B224" s="107">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C224" s="96">
         <f t="shared" si="2"/>
@@ -28697,10 +28793,10 @@
     </row>
     <row r="225" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A225" s="106" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B225" s="107">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C225" s="96">
         <f t="shared" si="2"/>
@@ -28709,10 +28805,10 @@
     </row>
     <row r="226" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A226" s="106" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B226" s="107">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C226" s="96">
         <f t="shared" si="2"/>
@@ -28721,10 +28817,10 @@
     </row>
     <row r="227" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A227" s="106" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B227" s="107">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C227" s="96">
         <f t="shared" si="2"/>
@@ -28733,10 +28829,10 @@
     </row>
     <row r="228" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A228" s="106" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B228" s="107">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C228" s="96">
         <f t="shared" si="2"/>
@@ -28745,10 +28841,10 @@
     </row>
     <row r="229" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A229" s="106" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B229" s="107">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C229" s="96">
         <f t="shared" si="2"/>
@@ -28757,10 +28853,10 @@
     </row>
     <row r="230" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A230" s="106" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B230" s="107">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C230" s="96">
         <f t="shared" si="2"/>
@@ -28769,10 +28865,10 @@
     </row>
     <row r="231" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A231" s="106" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B231" s="107">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C231" s="96">
         <f t="shared" si="2"/>
@@ -28781,10 +28877,10 @@
     </row>
     <row r="232" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A232" s="106" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B232" s="107">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C232" s="96">
         <f t="shared" si="2"/>
@@ -28793,10 +28889,10 @@
     </row>
     <row r="233" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A233" s="106" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B233" s="107">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C233" s="96">
         <f t="shared" si="2"/>
@@ -28805,43 +28901,43 @@
     </row>
     <row r="234" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A234" s="106" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B234" s="107">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C234" s="96">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A235" s="106" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B235" s="107">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C235" s="96">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A236" s="106" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B236" s="107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C236" s="96">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A237" s="106" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B237" s="107">
         <v>0</v>
@@ -28853,46 +28949,46 @@
     </row>
     <row r="238" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A238" s="106" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B238" s="107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238" s="96">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A239" s="106" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B239" s="107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C239" s="96">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A240" s="106" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B240" s="107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C240" s="96">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A241" s="106" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B241" s="107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C241" s="96">
         <f t="shared" si="2"/>
@@ -28901,10 +28997,10 @@
     </row>
     <row r="242" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A242" s="106" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B242" s="107">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C242" s="96">
         <f t="shared" si="2"/>
@@ -28913,10 +29009,10 @@
     </row>
     <row r="243" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A243" s="106" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B243" s="107">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C243" s="96">
         <f t="shared" si="2"/>
@@ -28925,10 +29021,10 @@
     </row>
     <row r="244" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A244" s="106" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B244" s="107">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C244" s="96">
         <f t="shared" si="2"/>
@@ -28937,18 +29033,30 @@
     </row>
     <row r="245" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A245" s="106" t="s">
-        <v>503</v>
+        <v>395</v>
       </c>
       <c r="B245" s="107">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C245" s="96">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
+    <row r="246" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A246" s="106" t="s">
+        <v>503</v>
+      </c>
+      <c r="B246" s="107">
+        <v>3</v>
+      </c>
+      <c r="C246" s="96">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:L107"/>
+  <autoFilter ref="A2:L108"/>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>

--- a/文档/其他文档/Others/Sports/The stats of Fernando Alonso in Formula One.xlsx
+++ b/文档/其他文档/Others/Sports/The stats of Fernando Alonso in Formula One.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="535">
   <si>
     <t>Fernando Alonso F1 Championships Summary</t>
   </si>
@@ -256,9 +256,6 @@
     <t xml:space="preserve">2013 British F1 GP </t>
   </si>
   <si>
-    <t xml:space="preserve">2013 Canadian F1 GP </t>
-  </si>
-  <si>
     <t xml:space="preserve">2013 Spanish F1 GP </t>
   </si>
   <si>
@@ -1863,10 +1860,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>May 28th 2023 Monaco F1 GP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2023 Monaco F1 GP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1888,6 +1881,22 @@
   </si>
   <si>
     <t>Total on Aston Martin:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jun 18th 2023 Canadian F1 GP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2013 Canadian F1 GP </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 Canadian F1 GP </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circuit Gilles Villeneuve</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2502,6 +2511,12 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2519,12 +2534,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2580,6 +2589,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2762,11 +2772,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104567936"/>
-        <c:axId val="104569472"/>
+        <c:axId val="82744448"/>
+        <c:axId val="82745984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104567936"/>
+        <c:axId val="82744448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2776,7 +2786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104569472"/>
+        <c:crossAx val="82745984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2784,7 +2794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104569472"/>
+        <c:axId val="82745984"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2795,13 +2805,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104567936"/>
+        <c:crossAx val="82744448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3015,7 +3026,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3032,11 +3043,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105050880"/>
-        <c:axId val="105052416"/>
+        <c:axId val="28635904"/>
+        <c:axId val="28637440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105050880"/>
+        <c:axId val="28635904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3046,7 +3057,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105052416"/>
+        <c:crossAx val="28637440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3054,7 +3065,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105052416"/>
+        <c:axId val="28637440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3065,7 +3076,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105050880"/>
+        <c:crossAx val="28635904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3122,6 +3133,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3284,7 +3296,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5</c:v>
@@ -3371,11 +3383,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="105076224"/>
-        <c:axId val="105077760"/>
+        <c:axId val="28694016"/>
+        <c:axId val="28695552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="105076224"/>
+        <c:axId val="28694016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3385,7 +3397,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105077760"/>
+        <c:crossAx val="28695552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3393,7 +3405,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105077760"/>
+        <c:axId val="28695552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3404,13 +3416,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105076224"/>
+        <c:crossAx val="28694016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3460,6 +3473,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3640,7 +3654,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
@@ -3733,11 +3747,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="105102336"/>
-        <c:axId val="107746048"/>
+        <c:axId val="28756992"/>
+        <c:axId val="29692672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="105102336"/>
+        <c:axId val="28756992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3747,7 +3761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107746048"/>
+        <c:crossAx val="29692672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3755,7 +3769,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107746048"/>
+        <c:axId val="29692672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3766,13 +3780,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105102336"/>
+        <c:crossAx val="28756992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4053,11 +4068,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="107783296"/>
-        <c:axId val="107784832"/>
+        <c:axId val="29729920"/>
+        <c:axId val="29731456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="107783296"/>
+        <c:axId val="29729920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4067,7 +4082,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107784832"/>
+        <c:crossAx val="29731456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4075,7 +4090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107784832"/>
+        <c:axId val="29731456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4086,7 +4101,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107783296"/>
+        <c:crossAx val="29729920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4319,11 +4334,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105626624"/>
-        <c:axId val="106775296"/>
+        <c:axId val="28425216"/>
+        <c:axId val="28984064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105626624"/>
+        <c:axId val="28425216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4333,7 +4348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106775296"/>
+        <c:crossAx val="28984064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4341,7 +4356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106775296"/>
+        <c:axId val="28984064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4352,7 +4367,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105626624"/>
+        <c:crossAx val="28425216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4663,11 +4678,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="106799104"/>
-        <c:axId val="106800640"/>
+        <c:axId val="82038784"/>
+        <c:axId val="82040320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106799104"/>
+        <c:axId val="82038784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4677,7 +4692,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106800640"/>
+        <c:crossAx val="82040320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4685,7 +4700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106800640"/>
+        <c:axId val="82040320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4696,7 +4711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106799104"/>
+        <c:crossAx val="82038784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5025,11 +5040,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="106829312"/>
-        <c:axId val="106830848"/>
+        <c:axId val="29038080"/>
+        <c:axId val="29039616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106829312"/>
+        <c:axId val="29038080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5039,7 +5054,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106830848"/>
+        <c:crossAx val="29039616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5047,7 +5062,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106830848"/>
+        <c:axId val="29039616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5058,7 +5073,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106829312"/>
+        <c:crossAx val="29038080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5345,11 +5360,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="106853504"/>
-        <c:axId val="106855040"/>
+        <c:axId val="29062656"/>
+        <c:axId val="29064192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106853504"/>
+        <c:axId val="29062656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5359,7 +5374,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106855040"/>
+        <c:crossAx val="29064192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5367,7 +5382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106855040"/>
+        <c:axId val="29064192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5378,7 +5393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106853504"/>
+        <c:crossAx val="29062656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5611,11 +5626,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107270144"/>
-        <c:axId val="107271680"/>
+        <c:axId val="28823552"/>
+        <c:axId val="28825088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107270144"/>
+        <c:axId val="28823552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5625,7 +5640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107271680"/>
+        <c:crossAx val="28825088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5633,7 +5648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107271680"/>
+        <c:axId val="28825088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5644,7 +5659,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107270144"/>
+        <c:crossAx val="28823552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5949,11 +5964,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="107287296"/>
-        <c:axId val="107288832"/>
+        <c:axId val="29048192"/>
+        <c:axId val="28844416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="107287296"/>
+        <c:axId val="29048192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5963,7 +5978,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107288832"/>
+        <c:crossAx val="28844416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5971,7 +5986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107288832"/>
+        <c:axId val="28844416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5982,7 +5997,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107287296"/>
+        <c:crossAx val="29048192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6308,11 +6323,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="106840064"/>
-        <c:axId val="107313024"/>
+        <c:axId val="28885376"/>
+        <c:axId val="28886912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106840064"/>
+        <c:axId val="28885376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6322,7 +6337,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107313024"/>
+        <c:crossAx val="28886912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6330,7 +6345,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107313024"/>
+        <c:axId val="28886912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6341,7 +6356,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106840064"/>
+        <c:crossAx val="28885376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6628,11 +6643,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="107440384"/>
-        <c:axId val="107442176"/>
+        <c:axId val="29124864"/>
+        <c:axId val="29126656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="107440384"/>
+        <c:axId val="29124864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6642,7 +6657,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107442176"/>
+        <c:crossAx val="29126656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6650,7 +6665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107442176"/>
+        <c:axId val="29126656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6661,7 +6676,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107440384"/>
+        <c:crossAx val="29124864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16901,10 +16916,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="108" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B11" s="115">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -16948,7 +16963,7 @@
         <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -16996,7 +17011,7 @@
         <v>54</v>
       </c>
       <c r="B23" s="108" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -17032,23 +17047,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
+      <c r="A1" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -17085,10 +17100,10 @@
         <v>11</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>12</v>
@@ -17102,10 +17117,10 @@
         <v>2024</v>
       </c>
       <c r="B3" s="109" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" s="111" t="s">
         <v>386</v>
-      </c>
-      <c r="C3" s="111" t="s">
-        <v>387</v>
       </c>
       <c r="D3" s="114"/>
       <c r="E3" s="114"/>
@@ -17116,7 +17131,7 @@
       <c r="J3" s="114"/>
       <c r="K3" s="114"/>
       <c r="L3" s="111" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M3" s="111">
         <v>14</v>
@@ -17129,27 +17144,27 @@
         <v>2023</v>
       </c>
       <c r="B4" s="109" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" s="111" t="s">
         <v>386</v>
-      </c>
-      <c r="C4" s="111" t="s">
-        <v>387</v>
       </c>
       <c r="D4" s="111"/>
       <c r="E4" s="111"/>
       <c r="F4" s="111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="111">
         <v>4</v>
       </c>
       <c r="H4" s="111">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" s="111"/>
       <c r="J4" s="111"/>
       <c r="K4" s="111"/>
       <c r="L4" s="111" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M4" s="111">
         <v>14</v>
@@ -17162,7 +17177,7 @@
         <v>2022</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>14</v>
@@ -17192,7 +17207,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -17209,7 +17224,7 @@
         <v>2021</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>14</v>
@@ -17239,7 +17254,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -17286,7 +17301,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M7" s="13">
         <v>14</v>
@@ -17303,7 +17318,7 @@
         <v>2017</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>15</v>
@@ -17333,7 +17348,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M8" s="13">
         <v>14</v>
@@ -17380,7 +17395,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="113" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M9" s="113">
         <v>14</v>
@@ -17427,7 +17442,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="113" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M10" s="113">
         <v>14</v>
@@ -17474,7 +17489,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M11" s="17">
         <v>14</v>
@@ -17521,7 +17536,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M12" s="17">
         <v>3</v>
@@ -17568,7 +17583,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M13" s="17">
         <v>5</v>
@@ -17615,7 +17630,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M14" s="17">
         <v>5</v>
@@ -17662,7 +17677,7 @@
         <v>5</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M15" s="17">
         <v>8</v>
@@ -17709,7 +17724,7 @@
         <v>2</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M16" s="15">
         <v>7</v>
@@ -17756,7 +17771,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M17" s="15">
         <v>5</v>
@@ -17803,7 +17818,7 @@
         <v>3</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M18" s="5">
         <v>1</v>
@@ -17850,7 +17865,7 @@
         <v>5</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -17897,7 +17912,7 @@
         <v>2</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -17944,7 +17959,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -17991,7 +18006,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -18011,7 +18026,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D23" s="9">
         <v>17</v>
@@ -18038,7 +18053,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M23" s="9">
         <v>21</v>
@@ -18064,7 +18079,7 @@
       </c>
       <c r="F24" s="18">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24" s="18">
         <f t="shared" si="0"/>
@@ -18072,7 +18087,7 @@
       </c>
       <c r="H24" s="18">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I24" s="18">
         <f t="shared" si="0"/>
@@ -18099,20 +18114,20 @@
     </row>
     <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="C26" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.15">
-      <c r="A30" s="120"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="121"/>
+      <c r="A30" s="122"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="123"/>
     </row>
     <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
@@ -18323,20 +18338,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.15">
       <c r="A2" s="31"/>
@@ -18347,7 +18362,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>28</v>
@@ -18359,19 +18374,19 @@
         <v>3</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" s="31" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
@@ -18382,10 +18397,10 @@
         <v>2013</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3" s="42">
         <v>3</v>
@@ -18397,7 +18412,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I3" s="17">
         <v>5</v>
@@ -18420,10 +18435,10 @@
         <v>2013</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E4" s="42">
         <v>3</v>
@@ -18435,7 +18450,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I4" s="17">
         <v>3</v>
@@ -18458,10 +18473,10 @@
         <v>2012</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5" s="42">
         <v>5</v>
@@ -18473,7 +18488,7 @@
         <v>16</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I5" s="17">
         <v>1</v>
@@ -18496,10 +18511,10 @@
         <v>2012</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E6" s="42">
         <v>5</v>
@@ -18511,7 +18526,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I6" s="17">
         <v>11</v>
@@ -18534,10 +18549,10 @@
         <v>2012</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="42">
         <v>5</v>
@@ -18549,7 +18564,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I7" s="17">
         <v>8</v>
@@ -18572,10 +18587,10 @@
         <v>2011</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" s="42">
         <v>5</v>
@@ -18587,7 +18602,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I8" s="17">
         <v>3</v>
@@ -18610,10 +18625,10 @@
         <v>2010</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E9" s="42">
         <v>8</v>
@@ -18625,7 +18640,7 @@
         <v>16</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I9" s="17">
         <v>3</v>
@@ -18648,10 +18663,10 @@
         <v>2010</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E10" s="42">
         <v>8</v>
@@ -18663,7 +18678,7 @@
         <v>16</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" s="17">
         <v>1</v>
@@ -18686,10 +18701,10 @@
         <v>2010</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E11" s="42">
         <v>8</v>
@@ -18701,7 +18716,7 @@
         <v>16</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I11" s="17">
         <v>1</v>
@@ -18724,10 +18739,10 @@
         <v>2010</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E12" s="42">
         <v>8</v>
@@ -18739,7 +18754,7 @@
         <v>16</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I12" s="17">
         <v>2</v>
@@ -18762,10 +18777,10 @@
         <v>2010</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" s="17">
         <v>8</v>
@@ -18777,7 +18792,7 @@
         <v>16</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I13" s="17">
         <v>3</v>
@@ -18800,10 +18815,10 @@
         <v>2008</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E14" s="15">
         <v>5</v>
@@ -18815,7 +18830,7 @@
         <v>14</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I14" s="15">
         <v>4</v>
@@ -18838,10 +18853,10 @@
         <v>2008</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E15" s="15">
         <v>5</v>
@@ -18853,7 +18868,7 @@
         <v>14</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I15" s="15">
         <v>15</v>
@@ -18876,10 +18891,10 @@
         <v>2007</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E16" s="11">
         <v>1</v>
@@ -18891,7 +18906,7 @@
         <v>17</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I16" s="11">
         <v>1</v>
@@ -18914,10 +18929,10 @@
         <v>2007</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E17" s="11">
         <v>1</v>
@@ -18929,7 +18944,7 @@
         <v>17</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I17" s="11">
         <v>2</v>
@@ -18952,10 +18967,10 @@
         <v>2007</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E18" s="11">
         <v>1</v>
@@ -18967,7 +18982,7 @@
         <v>17</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I18" s="11">
         <v>1</v>
@@ -18990,10 +19005,10 @@
         <v>2007</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E19" s="11">
         <v>1</v>
@@ -19005,7 +19020,7 @@
         <v>17</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I19" s="11">
         <v>2</v>
@@ -19028,10 +19043,10 @@
         <v>2006</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E20" s="7">
         <v>1</v>
@@ -19043,7 +19058,7 @@
         <v>14</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I20" s="7">
         <v>5</v>
@@ -19066,10 +19081,10 @@
         <v>2006</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E21" s="7">
         <v>1</v>
@@ -19081,7 +19096,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I21" s="7">
         <v>1</v>
@@ -19104,10 +19119,10 @@
         <v>2006</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E22" s="7">
         <v>1</v>
@@ -19119,7 +19134,7 @@
         <v>14</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I22" s="7">
         <v>1</v>
@@ -19142,10 +19157,10 @@
         <v>2006</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E23" s="7">
         <v>1</v>
@@ -19157,7 +19172,7 @@
         <v>14</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I23" s="7">
         <v>1</v>
@@ -19180,10 +19195,10 @@
         <v>2006</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E24" s="7">
         <v>1</v>
@@ -19195,7 +19210,7 @@
         <v>14</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I24" s="7">
         <v>1</v>
@@ -19218,10 +19233,10 @@
         <v>2006</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E25" s="7">
         <v>1</v>
@@ -19233,7 +19248,7 @@
         <v>14</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I25" s="7">
         <v>3</v>
@@ -19256,10 +19271,10 @@
         <v>2006</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E26" s="7">
         <v>1</v>
@@ -19271,7 +19286,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I26" s="7">
         <v>4</v>
@@ -19294,10 +19309,10 @@
         <v>2005</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E27" s="7">
         <v>5</v>
@@ -19309,7 +19324,7 @@
         <v>14</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I27" s="7">
         <v>1</v>
@@ -19332,10 +19347,10 @@
         <v>2005</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28" s="7">
         <v>5</v>
@@ -19347,7 +19362,7 @@
         <v>14</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I28" s="7">
         <v>3</v>
@@ -19370,10 +19385,10 @@
         <v>2005</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E29" s="7">
         <v>5</v>
@@ -19385,7 +19400,7 @@
         <v>14</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I29" s="7">
         <v>1</v>
@@ -19408,10 +19423,10 @@
         <v>2005</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E30" s="7">
         <v>5</v>
@@ -19423,7 +19438,7 @@
         <v>14</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I30" s="7">
         <v>6</v>
@@ -19446,10 +19461,10 @@
         <v>2005</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E31" s="7">
         <v>5</v>
@@ -19461,7 +19476,7 @@
         <v>14</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I31" s="7">
         <v>2</v>
@@ -19484,10 +19499,10 @@
         <v>2005</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E32" s="7">
         <v>5</v>
@@ -19499,7 +19514,7 @@
         <v>14</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I32" s="7">
         <v>1</v>
@@ -19522,10 +19537,10 @@
         <v>2005</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E33" s="7">
         <v>5</v>
@@ -19537,7 +19552,7 @@
         <v>14</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I33" s="7">
         <v>1</v>
@@ -19560,10 +19575,10 @@
         <v>2003</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E34" s="7">
         <v>8</v>
@@ -19575,7 +19590,7 @@
         <v>14</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I34" s="7">
         <v>1</v>
@@ -19597,7 +19612,7 @@
       <c r="D35" s="50"/>
       <c r="E35" s="51"/>
       <c r="F35" s="50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" s="51"/>
       <c r="H35" s="51"/>
@@ -19619,7 +19634,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G36" s="7">
         <f>(A20-A34+1)+(A14-A15+1)</f>
@@ -19676,7 +19691,7 @@
       <c r="D39" s="7"/>
       <c r="E39" s="56"/>
       <c r="F39" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G39" s="7">
         <f>0</f>
@@ -19690,38 +19705,38 @@
     </row>
     <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="95" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B41" s="98">
         <f>SUM(B46:B66)</f>
         <v>32</v>
       </c>
       <c r="C41" s="72" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="95" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B42" s="98">
         <f>SUM(C147:C176)</f>
         <v>16</v>
       </c>
       <c r="C42" s="72" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="95" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B43" s="98">
         <f>SUM(C107:C143)</f>
         <v>19</v>
       </c>
       <c r="C43" s="72" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.15">
@@ -19908,7 +19923,7 @@
     </row>
     <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>59</v>
@@ -19916,7 +19931,7 @@
     </row>
     <row r="70" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B70" s="20">
         <v>0</v>
@@ -19928,7 +19943,7 @@
     </row>
     <row r="71" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B71" s="20">
         <v>1</v>
@@ -19940,7 +19955,7 @@
     </row>
     <row r="72" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B72" s="20">
         <v>0</v>
@@ -19952,7 +19967,7 @@
     </row>
     <row r="73" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B73" s="20">
         <v>0</v>
@@ -19964,7 +19979,7 @@
     </row>
     <row r="74" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B74" s="20">
         <v>3</v>
@@ -19976,7 +19991,7 @@
     </row>
     <row r="75" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B75" s="20">
         <v>0</v>
@@ -19988,7 +20003,7 @@
     </row>
     <row r="76" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B76" s="20">
         <v>0</v>
@@ -20000,7 +20015,7 @@
     </row>
     <row r="77" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B77" s="20">
         <v>2</v>
@@ -20012,7 +20027,7 @@
     </row>
     <row r="78" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B78" s="20">
         <v>1</v>
@@ -20024,7 +20039,7 @@
     </row>
     <row r="79" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B79" s="20">
         <v>2</v>
@@ -20036,7 +20051,7 @@
     </row>
     <row r="80" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B80" s="20">
         <v>0</v>
@@ -20048,7 +20063,7 @@
     </row>
     <row r="81" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B81" s="20">
         <v>3</v>
@@ -20060,7 +20075,7 @@
     </row>
     <row r="82" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B82" s="20">
         <v>1</v>
@@ -20072,7 +20087,7 @@
     </row>
     <row r="83" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B83" s="20">
         <v>3</v>
@@ -20084,7 +20099,7 @@
     </row>
     <row r="84" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B84" s="20">
         <v>1</v>
@@ -20096,7 +20111,7 @@
     </row>
     <row r="85" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B85" s="20">
         <v>0</v>
@@ -20108,7 +20123,7 @@
     </row>
     <row r="86" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B86" s="20">
         <v>2</v>
@@ -20120,7 +20135,7 @@
     </row>
     <row r="87" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B87" s="20">
         <v>2</v>
@@ -20132,7 +20147,7 @@
     </row>
     <row r="88" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B88" s="20">
         <v>1</v>
@@ -20144,7 +20159,7 @@
     </row>
     <row r="89" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B89" s="20">
         <v>0</v>
@@ -20156,7 +20171,7 @@
     </row>
     <row r="90" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B90" s="20">
         <v>3</v>
@@ -20168,7 +20183,7 @@
     </row>
     <row r="91" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B91" s="20">
         <v>0</v>
@@ -20180,7 +20195,7 @@
     </row>
     <row r="92" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B92" s="20">
         <v>0</v>
@@ -20192,7 +20207,7 @@
     </row>
     <row r="93" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B93" s="20">
         <v>2</v>
@@ -20204,7 +20219,7 @@
     </row>
     <row r="94" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B94" s="20">
         <v>0</v>
@@ -20216,7 +20231,7 @@
     </row>
     <row r="95" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B95" s="20">
         <v>0</v>
@@ -20228,7 +20243,7 @@
     </row>
     <row r="96" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B96" s="20">
         <v>0</v>
@@ -20240,7 +20255,7 @@
     </row>
     <row r="97" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B97" s="20">
         <v>1</v>
@@ -20252,7 +20267,7 @@
     </row>
     <row r="98" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B98" s="20">
         <v>0</v>
@@ -20264,7 +20279,7 @@
     </row>
     <row r="99" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B99" s="20">
         <v>2</v>
@@ -20276,7 +20291,7 @@
     </row>
     <row r="100" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B100" s="20">
         <v>2</v>
@@ -20288,7 +20303,7 @@
     </row>
     <row r="101" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B101" s="20">
         <v>0</v>
@@ -20300,7 +20315,7 @@
     </row>
     <row r="102" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B102" s="20">
         <v>0</v>
@@ -20312,7 +20327,7 @@
     </row>
     <row r="103" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B103" s="20">
         <v>0</v>
@@ -20324,7 +20339,7 @@
     </row>
     <row r="106" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B106" s="21" t="s">
         <v>59</v>
@@ -20332,7 +20347,7 @@
     </row>
     <row r="107" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B107" s="20">
         <v>1</v>
@@ -20344,7 +20359,7 @@
     </row>
     <row r="108" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B108" s="20">
         <v>0</v>
@@ -20356,7 +20371,7 @@
     </row>
     <row r="109" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B109" s="20">
         <v>1</v>
@@ -20368,7 +20383,7 @@
     </row>
     <row r="110" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B110" s="20">
         <v>0</v>
@@ -20380,7 +20395,7 @@
     </row>
     <row r="111" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B111" s="20">
         <v>2</v>
@@ -20392,7 +20407,7 @@
     </row>
     <row r="112" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B112" s="20">
         <v>3</v>
@@ -20404,7 +20419,7 @@
     </row>
     <row r="113" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B113" s="20">
         <v>0</v>
@@ -20416,7 +20431,7 @@
     </row>
     <row r="114" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B114" s="20">
         <v>0</v>
@@ -20428,7 +20443,7 @@
     </row>
     <row r="115" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B115" s="20">
         <v>2</v>
@@ -20440,7 +20455,7 @@
     </row>
     <row r="116" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B116" s="20">
         <v>1</v>
@@ -20452,7 +20467,7 @@
     </row>
     <row r="117" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B117" s="20">
         <v>1</v>
@@ -20464,7 +20479,7 @@
     </row>
     <row r="118" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B118" s="20">
         <v>0</v>
@@ -20476,7 +20491,7 @@
     </row>
     <row r="119" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B119" s="20">
         <v>0</v>
@@ -20488,7 +20503,7 @@
     </row>
     <row r="120" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B120" s="20">
         <v>0</v>
@@ -20500,7 +20515,7 @@
     </row>
     <row r="121" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B121" s="20">
         <v>1</v>
@@ -20512,7 +20527,7 @@
     </row>
     <row r="122" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B122" s="20">
         <v>3</v>
@@ -20524,7 +20539,7 @@
     </row>
     <row r="123" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B123" s="20">
         <v>1</v>
@@ -20536,7 +20551,7 @@
     </row>
     <row r="124" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B124" s="20">
         <v>0</v>
@@ -20548,7 +20563,7 @@
     </row>
     <row r="125" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B125" s="20">
         <v>0</v>
@@ -20560,7 +20575,7 @@
     </row>
     <row r="126" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B126" s="20">
         <v>1</v>
@@ -20572,7 +20587,7 @@
     </row>
     <row r="127" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B127" s="20">
         <v>0</v>
@@ -20584,7 +20599,7 @@
     </row>
     <row r="128" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B128" s="20">
         <v>0</v>
@@ -20596,7 +20611,7 @@
     </row>
     <row r="129" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B129" s="20">
         <v>0</v>
@@ -20608,7 +20623,7 @@
     </row>
     <row r="130" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B130" s="20">
         <v>0</v>
@@ -20617,7 +20632,7 @@
     </row>
     <row r="131" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B131" s="20">
         <v>2</v>
@@ -20629,7 +20644,7 @@
     </row>
     <row r="132" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B132" s="20">
         <v>2</v>
@@ -20641,7 +20656,7 @@
     </row>
     <row r="133" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B133" s="20">
         <v>0</v>
@@ -20653,7 +20668,7 @@
     </row>
     <row r="134" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B134" s="20">
         <v>0</v>
@@ -20665,7 +20680,7 @@
     </row>
     <row r="135" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B135" s="20">
         <v>3</v>
@@ -20677,7 +20692,7 @@
     </row>
     <row r="136" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B136" s="20">
         <v>2</v>
@@ -20689,7 +20704,7 @@
     </row>
     <row r="137" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B137" s="20">
         <v>2</v>
@@ -20701,7 +20716,7 @@
     </row>
     <row r="138" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B138" s="20">
         <v>2</v>
@@ -20713,7 +20728,7 @@
     </row>
     <row r="139" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B139" s="20">
         <v>0</v>
@@ -20725,7 +20740,7 @@
     </row>
     <row r="140" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B140" s="20">
         <v>0</v>
@@ -20737,7 +20752,7 @@
     </row>
     <row r="141" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B141" s="20">
         <v>1</v>
@@ -20749,7 +20764,7 @@
     </row>
     <row r="142" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B142" s="20">
         <v>1</v>
@@ -20761,7 +20776,7 @@
     </row>
     <row r="143" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B143" s="20">
         <v>0</v>
@@ -20773,7 +20788,7 @@
     </row>
     <row r="146" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A146" s="99" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B146" s="100" t="s">
         <v>59</v>
@@ -20781,7 +20796,7 @@
     </row>
     <row r="147" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A147" s="99" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B147" s="101">
         <v>0</v>
@@ -20793,7 +20808,7 @@
     </row>
     <row r="148" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A148" s="99" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B148" s="101">
         <v>1</v>
@@ -20805,7 +20820,7 @@
     </row>
     <row r="149" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A149" s="99" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B149" s="101">
         <v>0</v>
@@ -20817,7 +20832,7 @@
     </row>
     <row r="150" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A150" s="99" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B150" s="101">
         <v>0</v>
@@ -20829,7 +20844,7 @@
     </row>
     <row r="151" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A151" s="99" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B151" s="101">
         <v>3</v>
@@ -20841,7 +20856,7 @@
     </row>
     <row r="152" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A152" s="99" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B152" s="101">
         <v>0</v>
@@ -20853,7 +20868,7 @@
     </row>
     <row r="153" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A153" s="99" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B153" s="101">
         <v>0</v>
@@ -20865,7 +20880,7 @@
     </row>
     <row r="154" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A154" s="99" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B154" s="101">
         <v>2</v>
@@ -20877,7 +20892,7 @@
     </row>
     <row r="155" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A155" s="99" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B155" s="101">
         <v>1</v>
@@ -20889,7 +20904,7 @@
     </row>
     <row r="156" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A156" s="99" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B156" s="101">
         <v>2</v>
@@ -20901,7 +20916,7 @@
     </row>
     <row r="157" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A157" s="99" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B157" s="101">
         <v>1</v>
@@ -20913,7 +20928,7 @@
     </row>
     <row r="158" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A158" s="99" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B158" s="101">
         <v>5</v>
@@ -20925,7 +20940,7 @@
     </row>
     <row r="159" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A159" s="99" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B159" s="101">
         <v>1</v>
@@ -20937,7 +20952,7 @@
     </row>
     <row r="160" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A160" s="99" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B160" s="101">
         <v>0</v>
@@ -20949,7 +20964,7 @@
     </row>
     <row r="161" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A161" s="99" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B161" s="101">
         <v>2</v>
@@ -20961,7 +20976,7 @@
     </row>
     <row r="162" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A162" s="99" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B162" s="101">
         <v>2</v>
@@ -20973,7 +20988,7 @@
     </row>
     <row r="163" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A163" s="99" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B163" s="101">
         <v>1</v>
@@ -20985,7 +21000,7 @@
     </row>
     <row r="164" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A164" s="99" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B164" s="101">
         <v>3</v>
@@ -20997,7 +21012,7 @@
     </row>
     <row r="165" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A165" s="99" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B165" s="101">
         <v>0</v>
@@ -21009,7 +21024,7 @@
     </row>
     <row r="166" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A166" s="99" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B166" s="101">
         <v>2</v>
@@ -21021,7 +21036,7 @@
     </row>
     <row r="167" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A167" s="99" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B167" s="101">
         <v>0</v>
@@ -21033,7 +21048,7 @@
     </row>
     <row r="168" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A168" s="99" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B168" s="101">
         <v>0</v>
@@ -21045,7 +21060,7 @@
     </row>
     <row r="169" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A169" s="99" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B169" s="101">
         <v>0</v>
@@ -21057,7 +21072,7 @@
     </row>
     <row r="170" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A170" s="99" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B170" s="101">
         <v>0</v>
@@ -21069,7 +21084,7 @@
     </row>
     <row r="171" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A171" s="99" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B171" s="101">
         <v>1</v>
@@ -21081,7 +21096,7 @@
     </row>
     <row r="172" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A172" s="99" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B172" s="101">
         <v>0</v>
@@ -21093,7 +21108,7 @@
     </row>
     <row r="173" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A173" s="99" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B173" s="101">
         <v>2</v>
@@ -21105,7 +21120,7 @@
     </row>
     <row r="174" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A174" s="99" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B174" s="101">
         <v>3</v>
@@ -21117,7 +21132,7 @@
     </row>
     <row r="175" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A175" s="99" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B175" s="101">
         <v>0</v>
@@ -21129,7 +21144,7 @@
     </row>
     <row r="176" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A176" s="99" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B176" s="101">
         <v>0</v>
@@ -21178,21 +21193,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
@@ -21203,10 +21218,10 @@
         <v>23</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>28</v>
@@ -21218,7 +21233,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>24</v>
@@ -21230,7 +21245,7 @@
         <v>27</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N2" s="35"/>
       <c r="O2" s="35"/>
@@ -21243,13 +21258,13 @@
         <v>2012</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E3" s="67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F3" s="17">
         <v>5</v>
@@ -21261,7 +21276,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J3" s="17">
         <v>1</v>
@@ -21286,13 +21301,13 @@
         <v>2012</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E4" s="67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F4" s="17">
         <v>5</v>
@@ -21304,7 +21319,7 @@
         <v>16</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J4" s="17">
         <v>1</v>
@@ -21329,13 +21344,13 @@
         <v>2010</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5" s="67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F5" s="17">
         <v>8</v>
@@ -21347,7 +21362,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J5" s="17">
         <v>1</v>
@@ -21372,13 +21387,13 @@
         <v>2010</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E6" s="67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F6" s="17">
         <v>8</v>
@@ -21390,7 +21405,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J6" s="17">
         <v>1</v>
@@ -21415,13 +21430,13 @@
         <v>2009</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E7" s="68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F7" s="15">
         <v>7</v>
@@ -21433,13 +21448,13 @@
         <v>14</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J7" s="15">
         <v>1</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L7" s="15">
         <v>0</v>
@@ -21458,13 +21473,13 @@
         <v>2007</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F8" s="11">
         <v>1</v>
@@ -21476,7 +21491,7 @@
         <v>17</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J8" s="11">
         <v>1</v>
@@ -21501,13 +21516,13 @@
         <v>2007</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="11">
         <v>1</v>
@@ -21519,7 +21534,7 @@
         <v>17</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J9" s="11">
         <v>1</v>
@@ -21544,13 +21559,13 @@
         <v>2006</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E10" s="70" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
@@ -21562,7 +21577,7 @@
         <v>14</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J10" s="7">
         <v>1</v>
@@ -21587,13 +21602,13 @@
         <v>2006</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" s="70" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7">
         <v>1</v>
@@ -21605,7 +21620,7 @@
         <v>14</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J11" s="7">
         <v>1</v>
@@ -21630,13 +21645,13 @@
         <v>2006</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" s="70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F12" s="7">
         <v>1</v>
@@ -21648,7 +21663,7 @@
         <v>14</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J12" s="7">
         <v>1</v>
@@ -21673,13 +21688,13 @@
         <v>2006</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E13" s="70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F13" s="7">
         <v>1</v>
@@ -21691,7 +21706,7 @@
         <v>14</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J13" s="7">
         <v>1</v>
@@ -21716,13 +21731,13 @@
         <v>2006</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" s="70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F14" s="7">
         <v>1</v>
@@ -21734,7 +21749,7 @@
         <v>14</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J14" s="7">
         <v>1</v>
@@ -21759,13 +21774,13 @@
         <v>2006</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E15" s="70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F15" s="7">
         <v>1</v>
@@ -21777,7 +21792,7 @@
         <v>14</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J15" s="7">
         <v>1</v>
@@ -21802,13 +21817,13 @@
         <v>2005</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E16" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F16" s="7">
         <v>5</v>
@@ -21820,7 +21835,7 @@
         <v>14</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J16" s="7">
         <v>1</v>
@@ -21845,13 +21860,13 @@
         <v>2005</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E17" s="70" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7">
         <v>5</v>
@@ -21863,7 +21878,7 @@
         <v>14</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J17" s="7">
         <v>1</v>
@@ -21888,13 +21903,13 @@
         <v>2005</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18" s="70" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F18" s="7">
         <v>5</v>
@@ -21906,7 +21921,7 @@
         <v>14</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J18" s="7">
         <v>1</v>
@@ -21931,13 +21946,13 @@
         <v>2005</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E19" s="70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F19" s="7">
         <v>5</v>
@@ -21949,7 +21964,7 @@
         <v>14</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J19" s="7">
         <v>1</v>
@@ -21974,13 +21989,13 @@
         <v>2005</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F20" s="7">
         <v>5</v>
@@ -21992,7 +22007,7 @@
         <v>14</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J20" s="7">
         <v>1</v>
@@ -22015,13 +22030,13 @@
         <v>2005</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E21" s="70" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F21" s="7">
         <v>5</v>
@@ -22033,7 +22048,7 @@
         <v>14</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J21" s="7">
         <v>1</v>
@@ -22056,13 +22071,13 @@
         <v>2004</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E22" s="70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F22" s="7">
         <v>8</v>
@@ -22074,7 +22089,7 @@
         <v>14</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J22" s="7">
         <v>1</v>
@@ -22097,13 +22112,13 @@
         <v>2003</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E23" s="70" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F23" s="7">
         <v>8</v>
@@ -22115,7 +22130,7 @@
         <v>14</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J23" s="7">
         <v>1</v>
@@ -22138,13 +22153,13 @@
         <v>2003</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F24" s="7">
         <v>8</v>
@@ -22156,7 +22171,7 @@
         <v>14</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J24" s="7">
         <v>1</v>
@@ -22239,7 +22254,7 @@
       <c r="E28" s="70"/>
       <c r="F28" s="7"/>
       <c r="G28" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -22268,14 +22283,14 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="95" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B30" s="98">
         <f>SUM(B35:B55)</f>
         <v>22</v>
       </c>
       <c r="C30" s="72" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D30" s="72"/>
       <c r="E30" s="72"/>
@@ -22284,14 +22299,14 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="95" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B31" s="98">
         <f>SUM(C134:C163)</f>
         <v>13</v>
       </c>
       <c r="C31" s="72" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D31" s="72"/>
       <c r="E31" s="72"/>
@@ -22300,14 +22315,14 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="95" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B32" s="98">
         <f>SUM(C93:C130)</f>
         <v>14</v>
       </c>
       <c r="C32" s="72" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D32" s="72"/>
       <c r="E32" s="72"/>
@@ -22319,7 +22334,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -22488,15 +22503,15 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B58" s="20">
         <v>0</v>
@@ -22508,7 +22523,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B59" s="20">
         <v>0</v>
@@ -22520,7 +22535,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B60" s="20">
         <v>0</v>
@@ -22532,7 +22547,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B61" s="20">
         <v>0</v>
@@ -22544,7 +22559,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B62" s="20">
         <v>1</v>
@@ -22556,7 +22571,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B63" s="20">
         <v>0</v>
@@ -22568,7 +22583,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B64" s="20">
         <v>1</v>
@@ -22580,7 +22595,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B65" s="20">
         <v>3</v>
@@ -22592,7 +22607,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B66" s="20">
         <v>1</v>
@@ -22604,7 +22619,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B67" s="20">
         <v>2</v>
@@ -22616,7 +22631,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B68" s="20">
         <v>0</v>
@@ -22628,7 +22643,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B69" s="20">
         <v>1</v>
@@ -22640,7 +22655,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B70" s="20">
         <v>2</v>
@@ -22652,7 +22667,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B71" s="20">
         <v>1</v>
@@ -22664,7 +22679,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B72" s="20">
         <v>2</v>
@@ -22676,7 +22691,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B73" s="20">
         <v>0</v>
@@ -22688,7 +22703,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B74" s="20">
         <v>2</v>
@@ -22700,7 +22715,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B75" s="20">
         <v>0</v>
@@ -22712,7 +22727,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B76" s="20">
         <v>0</v>
@@ -22724,7 +22739,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B77" s="20">
         <v>0</v>
@@ -22732,7 +22747,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B78" s="20">
         <v>2</v>
@@ -22744,7 +22759,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B79" s="20">
         <v>0</v>
@@ -22756,7 +22771,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B80" s="20">
         <v>0</v>
@@ -22768,7 +22783,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B81" s="20">
         <v>2</v>
@@ -22780,7 +22795,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B82" s="20">
         <v>0</v>
@@ -22792,7 +22807,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B83" s="20">
         <v>0</v>
@@ -22804,7 +22819,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B84" s="20">
         <v>0</v>
@@ -22816,7 +22831,7 @@
     </row>
     <row r="85" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B85" s="20">
         <v>0</v>
@@ -22828,7 +22843,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B86" s="20">
         <v>0</v>
@@ -22840,7 +22855,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B87" s="20">
         <v>1</v>
@@ -22852,7 +22867,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B88" s="20">
         <v>1</v>
@@ -22864,7 +22879,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B89" s="20">
         <v>0</v>
@@ -22876,7 +22891,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B90" s="20">
         <v>0</v>
@@ -22888,16 +22903,16 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C93" s="97"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B94" s="20">
         <v>0</v>
@@ -22909,7 +22924,7 @@
     </row>
     <row r="95" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B95" s="20">
         <v>0</v>
@@ -22921,7 +22936,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B96" s="20">
         <v>0</v>
@@ -22933,7 +22948,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B97" s="20">
         <v>1</v>
@@ -22945,7 +22960,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B98" s="20">
         <v>2</v>
@@ -22957,7 +22972,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B99" s="20">
         <v>1</v>
@@ -22969,7 +22984,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B100" s="20">
         <v>0</v>
@@ -22981,7 +22996,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B101" s="20">
         <v>0</v>
@@ -22993,7 +23008,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B102" s="20">
         <v>1</v>
@@ -23005,7 +23020,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B103" s="20">
         <v>2</v>
@@ -23017,7 +23032,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B104" s="20">
         <v>1</v>
@@ -23029,7 +23044,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B105" s="20">
         <v>0</v>
@@ -23041,7 +23056,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B106" s="20">
         <v>0</v>
@@ -23053,7 +23068,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B107" s="20">
         <v>0</v>
@@ -23065,7 +23080,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B108" s="20">
         <v>0</v>
@@ -23077,7 +23092,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B109" s="20">
         <v>1</v>
@@ -23089,7 +23104,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B110" s="20">
         <v>2</v>
@@ -23101,7 +23116,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B111" s="20">
         <v>0</v>
@@ -23113,7 +23128,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B112" s="20">
         <v>0</v>
@@ -23125,7 +23140,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B113" s="20">
         <v>0</v>
@@ -23137,7 +23152,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B114" s="20">
         <v>0</v>
@@ -23149,7 +23164,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B115" s="20">
         <v>0</v>
@@ -23158,7 +23173,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B116" s="20">
         <v>0</v>
@@ -23170,7 +23185,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B117" s="20">
         <v>0</v>
@@ -23179,7 +23194,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B118" s="20">
         <v>2</v>
@@ -23191,7 +23206,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B119" s="20">
         <v>1</v>
@@ -23203,7 +23218,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B120" s="20">
         <v>0</v>
@@ -23215,7 +23230,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B121" s="20">
         <v>0</v>
@@ -23227,7 +23242,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B122" s="20">
         <v>2</v>
@@ -23239,7 +23254,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B123" s="20">
         <v>2</v>
@@ -23251,7 +23266,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B124" s="20">
         <v>3</v>
@@ -23263,7 +23278,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B125" s="20">
         <v>1</v>
@@ -23275,7 +23290,7 @@
     </row>
     <row r="126" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B126" s="20">
         <v>0</v>
@@ -23287,7 +23302,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B127" s="20">
         <v>0</v>
@@ -23299,7 +23314,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B128" s="20">
         <v>0</v>
@@ -23311,7 +23326,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B129" s="20">
         <v>0</v>
@@ -23323,7 +23338,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B130" s="20">
         <v>0</v>
@@ -23335,7 +23350,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="103" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B133" s="104" t="s">
         <v>60</v>
@@ -23343,7 +23358,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="103" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B134" s="105">
         <v>0</v>
@@ -23355,7 +23370,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="103" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B135" s="105">
         <v>0</v>
@@ -23367,7 +23382,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="103" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B136" s="105">
         <v>0</v>
@@ -23379,7 +23394,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="103" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B137" s="105">
         <v>0</v>
@@ -23391,7 +23406,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="103" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B138" s="105">
         <v>1</v>
@@ -23403,7 +23418,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="103" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B139" s="105">
         <v>0</v>
@@ -23415,7 +23430,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="103" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B140" s="105">
         <v>1</v>
@@ -23427,7 +23442,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="103" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B141" s="105">
         <v>3</v>
@@ -23439,7 +23454,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="103" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B142" s="105">
         <v>1</v>
@@ -23451,7 +23466,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="103" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B143" s="105">
         <v>2</v>
@@ -23463,7 +23478,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="103" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B144" s="105">
         <v>2</v>
@@ -23475,7 +23490,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="103" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B145" s="105">
         <v>2</v>
@@ -23487,7 +23502,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="103" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B146" s="105">
         <v>2</v>
@@ -23499,7 +23514,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="103" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B147" s="105">
         <v>0</v>
@@ -23511,7 +23526,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="103" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B148" s="105">
         <v>2</v>
@@ -23523,7 +23538,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="103" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B149" s="105">
         <v>0</v>
@@ -23535,7 +23550,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="103" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B150" s="105">
         <v>0</v>
@@ -23547,7 +23562,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="103" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B151" s="105">
         <v>2</v>
@@ -23559,7 +23574,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="103" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B152" s="105">
         <v>0</v>
@@ -23571,7 +23586,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="103" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B153" s="105">
         <v>2</v>
@@ -23583,7 +23598,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="103" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B154" s="105">
         <v>0</v>
@@ -23595,7 +23610,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="103" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B155" s="105">
         <v>0</v>
@@ -23607,7 +23622,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="103" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B156" s="105">
         <v>0</v>
@@ -23619,7 +23634,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="103" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B157" s="105">
         <v>0</v>
@@ -23631,7 +23646,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="103" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B158" s="105">
         <v>0</v>
@@ -23643,7 +23658,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="103" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B159" s="105">
         <v>0</v>
@@ -23655,7 +23670,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="103" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B160" s="105">
         <v>1</v>
@@ -23667,7 +23682,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="103" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B161" s="105">
         <v>1</v>
@@ -23679,7 +23694,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="103" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B162" s="105">
         <v>0</v>
@@ -23691,7 +23706,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="103" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B163" s="105">
         <v>0</v>
@@ -23739,21 +23754,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="22"/>
@@ -23764,7 +23779,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>28</v>
@@ -23776,7 +23791,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>24</v>
@@ -23791,7 +23806,7 @@
         <v>27</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
@@ -23807,13 +23822,13 @@
         <v>14</v>
       </c>
       <c r="F3" s="109" t="s">
+        <v>385</v>
+      </c>
+      <c r="G3" s="117" t="s">
         <v>386</v>
       </c>
-      <c r="G3" s="117" t="s">
+      <c r="H3" s="117" t="s">
         <v>387</v>
-      </c>
-      <c r="H3" s="117" t="s">
-        <v>388</v>
       </c>
       <c r="I3" s="117"/>
       <c r="J3" s="117"/>
@@ -23834,13 +23849,13 @@
         <v>14</v>
       </c>
       <c r="F4" s="109" t="s">
+        <v>385</v>
+      </c>
+      <c r="G4" s="117" t="s">
         <v>386</v>
       </c>
-      <c r="G4" s="117" t="s">
+      <c r="H4" s="117" t="s">
         <v>387</v>
-      </c>
-      <c r="H4" s="117" t="s">
-        <v>388</v>
       </c>
       <c r="I4" s="117"/>
       <c r="J4" s="117"/>
@@ -23855,25 +23870,37 @@
       <c r="B5" s="117">
         <v>2023</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
+      <c r="C5" s="117" t="s">
+        <v>533</v>
+      </c>
+      <c r="D5" s="117" t="s">
+        <v>534</v>
+      </c>
       <c r="E5" s="117">
         <v>14</v>
       </c>
       <c r="F5" s="109" t="s">
+        <v>385</v>
+      </c>
+      <c r="G5" s="117" t="s">
         <v>386</v>
       </c>
-      <c r="G5" s="117" t="s">
+      <c r="H5" s="117" t="s">
         <v>387</v>
       </c>
-      <c r="H5" s="117" t="s">
-        <v>388</v>
-      </c>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
+      <c r="I5" s="117">
+        <v>2</v>
+      </c>
+      <c r="J5" s="117">
+        <v>2</v>
+      </c>
       <c r="K5" s="119"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="118"/>
+      <c r="L5" s="117">
+        <v>18</v>
+      </c>
+      <c r="M5" s="118">
+        <v>45095</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="116">
@@ -23883,22 +23910,22 @@
         <v>2023</v>
       </c>
       <c r="C6" s="117" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D6" s="117" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E6" s="117">
         <v>14</v>
       </c>
       <c r="F6" s="109" t="s">
+        <v>385</v>
+      </c>
+      <c r="G6" s="117" t="s">
         <v>386</v>
       </c>
-      <c r="G6" s="117" t="s">
+      <c r="H6" s="117" t="s">
         <v>387</v>
-      </c>
-      <c r="H6" s="117" t="s">
-        <v>388</v>
       </c>
       <c r="I6" s="117">
         <v>2</v>
@@ -23922,22 +23949,22 @@
         <v>2023</v>
       </c>
       <c r="C7" s="117" t="s">
+        <v>523</v>
+      </c>
+      <c r="D7" s="117" t="s">
         <v>524</v>
-      </c>
-      <c r="D7" s="117" t="s">
-        <v>525</v>
       </c>
       <c r="E7" s="117">
         <v>14</v>
       </c>
       <c r="F7" s="109" t="s">
+        <v>385</v>
+      </c>
+      <c r="G7" s="117" t="s">
         <v>386</v>
       </c>
-      <c r="G7" s="117" t="s">
+      <c r="H7" s="117" t="s">
         <v>387</v>
-      </c>
-      <c r="H7" s="117" t="s">
-        <v>388</v>
       </c>
       <c r="I7" s="117">
         <v>2</v>
@@ -23961,22 +23988,22 @@
         <v>2023</v>
       </c>
       <c r="C8" s="117" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D8" s="117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="117">
         <v>14</v>
       </c>
       <c r="F8" s="109" t="s">
+        <v>385</v>
+      </c>
+      <c r="G8" s="117" t="s">
         <v>386</v>
       </c>
-      <c r="G8" s="117" t="s">
+      <c r="H8" s="117" t="s">
         <v>387</v>
-      </c>
-      <c r="H8" s="117" t="s">
-        <v>388</v>
       </c>
       <c r="I8" s="117">
         <v>4</v>
@@ -24000,22 +24027,22 @@
         <v>2023</v>
       </c>
       <c r="C9" s="117" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D9" s="117" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E9" s="117">
         <v>14</v>
       </c>
       <c r="F9" s="109" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G9" s="117" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H9" s="117" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I9" s="117">
         <v>2</v>
@@ -24039,22 +24066,22 @@
         <v>2023</v>
       </c>
       <c r="C10" s="117" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D10" s="117" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10" s="117">
         <v>14</v>
       </c>
       <c r="F10" s="109" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G10" s="117" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H10" s="117" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I10" s="117">
         <v>5</v>
@@ -24078,22 +24105,22 @@
         <v>2021</v>
       </c>
       <c r="C11" s="93" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D11" s="93" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E11" s="29">
         <v>14</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I11" s="30">
         <v>3</v>
@@ -24120,7 +24147,7 @@
         <v>66</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E12" s="23">
         <v>14</v>
@@ -24132,7 +24159,7 @@
         <v>16</v>
       </c>
       <c r="H12" s="59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I12" s="59">
         <v>5</v>
@@ -24159,7 +24186,7 @@
         <v>67</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E13" s="23">
         <v>14</v>
@@ -24171,7 +24198,7 @@
         <v>16</v>
       </c>
       <c r="H13" s="59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I13" s="59">
         <v>5</v>
@@ -24198,7 +24225,7 @@
         <v>68</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E14" s="23">
         <v>3</v>
@@ -24210,7 +24237,7 @@
         <v>16</v>
       </c>
       <c r="H14" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="59">
         <v>3</v>
@@ -24237,7 +24264,7 @@
         <v>69</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E15" s="23">
         <v>3</v>
@@ -24249,7 +24276,7 @@
         <v>16</v>
       </c>
       <c r="H15" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I15" s="59">
         <v>8</v>
@@ -24276,7 +24303,7 @@
         <v>70</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E16" s="23">
         <v>3</v>
@@ -24288,7 +24315,7 @@
         <v>16</v>
       </c>
       <c r="H16" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I16" s="59">
         <v>5</v>
@@ -24315,7 +24342,7 @@
         <v>71</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E17" s="23">
         <v>3</v>
@@ -24327,7 +24354,7 @@
         <v>16</v>
       </c>
       <c r="H17" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="59">
         <v>9</v>
@@ -24354,7 +24381,7 @@
         <v>72</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18" s="23">
         <v>3</v>
@@ -24366,7 +24393,7 @@
         <v>16</v>
       </c>
       <c r="H18" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I18" s="59">
         <v>9</v>
@@ -24390,10 +24417,10 @@
         <v>2013</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>73</v>
+        <v>532</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E19" s="23">
         <v>3</v>
@@ -24405,7 +24432,7 @@
         <v>16</v>
       </c>
       <c r="H19" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I19" s="59">
         <v>6</v>
@@ -24429,10 +24456,10 @@
         <v>2013</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E20" s="23">
         <v>3</v>
@@ -24444,7 +24471,7 @@
         <v>16</v>
       </c>
       <c r="H20" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I20" s="59">
         <v>5</v>
@@ -24468,10 +24495,10 @@
         <v>2013</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E21" s="23">
         <v>3</v>
@@ -24483,7 +24510,7 @@
         <v>16</v>
       </c>
       <c r="H21" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I21" s="59">
         <v>3</v>
@@ -24507,10 +24534,10 @@
         <v>2013</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E22" s="23">
         <v>3</v>
@@ -24522,7 +24549,7 @@
         <v>16</v>
       </c>
       <c r="H22" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I22" s="59">
         <v>5</v>
@@ -24546,10 +24573,10 @@
         <v>2012</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E23" s="23">
         <v>5</v>
@@ -24561,7 +24588,7 @@
         <v>16</v>
       </c>
       <c r="H23" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I23" s="59">
         <v>7</v>
@@ -24585,10 +24612,10 @@
         <v>2012</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E24" s="23">
         <v>5</v>
@@ -24600,7 +24627,7 @@
         <v>16</v>
       </c>
       <c r="H24" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I24" s="59">
         <v>7</v>
@@ -24624,10 +24651,10 @@
         <v>2012</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E25" s="23">
         <v>5</v>
@@ -24639,7 +24666,7 @@
         <v>16</v>
       </c>
       <c r="H25" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I25" s="59">
         <v>6</v>
@@ -24663,10 +24690,10 @@
         <v>2012</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E26" s="23">
         <v>5</v>
@@ -24678,7 +24705,7 @@
         <v>16</v>
       </c>
       <c r="H26" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I26" s="59">
         <v>5</v>
@@ -24702,10 +24729,10 @@
         <v>2012</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E27" s="23">
         <v>5</v>
@@ -24717,7 +24744,7 @@
         <v>16</v>
       </c>
       <c r="H27" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I27" s="59">
         <v>4</v>
@@ -24741,10 +24768,10 @@
         <v>2012</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E28" s="23">
         <v>5</v>
@@ -24756,7 +24783,7 @@
         <v>16</v>
       </c>
       <c r="H28" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I28" s="59">
         <v>5</v>
@@ -24780,10 +24807,10 @@
         <v>2012</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E29" s="23">
         <v>5</v>
@@ -24795,7 +24822,7 @@
         <v>16</v>
       </c>
       <c r="H29" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="59">
         <v>10</v>
@@ -24819,10 +24846,10 @@
         <v>2012</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E30" s="23">
         <v>5</v>
@@ -24834,7 +24861,7 @@
         <v>16</v>
       </c>
       <c r="H30" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I30" s="59">
         <v>1</v>
@@ -24858,10 +24885,10 @@
         <v>2012</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E31" s="23">
         <v>5</v>
@@ -24873,7 +24900,7 @@
         <v>16</v>
       </c>
       <c r="H31" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I31" s="59">
         <v>1</v>
@@ -24897,10 +24924,10 @@
         <v>2012</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E32" s="23">
         <v>5</v>
@@ -24912,7 +24939,7 @@
         <v>16</v>
       </c>
       <c r="H32" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I32" s="59">
         <v>11</v>
@@ -24936,10 +24963,10 @@
         <v>2012</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E33" s="23">
         <v>5</v>
@@ -24951,7 +24978,7 @@
         <v>16</v>
       </c>
       <c r="H33" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I33" s="59">
         <v>5</v>
@@ -24975,10 +25002,10 @@
         <v>2012</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E34" s="23">
         <v>5</v>
@@ -24990,7 +25017,7 @@
         <v>16</v>
       </c>
       <c r="H34" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I34" s="59">
         <v>2</v>
@@ -25014,10 +25041,10 @@
         <v>2012</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E35" s="23">
         <v>5</v>
@@ -25029,7 +25056,7 @@
         <v>16</v>
       </c>
       <c r="H35" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I35" s="59">
         <v>8</v>
@@ -25053,10 +25080,10 @@
         <v>2011</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E36" s="23">
         <v>5</v>
@@ -25068,7 +25095,7 @@
         <v>16</v>
       </c>
       <c r="H36" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I36" s="59">
         <v>5</v>
@@ -25092,10 +25119,10 @@
         <v>2011</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E37" s="23">
         <v>5</v>
@@ -25107,7 +25134,7 @@
         <v>16</v>
       </c>
       <c r="H37" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I37" s="59">
         <v>3</v>
@@ -25131,10 +25158,10 @@
         <v>2011</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E38" s="23">
         <v>5</v>
@@ -25146,7 +25173,7 @@
         <v>16</v>
       </c>
       <c r="H38" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I38" s="59">
         <v>5</v>
@@ -25170,10 +25197,10 @@
         <v>2011</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E39" s="23">
         <v>5</v>
@@ -25185,7 +25212,7 @@
         <v>16</v>
       </c>
       <c r="H39" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I39" s="59">
         <v>4</v>
@@ -25209,10 +25236,10 @@
         <v>2011</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E40" s="23">
         <v>5</v>
@@ -25224,7 +25251,7 @@
         <v>16</v>
       </c>
       <c r="H40" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I40" s="59">
         <v>5</v>
@@ -25248,10 +25275,10 @@
         <v>2011</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E41" s="23">
         <v>5</v>
@@ -25263,7 +25290,7 @@
         <v>16</v>
       </c>
       <c r="H41" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I41" s="59">
         <v>4</v>
@@ -25287,10 +25314,10 @@
         <v>2011</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" s="23">
         <v>5</v>
@@ -25302,7 +25329,7 @@
         <v>16</v>
       </c>
       <c r="H42" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I42" s="59">
         <v>3</v>
@@ -25326,10 +25353,10 @@
         <v>2011</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E43" s="23">
         <v>5</v>
@@ -25341,7 +25368,7 @@
         <v>16</v>
       </c>
       <c r="H43" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I43" s="59">
         <v>4</v>
@@ -25365,10 +25392,10 @@
         <v>2011</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E44" s="23">
         <v>5</v>
@@ -25380,7 +25407,7 @@
         <v>16</v>
       </c>
       <c r="H44" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I44" s="59">
         <v>4</v>
@@ -25404,10 +25431,10 @@
         <v>2011</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E45" s="23">
         <v>5</v>
@@ -25419,7 +25446,7 @@
         <v>16</v>
       </c>
       <c r="H45" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I45" s="59">
         <v>5</v>
@@ -25443,10 +25470,10 @@
         <v>2010</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E46" s="23">
         <v>8</v>
@@ -25458,7 +25485,7 @@
         <v>16</v>
       </c>
       <c r="H46" s="59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I46" s="59">
         <v>5</v>
@@ -25482,10 +25509,10 @@
         <v>2010</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E47" s="23">
         <v>8</v>
@@ -25497,7 +25524,7 @@
         <v>16</v>
       </c>
       <c r="H47" s="59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I47" s="59">
         <v>3</v>
@@ -25521,10 +25548,10 @@
         <v>2010</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E48" s="23">
         <v>8</v>
@@ -25536,7 +25563,7 @@
         <v>16</v>
       </c>
       <c r="H48" s="59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I48" s="59">
         <v>4</v>
@@ -25560,10 +25587,10 @@
         <v>2010</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E49" s="23">
         <v>8</v>
@@ -25575,7 +25602,7 @@
         <v>16</v>
       </c>
       <c r="H49" s="59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I49" s="59">
         <v>1</v>
@@ -25599,10 +25626,10 @@
         <v>2010</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E50" s="23">
         <v>8</v>
@@ -25614,7 +25641,7 @@
         <v>16</v>
       </c>
       <c r="H50" s="59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I50" s="59">
         <v>1</v>
@@ -25638,10 +25665,10 @@
         <v>2010</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E51" s="23">
         <v>8</v>
@@ -25653,7 +25680,7 @@
         <v>16</v>
       </c>
       <c r="H51" s="59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I51" s="59">
         <v>3</v>
@@ -25677,10 +25704,10 @@
         <v>2010</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E52" s="23">
         <v>8</v>
@@ -25692,7 +25719,7 @@
         <v>16</v>
       </c>
       <c r="H52" s="59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I52" s="59">
         <v>2</v>
@@ -25716,10 +25743,10 @@
         <v>2010</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E53" s="23">
         <v>8</v>
@@ -25731,7 +25758,7 @@
         <v>16</v>
       </c>
       <c r="H53" s="59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I53" s="59">
         <v>3</v>
@@ -25755,10 +25782,10 @@
         <v>2010</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E54" s="23">
         <v>8</v>
@@ -25770,7 +25797,7 @@
         <v>16</v>
       </c>
       <c r="H54" s="59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I54" s="59">
         <v>4</v>
@@ -25794,10 +25821,10 @@
         <v>2010</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E55" s="23">
         <v>8</v>
@@ -25809,7 +25836,7 @@
         <v>16</v>
       </c>
       <c r="H55" s="59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I55" s="59">
         <v>3</v>
@@ -25833,10 +25860,10 @@
         <v>2009</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E56" s="25">
         <v>7</v>
@@ -25848,7 +25875,7 @@
         <v>14</v>
       </c>
       <c r="H56" s="61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I56" s="61">
         <v>5</v>
@@ -25872,10 +25899,10 @@
         <v>2008</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E57" s="25">
         <v>5</v>
@@ -25887,7 +25914,7 @@
         <v>14</v>
       </c>
       <c r="H57" s="61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I57" s="61">
         <v>6</v>
@@ -25911,10 +25938,10 @@
         <v>2008</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E58" s="25">
         <v>5</v>
@@ -25926,7 +25953,7 @@
         <v>14</v>
       </c>
       <c r="H58" s="61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I58" s="61">
         <v>4</v>
@@ -25950,10 +25977,10 @@
         <v>2008</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E59" s="25">
         <v>5</v>
@@ -25965,7 +25992,7 @@
         <v>14</v>
       </c>
       <c r="H59" s="61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I59" s="61">
         <v>15</v>
@@ -25989,10 +26016,10 @@
         <v>2007</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E60" s="27">
         <v>1</v>
@@ -26004,7 +26031,7 @@
         <v>17</v>
       </c>
       <c r="H60" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I60" s="63">
         <v>4</v>
@@ -26028,10 +26055,10 @@
         <v>2007</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E61" s="27">
         <v>1</v>
@@ -26043,7 +26070,7 @@
         <v>17</v>
       </c>
       <c r="H61" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I61" s="63">
         <v>4</v>
@@ -26067,10 +26094,10 @@
         <v>2007</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E62" s="27">
         <v>1</v>
@@ -26082,7 +26109,7 @@
         <v>17</v>
       </c>
       <c r="H62" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I62" s="63">
         <v>3</v>
@@ -26106,10 +26133,10 @@
         <v>2007</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E63" s="27">
         <v>1</v>
@@ -26121,7 +26148,7 @@
         <v>17</v>
       </c>
       <c r="H63" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I63" s="63">
         <v>1</v>
@@ -26145,10 +26172,10 @@
         <v>2007</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E64" s="27">
         <v>1</v>
@@ -26160,7 +26187,7 @@
         <v>17</v>
       </c>
       <c r="H64" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I64" s="63">
         <v>4</v>
@@ -26184,10 +26211,10 @@
         <v>2007</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E65" s="27">
         <v>1</v>
@@ -26199,7 +26226,7 @@
         <v>17</v>
       </c>
       <c r="H65" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I65" s="63">
         <v>2</v>
@@ -26223,10 +26250,10 @@
         <v>2007</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E66" s="27">
         <v>1</v>
@@ -26238,7 +26265,7 @@
         <v>17</v>
       </c>
       <c r="H66" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I66" s="63">
         <v>3</v>
@@ -26262,10 +26289,10 @@
         <v>2007</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E67" s="27">
         <v>1</v>
@@ -26277,7 +26304,7 @@
         <v>17</v>
       </c>
       <c r="H67" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I67" s="63">
         <v>2</v>
@@ -26301,10 +26328,10 @@
         <v>2007</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E68" s="27">
         <v>1</v>
@@ -26316,7 +26343,7 @@
         <v>17</v>
       </c>
       <c r="H68" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I68" s="63">
         <v>1</v>
@@ -26340,10 +26367,10 @@
         <v>2007</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E69" s="27">
         <v>1</v>
@@ -26355,7 +26382,7 @@
         <v>17</v>
       </c>
       <c r="H69" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I69" s="63">
         <v>2</v>
@@ -26379,10 +26406,10 @@
         <v>2007</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E70" s="27">
         <v>1</v>
@@ -26394,7 +26421,7 @@
         <v>17</v>
       </c>
       <c r="H70" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I70" s="63">
         <v>2</v>
@@ -26418,10 +26445,10 @@
         <v>2007</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E71" s="27">
         <v>1</v>
@@ -26433,7 +26460,7 @@
         <v>17</v>
       </c>
       <c r="H71" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I71" s="63">
         <v>2</v>
@@ -26457,10 +26484,10 @@
         <v>2006</v>
       </c>
       <c r="C72" s="93" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D72" s="93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E72" s="29">
         <v>1</v>
@@ -26472,7 +26499,7 @@
         <v>14</v>
       </c>
       <c r="H72" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I72" s="65">
         <v>4</v>
@@ -26496,10 +26523,10 @@
         <v>2006</v>
       </c>
       <c r="C73" s="93" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D73" s="93" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E73" s="29">
         <v>1</v>
@@ -26511,7 +26538,7 @@
         <v>14</v>
       </c>
       <c r="H73" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I73" s="65">
         <v>5</v>
@@ -26535,10 +26562,10 @@
         <v>2006</v>
       </c>
       <c r="C74" s="93" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D74" s="93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E74" s="29">
         <v>1</v>
@@ -26550,7 +26577,7 @@
         <v>14</v>
       </c>
       <c r="H74" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I74" s="65">
         <v>1</v>
@@ -26574,10 +26601,10 @@
         <v>2006</v>
       </c>
       <c r="C75" s="93" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D75" s="93" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E75" s="29">
         <v>1</v>
@@ -26589,7 +26616,7 @@
         <v>14</v>
       </c>
       <c r="H75" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I75" s="65">
         <v>3</v>
@@ -26613,10 +26640,10 @@
         <v>2006</v>
       </c>
       <c r="C76" s="93" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D76" s="93" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E76" s="29">
         <v>1</v>
@@ -26628,7 +26655,7 @@
         <v>14</v>
       </c>
       <c r="H76" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I76" s="65">
         <v>3</v>
@@ -26652,10 +26679,10 @@
         <v>2006</v>
       </c>
       <c r="C77" s="93" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D77" s="93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E77" s="29">
         <v>1</v>
@@ -26667,7 +26694,7 @@
         <v>14</v>
       </c>
       <c r="H77" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I77" s="65">
         <v>1</v>
@@ -26691,10 +26718,10 @@
         <v>2006</v>
       </c>
       <c r="C78" s="93" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D78" s="93" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E78" s="29">
         <v>1</v>
@@ -26706,7 +26733,7 @@
         <v>14</v>
       </c>
       <c r="H78" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I78" s="65">
         <v>1</v>
@@ -26730,10 +26757,10 @@
         <v>2006</v>
       </c>
       <c r="C79" s="93" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D79" s="93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E79" s="29">
         <v>1</v>
@@ -26745,7 +26772,7 @@
         <v>14</v>
       </c>
       <c r="H79" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I79" s="65">
         <v>1</v>
@@ -26769,10 +26796,10 @@
         <v>2006</v>
       </c>
       <c r="C80" s="93" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D80" s="93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E80" s="29">
         <v>1</v>
@@ -26784,7 +26811,7 @@
         <v>14</v>
       </c>
       <c r="H80" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I80" s="65">
         <v>1</v>
@@ -26808,10 +26835,10 @@
         <v>2006</v>
       </c>
       <c r="C81" s="93" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D81" s="93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E81" s="29">
         <v>1</v>
@@ -26823,7 +26850,7 @@
         <v>14</v>
       </c>
       <c r="H81" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I81" s="65">
         <v>1</v>
@@ -26847,10 +26874,10 @@
         <v>2006</v>
       </c>
       <c r="C82" s="93" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D82" s="93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E82" s="29">
         <v>1</v>
@@ -26862,7 +26889,7 @@
         <v>14</v>
       </c>
       <c r="H82" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I82" s="65">
         <v>5</v>
@@ -26886,10 +26913,10 @@
         <v>2006</v>
       </c>
       <c r="C83" s="93" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D83" s="93" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E83" s="29">
         <v>1</v>
@@ -26901,7 +26928,7 @@
         <v>14</v>
       </c>
       <c r="H83" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I83" s="65">
         <v>3</v>
@@ -26925,10 +26952,10 @@
         <v>2006</v>
       </c>
       <c r="C84" s="93" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D84" s="93" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E84" s="29">
         <v>1</v>
@@ -26940,7 +26967,7 @@
         <v>14</v>
       </c>
       <c r="H84" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I84" s="65">
         <v>7</v>
@@ -26964,10 +26991,10 @@
         <v>2006</v>
       </c>
       <c r="C85" s="93" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D85" s="93" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E85" s="29">
         <v>1</v>
@@ -26979,7 +27006,7 @@
         <v>14</v>
       </c>
       <c r="H85" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I85" s="65">
         <v>4</v>
@@ -27003,10 +27030,10 @@
         <v>2005</v>
       </c>
       <c r="C86" s="93" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D86" s="93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E86" s="29">
         <v>5</v>
@@ -27018,7 +27045,7 @@
         <v>14</v>
       </c>
       <c r="H86" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I86" s="65">
         <v>1</v>
@@ -27042,10 +27069,10 @@
         <v>2005</v>
       </c>
       <c r="C87" s="93" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D87" s="93" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E87" s="29">
         <v>5</v>
@@ -27057,7 +27084,7 @@
         <v>14</v>
       </c>
       <c r="H87" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I87" s="65">
         <v>16</v>
@@ -27081,10 +27108,10 @@
         <v>2005</v>
       </c>
       <c r="C88" s="93" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D88" s="93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E88" s="29">
         <v>5</v>
@@ -27096,7 +27123,7 @@
         <v>14</v>
       </c>
       <c r="H88" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I88" s="65">
         <v>1</v>
@@ -27120,10 +27147,10 @@
         <v>2005</v>
       </c>
       <c r="C89" s="93" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D89" s="93" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E89" s="29">
         <v>5</v>
@@ -27135,7 +27162,7 @@
         <v>14</v>
       </c>
       <c r="H89" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I89" s="65">
         <v>4</v>
@@ -27159,10 +27186,10 @@
         <v>2005</v>
       </c>
       <c r="C90" s="93" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D90" s="93" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E90" s="29">
         <v>5</v>
@@ -27174,7 +27201,7 @@
         <v>14</v>
       </c>
       <c r="H90" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I90" s="65">
         <v>2</v>
@@ -27198,10 +27225,10 @@
         <v>2005</v>
       </c>
       <c r="C91" s="93" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D91" s="93" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E91" s="29">
         <v>5</v>
@@ -27213,7 +27240,7 @@
         <v>14</v>
       </c>
       <c r="H91" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I91" s="65">
         <v>3</v>
@@ -27237,10 +27264,10 @@
         <v>2005</v>
       </c>
       <c r="C92" s="93" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D92" s="93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E92" s="29">
         <v>5</v>
@@ -27252,7 +27279,7 @@
         <v>14</v>
       </c>
       <c r="H92" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I92" s="65">
         <v>3</v>
@@ -27276,10 +27303,10 @@
         <v>2005</v>
       </c>
       <c r="C93" s="93" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D93" s="93" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E93" s="29">
         <v>5</v>
@@ -27291,7 +27318,7 @@
         <v>14</v>
       </c>
       <c r="H93" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I93" s="65">
         <v>1</v>
@@ -27315,10 +27342,10 @@
         <v>2005</v>
       </c>
       <c r="C94" s="93" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D94" s="93" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E94" s="29">
         <v>5</v>
@@ -27330,7 +27357,7 @@
         <v>14</v>
       </c>
       <c r="H94" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I94" s="65">
         <v>1</v>
@@ -27354,10 +27381,10 @@
         <v>2005</v>
       </c>
       <c r="C95" s="93" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D95" s="93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E95" s="29">
         <v>5</v>
@@ -27369,7 +27396,7 @@
         <v>14</v>
       </c>
       <c r="H95" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I95" s="65">
         <v>6</v>
@@ -27393,10 +27420,10 @@
         <v>2005</v>
       </c>
       <c r="C96" s="93" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D96" s="93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E96" s="29">
         <v>5</v>
@@ -27408,7 +27435,7 @@
         <v>14</v>
       </c>
       <c r="H96" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I96" s="65">
         <v>3</v>
@@ -27432,10 +27459,10 @@
         <v>2005</v>
       </c>
       <c r="C97" s="93" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D97" s="93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E97" s="29">
         <v>5</v>
@@ -27447,7 +27474,7 @@
         <v>14</v>
       </c>
       <c r="H97" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I97" s="65">
         <v>2</v>
@@ -27471,10 +27498,10 @@
         <v>2005</v>
       </c>
       <c r="C98" s="93" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D98" s="93" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E98" s="29">
         <v>5</v>
@@ -27486,7 +27513,7 @@
         <v>14</v>
       </c>
       <c r="H98" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I98" s="65">
         <v>1</v>
@@ -27510,10 +27537,10 @@
         <v>2005</v>
       </c>
       <c r="C99" s="93" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D99" s="93" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E99" s="29">
         <v>5</v>
@@ -27525,7 +27552,7 @@
         <v>14</v>
       </c>
       <c r="H99" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I99" s="65">
         <v>1</v>
@@ -27549,10 +27576,10 @@
         <v>2005</v>
       </c>
       <c r="C100" s="93" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D100" s="93" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E100" s="29">
         <v>5</v>
@@ -27564,7 +27591,7 @@
         <v>14</v>
       </c>
       <c r="H100" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I100" s="65">
         <v>13</v>
@@ -27588,10 +27615,10 @@
         <v>2004</v>
       </c>
       <c r="C101" s="93" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D101" s="93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E101" s="29">
         <v>8</v>
@@ -27603,7 +27630,7 @@
         <v>14</v>
       </c>
       <c r="H101" s="65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I101" s="65">
         <v>5</v>
@@ -27627,10 +27654,10 @@
         <v>2004</v>
       </c>
       <c r="C102" s="93" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D102" s="93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E102" s="29">
         <v>8</v>
@@ -27642,7 +27669,7 @@
         <v>14</v>
       </c>
       <c r="H102" s="65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I102" s="65">
         <v>5</v>
@@ -27666,10 +27693,10 @@
         <v>2004</v>
       </c>
       <c r="C103" s="93" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D103" s="93" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E103" s="29">
         <v>8</v>
@@ -27681,7 +27708,7 @@
         <v>14</v>
       </c>
       <c r="H103" s="65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I103" s="65">
         <v>1</v>
@@ -27705,10 +27732,10 @@
         <v>2004</v>
       </c>
       <c r="C104" s="93" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D104" s="93" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E104" s="29">
         <v>8</v>
@@ -27720,7 +27747,7 @@
         <v>14</v>
       </c>
       <c r="H104" s="65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I104" s="65">
         <v>5</v>
@@ -27744,10 +27771,10 @@
         <v>2003</v>
       </c>
       <c r="C105" s="93" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D105" s="93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E105" s="29">
         <v>8</v>
@@ -27759,7 +27786,7 @@
         <v>14</v>
       </c>
       <c r="H105" s="65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I105" s="65">
         <v>1</v>
@@ -27783,10 +27810,10 @@
         <v>2003</v>
       </c>
       <c r="C106" s="93" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D106" s="93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E106" s="29">
         <v>8</v>
@@ -27798,7 +27825,7 @@
         <v>14</v>
       </c>
       <c r="H106" s="65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I106" s="65">
         <v>3</v>
@@ -27822,10 +27849,10 @@
         <v>2003</v>
       </c>
       <c r="C107" s="93" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D107" s="93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E107" s="29">
         <v>8</v>
@@ -27837,7 +27864,7 @@
         <v>14</v>
       </c>
       <c r="H107" s="65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I107" s="65">
         <v>10</v>
@@ -27861,10 +27888,10 @@
         <v>2003</v>
       </c>
       <c r="C108" s="94" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D108" s="94" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E108" s="83">
         <v>8</v>
@@ -27876,7 +27903,7 @@
         <v>14</v>
       </c>
       <c r="H108" s="85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I108" s="85">
         <v>1</v>
@@ -27959,7 +27986,7 @@
       <c r="D112" s="6"/>
       <c r="E112" s="7"/>
       <c r="F112" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
@@ -27973,13 +28000,13 @@
       <c r="M112" s="56"/>
     </row>
     <row r="113" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="126"/>
+      <c r="A113" s="120"/>
       <c r="B113" s="108"/>
       <c r="C113" s="108"/>
       <c r="D113" s="108"/>
       <c r="E113" s="111"/>
       <c r="F113" s="108" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G113" s="111"/>
       <c r="H113" s="111"/>
@@ -27990,42 +28017,42 @@
       <c r="J113" s="111"/>
       <c r="K113" s="111"/>
       <c r="L113" s="111"/>
-      <c r="M113" s="127"/>
+      <c r="M113" s="121"/>
     </row>
     <row r="115" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="95" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B115" s="98">
         <f>SUM(B120:B140)</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C115" s="72" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="95" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B116" s="98">
         <f>SUM(C220:C249)</f>
         <v>24</v>
       </c>
       <c r="C116" s="72" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A117" s="95" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B117" s="98">
         <f>SUM(C180:C216)</f>
         <v>29</v>
       </c>
       <c r="C117" s="72" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="18" x14ac:dyDescent="0.15">
@@ -28033,7 +28060,7 @@
         <v>1</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="18" x14ac:dyDescent="0.15">
@@ -28205,7 +28232,7 @@
         <v>2023</v>
       </c>
       <c r="B139" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="18" x14ac:dyDescent="0.15">
@@ -28216,15 +28243,15 @@
     </row>
     <row r="143" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B144" s="20">
         <v>2</v>
@@ -28236,7 +28263,7 @@
     </row>
     <row r="145" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B145" s="20">
         <v>6</v>
@@ -28248,7 +28275,7 @@
     </row>
     <row r="146" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B146" s="20">
         <v>0</v>
@@ -28260,7 +28287,7 @@
     </row>
     <row r="147" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B147" s="20">
         <v>0</v>
@@ -28272,7 +28299,7 @@
     </row>
     <row r="148" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B148" s="20">
         <v>4</v>
@@ -28284,7 +28311,7 @@
     </row>
     <row r="149" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B149" s="20">
         <v>3</v>
@@ -28296,7 +28323,7 @@
     </row>
     <row r="150" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B150" s="20">
         <v>8</v>
@@ -28308,7 +28335,7 @@
     </row>
     <row r="151" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B151" s="20">
         <v>6</v>
@@ -28320,10 +28347,10 @@
     </row>
     <row r="152" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B152" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C152" s="1">
         <f t="shared" si="0"/>
@@ -28332,7 +28359,7 @@
     </row>
     <row r="153" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B153" s="20">
         <v>5</v>
@@ -28344,7 +28371,7 @@
     </row>
     <row r="154" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B154" s="20">
         <v>0</v>
@@ -28356,7 +28383,7 @@
     </row>
     <row r="155" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B155" s="20">
         <v>5</v>
@@ -28368,7 +28395,7 @@
     </row>
     <row r="156" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B156" s="20">
         <v>3</v>
@@ -28380,7 +28407,7 @@
     </row>
     <row r="157" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B157" s="20">
         <v>5</v>
@@ -28392,7 +28419,7 @@
     </row>
     <row r="158" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B158" s="20">
         <v>5</v>
@@ -28404,7 +28431,7 @@
     </row>
     <row r="159" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B159" s="20">
         <v>2</v>
@@ -28416,7 +28443,7 @@
     </row>
     <row r="160" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B160" s="20">
         <v>6</v>
@@ -28428,7 +28455,7 @@
     </row>
     <row r="161" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B161" s="20">
         <v>5</v>
@@ -28440,7 +28467,7 @@
     </row>
     <row r="162" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B162" s="20">
         <v>2</v>
@@ -28452,7 +28479,7 @@
     </row>
     <row r="163" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B163" s="20">
         <v>0</v>
@@ -28461,7 +28488,7 @@
     </row>
     <row r="164" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B164" s="20">
         <v>5</v>
@@ -28473,7 +28500,7 @@
     </row>
     <row r="165" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B165" s="20">
         <v>0</v>
@@ -28485,7 +28512,7 @@
     </row>
     <row r="166" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B166" s="20">
         <v>1</v>
@@ -28497,7 +28524,7 @@
     </row>
     <row r="167" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B167" s="20">
         <v>5</v>
@@ -28509,7 +28536,7 @@
     </row>
     <row r="168" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B168" s="20">
         <v>0</v>
@@ -28521,7 +28548,7 @@
     </row>
     <row r="169" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B169" s="20">
         <v>1</v>
@@ -28533,7 +28560,7 @@
     </row>
     <row r="170" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B170" s="20">
         <v>0</v>
@@ -28545,7 +28572,7 @@
     </row>
     <row r="171" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B171" s="20">
         <v>2</v>
@@ -28557,7 +28584,7 @@
     </row>
     <row r="172" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B172" s="20">
         <v>1</v>
@@ -28569,7 +28596,7 @@
     </row>
     <row r="173" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B173" s="20">
         <v>5</v>
@@ -28581,7 +28608,7 @@
     </row>
     <row r="174" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B174" s="20">
         <v>7</v>
@@ -28593,7 +28620,7 @@
     </row>
     <row r="175" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B175" s="20">
         <v>4</v>
@@ -28605,7 +28632,7 @@
     </row>
     <row r="176" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B176" s="20">
         <v>2</v>
@@ -28617,15 +28644,15 @@
     </row>
     <row r="179" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B179" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B180" s="20">
         <v>6</v>
@@ -28637,7 +28664,7 @@
     </row>
     <row r="181" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B181" s="20">
         <v>0</v>
@@ -28649,7 +28676,7 @@
     </row>
     <row r="182" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B182" s="20">
         <v>2</v>
@@ -28661,7 +28688,7 @@
     </row>
     <row r="183" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B183" s="20">
         <v>8</v>
@@ -28673,7 +28700,7 @@
     </row>
     <row r="184" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B184" s="20">
         <v>6</v>
@@ -28685,7 +28712,7 @@
     </row>
     <row r="185" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B185" s="20">
         <v>4</v>
@@ -28697,7 +28724,7 @@
     </row>
     <row r="186" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B186" s="20">
         <v>0</v>
@@ -28709,7 +28736,7 @@
     </row>
     <row r="187" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B187" s="20">
         <v>2</v>
@@ -28721,7 +28748,7 @@
     </row>
     <row r="188" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B188" s="20">
         <v>7</v>
@@ -28733,7 +28760,7 @@
     </row>
     <row r="189" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B189" s="20">
         <v>3</v>
@@ -28745,10 +28772,10 @@
     </row>
     <row r="190" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B190" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C190" s="96">
         <f t="shared" si="1"/>
@@ -28757,7 +28784,7 @@
     </row>
     <row r="191" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B191" s="20">
         <v>1</v>
@@ -28769,7 +28796,7 @@
     </row>
     <row r="192" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B192" s="20">
         <v>0</v>
@@ -28781,7 +28808,7 @@
     </row>
     <row r="193" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B193" s="20">
         <v>0</v>
@@ -28793,7 +28820,7 @@
     </row>
     <row r="194" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B194" s="20">
         <v>1</v>
@@ -28805,7 +28832,7 @@
     </row>
     <row r="195" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B195" s="20">
         <v>4</v>
@@ -28817,7 +28844,7 @@
     </row>
     <row r="196" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B196" s="20">
         <v>5</v>
@@ -28829,7 +28856,7 @@
     </row>
     <row r="197" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B197" s="20">
         <v>1</v>
@@ -28841,7 +28868,7 @@
     </row>
     <row r="198" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B198" s="20">
         <v>4</v>
@@ -28853,7 +28880,7 @@
     </row>
     <row r="199" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B199" s="20">
         <v>2</v>
@@ -28865,7 +28892,7 @@
     </row>
     <row r="200" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B200" s="20">
         <v>1</v>
@@ -28877,7 +28904,7 @@
     </row>
     <row r="201" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B201" s="20">
         <v>0</v>
@@ -28889,7 +28916,7 @@
     </row>
     <row r="202" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B202" s="20">
         <v>1</v>
@@ -28901,7 +28928,7 @@
     </row>
     <row r="203" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B203" s="20">
         <v>1</v>
@@ -28913,7 +28940,7 @@
     </row>
     <row r="204" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B204" s="20">
         <v>5</v>
@@ -28925,7 +28952,7 @@
     </row>
     <row r="205" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B205" s="20">
         <v>4</v>
@@ -28937,7 +28964,7 @@
     </row>
     <row r="206" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B206" s="20">
         <v>0</v>
@@ -28949,7 +28976,7 @@
     </row>
     <row r="207" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B207" s="20">
         <v>0</v>
@@ -28961,7 +28988,7 @@
     </row>
     <row r="208" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B208" s="20">
         <v>5</v>
@@ -28973,7 +29000,7 @@
     </row>
     <row r="209" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B209" s="20">
         <v>5</v>
@@ -28985,7 +29012,7 @@
     </row>
     <row r="210" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B210" s="20">
         <v>6</v>
@@ -28997,7 +29024,7 @@
     </row>
     <row r="211" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B211" s="20">
         <v>5</v>
@@ -29009,7 +29036,7 @@
     </row>
     <row r="212" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B212" s="20">
         <v>0</v>
@@ -29021,7 +29048,7 @@
     </row>
     <row r="213" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B213" s="20">
         <v>3</v>
@@ -29033,7 +29060,7 @@
     </row>
     <row r="214" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B214" s="20">
         <v>4</v>
@@ -29045,7 +29072,7 @@
     </row>
     <row r="215" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B215" s="20">
         <v>2</v>
@@ -29057,7 +29084,7 @@
     </row>
     <row r="216" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B216" s="20">
         <v>2</v>
@@ -29069,15 +29096,15 @@
     </row>
     <row r="219" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A219" s="102" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A220" s="106" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B220" s="107">
         <v>2</v>
@@ -29089,7 +29116,7 @@
     </row>
     <row r="221" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A221" s="106" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B221" s="107">
         <v>6</v>
@@ -29101,7 +29128,7 @@
     </row>
     <row r="222" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A222" s="106" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B222" s="107">
         <v>0</v>
@@ -29113,7 +29140,7 @@
     </row>
     <row r="223" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A223" s="106" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B223" s="107">
         <v>0</v>
@@ -29125,7 +29152,7 @@
     </row>
     <row r="224" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A224" s="106" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B224" s="107">
         <v>4</v>
@@ -29137,7 +29164,7 @@
     </row>
     <row r="225" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A225" s="106" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B225" s="107">
         <v>3</v>
@@ -29149,7 +29176,7 @@
     </row>
     <row r="226" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A226" s="106" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B226" s="107">
         <v>8</v>
@@ -29161,7 +29188,7 @@
     </row>
     <row r="227" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A227" s="106" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B227" s="107">
         <v>6</v>
@@ -29173,7 +29200,7 @@
     </row>
     <row r="228" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A228" s="106" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B228" s="107">
         <v>3</v>
@@ -29185,7 +29212,7 @@
     </row>
     <row r="229" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A229" s="106" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B229" s="107">
         <v>5</v>
@@ -29197,7 +29224,7 @@
     </row>
     <row r="230" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A230" s="106" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B230" s="107">
         <v>3</v>
@@ -29209,7 +29236,7 @@
     </row>
     <row r="231" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A231" s="106" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B231" s="107">
         <v>8</v>
@@ -29221,7 +29248,7 @@
     </row>
     <row r="232" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A232" s="106" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B232" s="107">
         <v>5</v>
@@ -29233,7 +29260,7 @@
     </row>
     <row r="233" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A233" s="106" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B233" s="107">
         <v>2</v>
@@ -29245,7 +29272,7 @@
     </row>
     <row r="234" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A234" s="106" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B234" s="107">
         <v>6</v>
@@ -29257,7 +29284,7 @@
     </row>
     <row r="235" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A235" s="106" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B235" s="107">
         <v>5</v>
@@ -29269,7 +29296,7 @@
     </row>
     <row r="236" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A236" s="106" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B236" s="107">
         <v>2</v>
@@ -29281,7 +29308,7 @@
     </row>
     <row r="237" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A237" s="106" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B237" s="107">
         <v>5</v>
@@ -29293,7 +29320,7 @@
     </row>
     <row r="238" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A238" s="106" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B238" s="107">
         <v>0</v>
@@ -29305,7 +29332,7 @@
     </row>
     <row r="239" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A239" s="106" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B239" s="107">
         <v>5</v>
@@ -29317,7 +29344,7 @@
     </row>
     <row r="240" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A240" s="106" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B240" s="107">
         <v>0</v>
@@ -29329,7 +29356,7 @@
     </row>
     <row r="241" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A241" s="106" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B241" s="107">
         <v>0</v>
@@ -29341,7 +29368,7 @@
     </row>
     <row r="242" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A242" s="106" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B242" s="107">
         <v>1</v>
@@ -29353,7 +29380,7 @@
     </row>
     <row r="243" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A243" s="106" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B243" s="107">
         <v>0</v>
@@ -29365,7 +29392,7 @@
     </row>
     <row r="244" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A244" s="106" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B244" s="107">
         <v>2</v>
@@ -29377,7 +29404,7 @@
     </row>
     <row r="245" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A245" s="106" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B245" s="107">
         <v>1</v>
@@ -29389,7 +29416,7 @@
     </row>
     <row r="246" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A246" s="106" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B246" s="107">
         <v>5</v>
@@ -29401,7 +29428,7 @@
     </row>
     <row r="247" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A247" s="106" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B247" s="107">
         <v>9</v>
@@ -29413,7 +29440,7 @@
     </row>
     <row r="248" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A248" s="106" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B248" s="107">
         <v>4</v>
@@ -29425,7 +29452,7 @@
     </row>
     <row r="249" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A249" s="106" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B249" s="107">
         <v>3</v>

--- a/文档/其他文档/Others/Sports/The stats of Fernando Alonso in Formula One.xlsx
+++ b/文档/其他文档/Others/Sports/The stats of Fernando Alonso in Formula One.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="542">
   <si>
     <t>Fernando Alonso F1 Championships Summary</t>
   </si>
@@ -1164,10 +1164,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Brazilian GP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>British GP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1503,9 +1499,6 @@
     <t xml:space="preserve">2012 Malaysian F1 GP </t>
   </si>
   <si>
-    <t xml:space="preserve">2012 Brazilian F1 GP </t>
-  </si>
-  <si>
     <t xml:space="preserve">2012 Abu Dhabi F1 GP </t>
   </si>
   <si>
@@ -1884,10 +1877,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Aug 27th 2023 Dutch F1 GP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2023 Dutch F1 GP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1909,6 +1898,34 @@
   </si>
   <si>
     <t>Netherlands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2012 Brazilian F1 GP </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Autodromo Interlagos</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Autodromo Interlagos</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 Sao Paulo F1 GP </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Austrian GP/ Styrian GP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brazilian GP/ Sao Paulo GP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nov 5th 2023 Sao Paulo F1 GP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2781,11 +2798,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75601024"/>
-        <c:axId val="75602560"/>
+        <c:axId val="74351744"/>
+        <c:axId val="74353280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75601024"/>
+        <c:axId val="74351744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2795,7 +2812,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75602560"/>
+        <c:crossAx val="74353280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2803,7 +2820,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75602560"/>
+        <c:axId val="74353280"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2814,7 +2831,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75601024"/>
+        <c:crossAx val="74351744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2866,7 +2883,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3035,7 +3051,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3052,11 +3068,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="60289792"/>
-        <c:axId val="60291328"/>
+        <c:axId val="74642176"/>
+        <c:axId val="74643712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60289792"/>
+        <c:axId val="74642176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3066,7 +3082,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60291328"/>
+        <c:crossAx val="74643712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3074,7 +3090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60291328"/>
+        <c:axId val="74643712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3085,14 +3101,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60289792"/>
+        <c:crossAx val="74642176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3142,7 +3157,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3191,7 +3205,7 @@
                   <c:v>Belgian GP</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Brazilian GP</c:v>
+                  <c:v>Brazilian GP/ Sao Paulo GP</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>British GP</c:v>
@@ -3299,7 +3313,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6</c:v>
@@ -3392,11 +3406,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="60352000"/>
-        <c:axId val="60353536"/>
+        <c:axId val="74667520"/>
+        <c:axId val="74669056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60352000"/>
+        <c:axId val="74667520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3406,7 +3420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60353536"/>
+        <c:crossAx val="74669056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3414,7 +3428,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60353536"/>
+        <c:axId val="74669056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3425,14 +3439,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60352000"/>
+        <c:crossAx val="74667520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3482,7 +3495,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3642,7 +3654,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
@@ -3756,11 +3768,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="74992640"/>
-        <c:axId val="60625664"/>
+        <c:axId val="74689536"/>
+        <c:axId val="77136640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74992640"/>
+        <c:axId val="74689536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3770,7 +3782,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60625664"/>
+        <c:crossAx val="77136640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3778,7 +3790,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60625664"/>
+        <c:axId val="77136640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3789,14 +3801,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74992640"/>
+        <c:crossAx val="74689536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3846,7 +3857,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3994,7 +4004,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6</c:v>
@@ -4078,11 +4088,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="60662912"/>
-        <c:axId val="60664448"/>
+        <c:axId val="77177984"/>
+        <c:axId val="77179520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60662912"/>
+        <c:axId val="77177984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4092,7 +4102,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60664448"/>
+        <c:crossAx val="77179520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4100,7 +4110,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60664448"/>
+        <c:axId val="77179520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4111,14 +4121,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60662912"/>
+        <c:crossAx val="77177984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4345,11 +4354,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76397568"/>
-        <c:axId val="76694272"/>
+        <c:axId val="76131328"/>
+        <c:axId val="76690176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76397568"/>
+        <c:axId val="76131328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4359,7 +4368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76694272"/>
+        <c:crossAx val="76690176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4367,7 +4376,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76694272"/>
+        <c:axId val="76690176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4378,7 +4387,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76397568"/>
+        <c:crossAx val="76131328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5051,11 +5060,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="76748288"/>
-        <c:axId val="76749824"/>
+        <c:axId val="76155904"/>
+        <c:axId val="76161792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76748288"/>
+        <c:axId val="76155904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5065,7 +5074,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76749824"/>
+        <c:crossAx val="76161792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5073,7 +5082,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76749824"/>
+        <c:axId val="76161792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5084,7 +5093,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76748288"/>
+        <c:crossAx val="76155904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5371,11 +5380,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="76762496"/>
-        <c:axId val="76772480"/>
+        <c:axId val="76178944"/>
+        <c:axId val="76180480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76762496"/>
+        <c:axId val="76178944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5385,7 +5394,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76772480"/>
+        <c:crossAx val="76180480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5393,7 +5402,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76772480"/>
+        <c:axId val="76180480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5404,7 +5413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76762496"/>
+        <c:crossAx val="76178944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5637,11 +5646,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76535680"/>
-        <c:axId val="76537216"/>
+        <c:axId val="76337152"/>
+        <c:axId val="76338688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76535680"/>
+        <c:axId val="76337152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5651,7 +5660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76537216"/>
+        <c:crossAx val="76338688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5659,7 +5668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76537216"/>
+        <c:axId val="76338688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5670,7 +5679,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76535680"/>
+        <c:crossAx val="76337152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5975,11 +5984,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="76548736"/>
-        <c:axId val="76558720"/>
+        <c:axId val="76358400"/>
+        <c:axId val="76359936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76548736"/>
+        <c:axId val="76358400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5989,7 +5998,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76558720"/>
+        <c:crossAx val="76359936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5997,7 +6006,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76558720"/>
+        <c:axId val="76359936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6008,7 +6017,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76548736"/>
+        <c:crossAx val="76358400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6334,11 +6343,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="76599680"/>
-        <c:axId val="76601216"/>
+        <c:axId val="76376320"/>
+        <c:axId val="76398592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76599680"/>
+        <c:axId val="76376320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6348,7 +6357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76601216"/>
+        <c:crossAx val="76398592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6356,7 +6365,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76601216"/>
+        <c:axId val="76398592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6367,7 +6376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76599680"/>
+        <c:crossAx val="76376320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6654,11 +6663,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="76835072"/>
-        <c:axId val="76836864"/>
+        <c:axId val="76810880"/>
+        <c:axId val="76837248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76835072"/>
+        <c:axId val="76810880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6668,7 +6677,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76836864"/>
+        <c:crossAx val="76837248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6676,7 +6685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76836864"/>
+        <c:axId val="76837248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6687,7 +6696,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76835072"/>
+        <c:crossAx val="76810880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16930,7 +16939,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="114">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -16966,7 +16975,7 @@
         <v>42</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -16974,7 +16983,7 @@
         <v>43</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -16982,7 +16991,7 @@
         <v>44</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -16990,7 +16999,7 @@
         <v>45</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -16998,7 +17007,7 @@
         <v>46</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -17014,7 +17023,7 @@
         <v>49</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -17022,7 +17031,7 @@
         <v>50</v>
       </c>
       <c r="B23" s="107" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -17036,7 +17045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
@@ -17128,10 +17137,10 @@
         <v>2024</v>
       </c>
       <c r="B3" s="108" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="110" t="s">
         <v>381</v>
-      </c>
-      <c r="C3" s="110" t="s">
-        <v>382</v>
       </c>
       <c r="D3" s="113"/>
       <c r="E3" s="113"/>
@@ -17142,7 +17151,7 @@
       <c r="J3" s="113"/>
       <c r="K3" s="113"/>
       <c r="L3" s="110" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M3" s="110">
         <v>14</v>
@@ -17155,10 +17164,10 @@
         <v>2023</v>
       </c>
       <c r="B4" s="108" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" s="110" t="s">
         <v>381</v>
-      </c>
-      <c r="C4" s="110" t="s">
-        <v>382</v>
       </c>
       <c r="D4" s="110"/>
       <c r="E4" s="110"/>
@@ -17166,16 +17175,16 @@
         <v>3</v>
       </c>
       <c r="G4" s="110">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" s="110">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I4" s="110"/>
       <c r="J4" s="110"/>
       <c r="K4" s="110"/>
       <c r="L4" s="110" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M4" s="110">
         <v>14</v>
@@ -17218,7 +17227,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -17265,7 +17274,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -18094,11 +18103,11 @@
       </c>
       <c r="G24" s="18">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H24" s="18">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I24" s="18">
         <f t="shared" si="0"/>
@@ -18484,7 +18493,7 @@
         <v>2012</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>139</v>
@@ -18522,7 +18531,7 @@
         <v>2012</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>146</v>
@@ -18560,7 +18569,7 @@
         <v>2012</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>115</v>
@@ -18598,7 +18607,7 @@
         <v>2011</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>135</v>
@@ -18636,7 +18645,7 @@
         <v>2010</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>171</v>
@@ -18674,7 +18683,7 @@
         <v>2010</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>155</v>
@@ -18712,7 +18721,7 @@
         <v>2010</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>152</v>
@@ -18750,7 +18759,7 @@
         <v>2010</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>139</v>
@@ -18788,7 +18797,7 @@
         <v>2010</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>118</v>
@@ -18826,7 +18835,7 @@
         <v>2008</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>161</v>
@@ -18864,7 +18873,7 @@
         <v>2008</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>154</v>
@@ -18902,7 +18911,7 @@
         <v>2007</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>152</v>
@@ -18940,7 +18949,7 @@
         <v>2007</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>144</v>
@@ -18978,7 +18987,7 @@
         <v>2007</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>126</v>
@@ -19016,7 +19025,7 @@
         <v>2007</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>114</v>
@@ -19054,7 +19063,7 @@
         <v>2006</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>157</v>
@@ -19092,7 +19101,7 @@
         <v>2006</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>131</v>
@@ -19130,7 +19139,7 @@
         <v>2006</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>135</v>
@@ -19168,7 +19177,7 @@
         <v>2006</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>125</v>
@@ -19206,7 +19215,7 @@
         <v>2006</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>119</v>
@@ -19244,7 +19253,7 @@
         <v>2006</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>111</v>
@@ -19282,7 +19291,7 @@
         <v>2006</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>117</v>
@@ -19320,7 +19329,7 @@
         <v>2005</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>163</v>
@@ -19358,7 +19367,7 @@
         <v>2005</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>139</v>
@@ -19396,7 +19405,7 @@
         <v>2005</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>133</v>
@@ -19434,7 +19443,7 @@
         <v>2005</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>144</v>
@@ -19472,7 +19481,7 @@
         <v>2005</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>178</v>
@@ -19510,7 +19519,7 @@
         <v>2005</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>116</v>
@@ -19548,7 +19557,7 @@
         <v>2005</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>114</v>
@@ -19586,7 +19595,7 @@
         <v>2003</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>149</v>
@@ -19645,7 +19654,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G36" s="7">
         <f>(A20-A34+1)+(A14-A15+1)</f>
@@ -19702,7 +19711,7 @@
       <c r="D39" s="7"/>
       <c r="E39" s="55"/>
       <c r="F39" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G39" s="7">
         <f>0</f>
@@ -19716,38 +19725,38 @@
     </row>
     <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B41" s="97">
         <f>SUM(B46:B66)</f>
         <v>32</v>
       </c>
       <c r="C41" s="71" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="94" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B42" s="97">
         <f>SUM(C147:C176)</f>
         <v>16</v>
       </c>
       <c r="C42" s="71" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="94" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B43" s="97">
         <f>SUM(C107:C143)</f>
         <v>19</v>
       </c>
       <c r="C43" s="71" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.15">
@@ -19934,7 +19943,7 @@
     </row>
     <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>55</v>
@@ -19966,7 +19975,7 @@
     </row>
     <row r="72" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B72" s="20">
         <v>0</v>
@@ -20170,7 +20179,7 @@
     </row>
     <row r="89" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B89" s="20">
         <v>0</v>
@@ -20194,7 +20203,7 @@
     </row>
     <row r="91" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B91" s="20">
         <v>0</v>
@@ -20254,7 +20263,7 @@
     </row>
     <row r="96" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B96" s="20">
         <v>0</v>
@@ -20266,7 +20275,7 @@
     </row>
     <row r="97" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B97" s="20">
         <v>1</v>
@@ -20338,7 +20347,7 @@
     </row>
     <row r="103" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B103" s="20">
         <v>0</v>
@@ -20610,7 +20619,7 @@
     </row>
     <row r="128" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B128" s="20">
         <v>0</v>
@@ -20634,7 +20643,7 @@
     </row>
     <row r="130" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B130" s="20">
         <v>0</v>
@@ -20739,7 +20748,7 @@
     </row>
     <row r="139" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B139" s="20">
         <v>0</v>
@@ -20799,7 +20808,7 @@
     </row>
     <row r="146" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A146" s="98" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B146" s="99" t="s">
         <v>55</v>
@@ -20807,7 +20816,7 @@
     </row>
     <row r="147" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A147" s="98" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B147" s="100">
         <v>0</v>
@@ -20819,7 +20828,7 @@
     </row>
     <row r="148" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A148" s="98" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B148" s="100">
         <v>1</v>
@@ -20831,7 +20840,7 @@
     </row>
     <row r="149" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A149" s="98" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B149" s="100">
         <v>0</v>
@@ -20843,7 +20852,7 @@
     </row>
     <row r="150" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A150" s="98" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B150" s="100">
         <v>0</v>
@@ -20855,7 +20864,7 @@
     </row>
     <row r="151" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A151" s="98" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B151" s="100">
         <v>3</v>
@@ -20867,7 +20876,7 @@
     </row>
     <row r="152" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A152" s="98" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B152" s="100">
         <v>0</v>
@@ -20879,7 +20888,7 @@
     </row>
     <row r="153" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A153" s="98" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B153" s="100">
         <v>0</v>
@@ -20891,7 +20900,7 @@
     </row>
     <row r="154" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A154" s="98" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B154" s="100">
         <v>2</v>
@@ -20903,7 +20912,7 @@
     </row>
     <row r="155" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A155" s="98" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B155" s="100">
         <v>1</v>
@@ -20915,7 +20924,7 @@
     </row>
     <row r="156" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A156" s="98" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B156" s="100">
         <v>2</v>
@@ -20927,7 +20936,7 @@
     </row>
     <row r="157" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A157" s="98" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B157" s="100">
         <v>1</v>
@@ -20939,7 +20948,7 @@
     </row>
     <row r="158" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A158" s="98" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B158" s="100">
         <v>5</v>
@@ -20951,7 +20960,7 @@
     </row>
     <row r="159" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A159" s="98" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B159" s="100">
         <v>1</v>
@@ -20963,7 +20972,7 @@
     </row>
     <row r="160" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A160" s="98" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B160" s="100">
         <v>0</v>
@@ -20975,7 +20984,7 @@
     </row>
     <row r="161" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A161" s="98" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B161" s="100">
         <v>2</v>
@@ -20987,7 +20996,7 @@
     </row>
     <row r="162" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A162" s="98" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B162" s="100">
         <v>2</v>
@@ -20999,7 +21008,7 @@
     </row>
     <row r="163" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A163" s="98" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B163" s="100">
         <v>1</v>
@@ -21011,7 +21020,7 @@
     </row>
     <row r="164" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A164" s="98" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B164" s="100">
         <v>3</v>
@@ -21023,7 +21032,7 @@
     </row>
     <row r="165" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A165" s="98" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B165" s="100">
         <v>0</v>
@@ -21035,7 +21044,7 @@
     </row>
     <row r="166" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A166" s="98" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B166" s="100">
         <v>2</v>
@@ -21047,7 +21056,7 @@
     </row>
     <row r="167" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A167" s="98" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B167" s="100">
         <v>0</v>
@@ -21059,7 +21068,7 @@
     </row>
     <row r="168" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A168" s="98" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B168" s="100">
         <v>0</v>
@@ -21071,7 +21080,7 @@
     </row>
     <row r="169" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A169" s="98" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B169" s="100">
         <v>0</v>
@@ -21083,7 +21092,7 @@
     </row>
     <row r="170" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A170" s="98" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B170" s="100">
         <v>0</v>
@@ -21095,7 +21104,7 @@
     </row>
     <row r="171" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A171" s="98" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B171" s="100">
         <v>1</v>
@@ -21107,7 +21116,7 @@
     </row>
     <row r="172" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A172" s="98" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B172" s="100">
         <v>0</v>
@@ -21119,7 +21128,7 @@
     </row>
     <row r="173" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A173" s="98" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B173" s="100">
         <v>2</v>
@@ -21131,7 +21140,7 @@
     </row>
     <row r="174" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A174" s="98" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B174" s="100">
         <v>3</v>
@@ -21143,7 +21152,7 @@
     </row>
     <row r="175" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A175" s="98" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B175" s="100">
         <v>0</v>
@@ -21155,7 +21164,7 @@
     </row>
     <row r="176" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A176" s="98" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B176" s="100">
         <v>0</v>
@@ -21269,7 +21278,7 @@
         <v>2012</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>139</v>
@@ -21312,7 +21321,7 @@
         <v>2012</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>135</v>
@@ -21355,7 +21364,7 @@
         <v>2010</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>154</v>
@@ -21398,7 +21407,7 @@
         <v>2010</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>153</v>
@@ -21441,7 +21450,7 @@
         <v>2009</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>148</v>
@@ -21484,7 +21493,7 @@
         <v>2007</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>152</v>
@@ -21527,7 +21536,7 @@
         <v>2007</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>128</v>
@@ -21570,7 +21579,7 @@
         <v>2006</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>164</v>
@@ -21613,7 +21622,7 @@
         <v>2006</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>132</v>
@@ -21656,7 +21665,7 @@
         <v>2006</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>135</v>
@@ -21699,7 +21708,7 @@
         <v>2006</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>127</v>
@@ -21742,7 +21751,7 @@
         <v>2006</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>121</v>
@@ -21785,7 +21794,7 @@
         <v>2006</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>145</v>
@@ -21828,7 +21837,7 @@
         <v>2005</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>164</v>
@@ -21871,7 +21880,7 @@
         <v>2005</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>166</v>
@@ -21914,7 +21923,7 @@
         <v>2005</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>136</v>
@@ -21957,7 +21966,7 @@
         <v>2005</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>134</v>
@@ -22000,7 +22009,7 @@
         <v>2005</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>118</v>
@@ -22041,7 +22050,7 @@
         <v>2005</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>115</v>
@@ -22082,7 +22091,7 @@
         <v>2004</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>134</v>
@@ -22123,7 +22132,7 @@
         <v>2003</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>148</v>
@@ -22164,7 +22173,7 @@
         <v>2003</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>114</v>
@@ -22265,7 +22274,7 @@
       <c r="E28" s="69"/>
       <c r="F28" s="7"/>
       <c r="G28" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -22294,14 +22303,14 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="94" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B30" s="97">
         <f>SUM(B35:B55)</f>
         <v>22</v>
       </c>
       <c r="C30" s="71" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D30" s="71"/>
       <c r="E30" s="71"/>
@@ -22310,14 +22319,14 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="94" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B31" s="97">
         <f>SUM(C134:C163)</f>
         <v>13</v>
       </c>
       <c r="C31" s="71" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D31" s="71"/>
       <c r="E31" s="71"/>
@@ -22326,14 +22335,14 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="94" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B32" s="97">
         <f>SUM(C93:C130)</f>
         <v>14</v>
       </c>
       <c r="C32" s="71" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D32" s="71"/>
       <c r="E32" s="71"/>
@@ -22514,7 +22523,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>235</v>
@@ -22546,7 +22555,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B60" s="20">
         <v>0</v>
@@ -22750,7 +22759,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B77" s="20">
         <v>0</v>
@@ -22770,7 +22779,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B79" s="20">
         <v>0</v>
@@ -22830,7 +22839,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B84" s="20">
         <v>0</v>
@@ -22842,7 +22851,7 @@
     </row>
     <row r="85" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B85" s="20">
         <v>0</v>
@@ -22902,7 +22911,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B90" s="20">
         <v>0</v>
@@ -23175,7 +23184,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B115" s="20">
         <v>0</v>
@@ -23196,7 +23205,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B117" s="20">
         <v>0</v>
@@ -23301,7 +23310,7 @@
     </row>
     <row r="126" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B126" s="20">
         <v>0</v>
@@ -23361,7 +23370,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="102" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B133" s="103" t="s">
         <v>56</v>
@@ -23369,7 +23378,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="102" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B134" s="104">
         <v>0</v>
@@ -23381,7 +23390,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="102" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B135" s="104">
         <v>0</v>
@@ -23393,7 +23402,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B136" s="104">
         <v>0</v>
@@ -23405,7 +23414,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="102" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B137" s="104">
         <v>0</v>
@@ -23417,7 +23426,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="102" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B138" s="104">
         <v>1</v>
@@ -23429,7 +23438,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="102" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B139" s="104">
         <v>0</v>
@@ -23441,7 +23450,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="102" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B140" s="104">
         <v>1</v>
@@ -23453,7 +23462,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="102" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B141" s="104">
         <v>3</v>
@@ -23465,7 +23474,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="102" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B142" s="104">
         <v>1</v>
@@ -23477,7 +23486,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="102" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B143" s="104">
         <v>2</v>
@@ -23489,7 +23498,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="102" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B144" s="104">
         <v>2</v>
@@ -23501,7 +23510,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="102" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B145" s="104">
         <v>2</v>
@@ -23513,7 +23522,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="102" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B146" s="104">
         <v>2</v>
@@ -23525,7 +23534,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="102" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B147" s="104">
         <v>0</v>
@@ -23537,7 +23546,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="102" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B148" s="104">
         <v>2</v>
@@ -23549,7 +23558,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B149" s="104">
         <v>0</v>
@@ -23561,7 +23570,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="102" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B150" s="104">
         <v>0</v>
@@ -23573,7 +23582,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="102" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B151" s="104">
         <v>2</v>
@@ -23585,7 +23594,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="102" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B152" s="104">
         <v>0</v>
@@ -23597,7 +23606,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="102" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B153" s="104">
         <v>2</v>
@@ -23609,7 +23618,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="102" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B154" s="104">
         <v>0</v>
@@ -23621,7 +23630,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="102" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B155" s="104">
         <v>0</v>
@@ -23633,7 +23642,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="102" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B156" s="104">
         <v>0</v>
@@ -23645,7 +23654,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="102" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B157" s="104">
         <v>0</v>
@@ -23657,7 +23666,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="102" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B158" s="104">
         <v>0</v>
@@ -23669,7 +23678,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="102" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B159" s="104">
         <v>0</v>
@@ -23681,7 +23690,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="102" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B160" s="104">
         <v>1</v>
@@ -23693,7 +23702,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="102" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B161" s="104">
         <v>1</v>
@@ -23705,7 +23714,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="102" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B162" s="104">
         <v>0</v>
@@ -23717,7 +23726,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="102" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B163" s="104">
         <v>0</v>
@@ -23744,12 +23753,12 @@
   <dimension ref="A1:M249"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="36.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.375" bestFit="1" customWidth="1"/>
@@ -23827,25 +23836,37 @@
       <c r="B3" s="116">
         <v>2023</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
+      <c r="C3" s="116" t="s">
+        <v>538</v>
+      </c>
+      <c r="D3" s="116" t="s">
+        <v>537</v>
+      </c>
       <c r="E3" s="116">
         <v>14</v>
       </c>
       <c r="F3" s="108" t="s">
+        <v>380</v>
+      </c>
+      <c r="G3" s="116" t="s">
         <v>381</v>
       </c>
-      <c r="G3" s="116" t="s">
+      <c r="H3" s="116" t="s">
         <v>382</v>
       </c>
-      <c r="H3" s="116" t="s">
-        <v>383</v>
-      </c>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
+      <c r="I3" s="116">
+        <v>4</v>
+      </c>
+      <c r="J3" s="116">
+        <v>3</v>
+      </c>
       <c r="K3" s="118"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="117"/>
+      <c r="L3" s="116">
+        <v>15</v>
+      </c>
+      <c r="M3" s="117">
+        <v>45235</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="115">
@@ -23855,22 +23876,22 @@
         <v>2023</v>
       </c>
       <c r="C4" s="116" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D4" s="116" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E4" s="116">
         <v>14</v>
       </c>
       <c r="F4" s="108" t="s">
+        <v>380</v>
+      </c>
+      <c r="G4" s="116" t="s">
         <v>381</v>
       </c>
-      <c r="G4" s="116" t="s">
+      <c r="H4" s="116" t="s">
         <v>382</v>
-      </c>
-      <c r="H4" s="116" t="s">
-        <v>383</v>
       </c>
       <c r="I4" s="116">
         <v>5</v>
@@ -23894,22 +23915,22 @@
         <v>2023</v>
       </c>
       <c r="C5" s="116" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D5" s="116" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E5" s="116">
         <v>14</v>
       </c>
       <c r="F5" s="108" t="s">
+        <v>380</v>
+      </c>
+      <c r="G5" s="116" t="s">
         <v>381</v>
       </c>
-      <c r="G5" s="116" t="s">
+      <c r="H5" s="116" t="s">
         <v>382</v>
-      </c>
-      <c r="H5" s="116" t="s">
-        <v>383</v>
       </c>
       <c r="I5" s="116">
         <v>2</v>
@@ -23933,22 +23954,22 @@
         <v>2023</v>
       </c>
       <c r="C6" s="116" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D6" s="116" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E6" s="116">
         <v>14</v>
       </c>
       <c r="F6" s="108" t="s">
+        <v>380</v>
+      </c>
+      <c r="G6" s="116" t="s">
         <v>381</v>
       </c>
-      <c r="G6" s="116" t="s">
+      <c r="H6" s="116" t="s">
         <v>382</v>
-      </c>
-      <c r="H6" s="116" t="s">
-        <v>383</v>
       </c>
       <c r="I6" s="116">
         <v>2</v>
@@ -23972,22 +23993,22 @@
         <v>2023</v>
       </c>
       <c r="C7" s="116" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D7" s="116" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E7" s="116">
         <v>14</v>
       </c>
       <c r="F7" s="108" t="s">
+        <v>380</v>
+      </c>
+      <c r="G7" s="116" t="s">
         <v>381</v>
       </c>
-      <c r="G7" s="116" t="s">
+      <c r="H7" s="116" t="s">
         <v>382</v>
-      </c>
-      <c r="H7" s="116" t="s">
-        <v>383</v>
       </c>
       <c r="I7" s="116">
         <v>2</v>
@@ -24011,7 +24032,7 @@
         <v>2023</v>
       </c>
       <c r="C8" s="116" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D8" s="116" t="s">
         <v>111</v>
@@ -24020,13 +24041,13 @@
         <v>14</v>
       </c>
       <c r="F8" s="108" t="s">
+        <v>380</v>
+      </c>
+      <c r="G8" s="116" t="s">
         <v>381</v>
       </c>
-      <c r="G8" s="116" t="s">
+      <c r="H8" s="116" t="s">
         <v>382</v>
-      </c>
-      <c r="H8" s="116" t="s">
-        <v>383</v>
       </c>
       <c r="I8" s="116">
         <v>4</v>
@@ -24050,22 +24071,22 @@
         <v>2023</v>
       </c>
       <c r="C9" s="116" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D9" s="116" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E9" s="116">
         <v>14</v>
       </c>
       <c r="F9" s="108" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G9" s="116" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H9" s="116" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I9" s="116">
         <v>2</v>
@@ -24078,7 +24099,7 @@
         <v>15</v>
       </c>
       <c r="M9" s="117">
-        <v>44990</v>
+        <v>45004</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
@@ -24089,7 +24110,7 @@
         <v>2023</v>
       </c>
       <c r="C10" s="116" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D10" s="116" t="s">
         <v>116</v>
@@ -24098,13 +24119,13 @@
         <v>14</v>
       </c>
       <c r="F10" s="108" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G10" s="116" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H10" s="116" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I10" s="116">
         <v>5</v>
@@ -24117,7 +24138,7 @@
         <v>15</v>
       </c>
       <c r="M10" s="117">
-        <v>45004</v>
+        <v>44990</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
@@ -24140,10 +24161,10 @@
         <v>246</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I11" s="30">
         <v>3</v>
@@ -24248,7 +24269,7 @@
         <v>64</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>170</v>
+        <v>536</v>
       </c>
       <c r="E14" s="23">
         <v>3</v>
@@ -24440,7 +24461,7 @@
         <v>2013</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>131</v>
@@ -24596,7 +24617,7 @@
         <v>2012</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>407</v>
+        <v>535</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>170</v>
@@ -24635,7 +24656,7 @@
         <v>2012</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>180</v>
@@ -24674,7 +24695,7 @@
         <v>2012</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>177</v>
@@ -24713,7 +24734,7 @@
         <v>2012</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>175</v>
@@ -24752,7 +24773,7 @@
         <v>2012</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>173</v>
@@ -24791,7 +24812,7 @@
         <v>2012</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>154</v>
@@ -24830,7 +24851,7 @@
         <v>2012</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>152</v>
@@ -24869,7 +24890,7 @@
         <v>2012</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>142</v>
@@ -24908,7 +24929,7 @@
         <v>2012</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>138</v>
@@ -24947,7 +24968,7 @@
         <v>2012</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>147</v>
@@ -24986,7 +25007,7 @@
         <v>2012</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>130</v>
@@ -25025,7 +25046,7 @@
         <v>2012</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>120</v>
@@ -25064,7 +25085,7 @@
         <v>2012</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>115</v>
@@ -25103,7 +25124,7 @@
         <v>2011</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>176</v>
@@ -25142,7 +25163,7 @@
         <v>2011</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>174</v>
@@ -25181,7 +25202,7 @@
         <v>2011</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>160</v>
@@ -25220,7 +25241,7 @@
         <v>2011</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>152</v>
@@ -25259,7 +25280,7 @@
         <v>2011</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>148</v>
@@ -25298,7 +25319,7 @@
         <v>2011</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>143</v>
@@ -25337,7 +25358,7 @@
         <v>2011</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>136</v>
@@ -25376,7 +25397,7 @@
         <v>2011</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>146</v>
@@ -25415,7 +25436,7 @@
         <v>2011</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>130</v>
@@ -25454,7 +25475,7 @@
         <v>2011</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>124</v>
@@ -25493,7 +25514,7 @@
         <v>2010</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>170</v>
@@ -25532,7 +25553,7 @@
         <v>2010</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>172</v>
@@ -25571,7 +25592,7 @@
         <v>2010</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>159</v>
@@ -25610,7 +25631,7 @@
         <v>2010</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>154</v>
@@ -25649,7 +25670,7 @@
         <v>2010</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>152</v>
@@ -25688,7 +25709,7 @@
         <v>2010</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>148</v>
@@ -25727,7 +25748,7 @@
         <v>2010</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D52" s="24" t="s">
         <v>141</v>
@@ -25766,7 +25787,7 @@
         <v>2010</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>131</v>
@@ -25805,7 +25826,7 @@
         <v>2010</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D54" s="24" t="s">
         <v>120</v>
@@ -25844,7 +25865,7 @@
         <v>2010</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>117</v>
@@ -25883,7 +25904,7 @@
         <v>2009</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D56" s="26" t="s">
         <v>156</v>
@@ -25922,7 +25943,7 @@
         <v>2008</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D57" s="26" t="s">
         <v>169</v>
@@ -25961,7 +25982,7 @@
         <v>2008</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D58" s="26" t="s">
         <v>162</v>
@@ -26000,7 +26021,7 @@
         <v>2008</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D59" s="26" t="s">
         <v>154</v>
@@ -26039,7 +26060,7 @@
         <v>2007</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D60" s="28" t="s">
         <v>168</v>
@@ -26078,7 +26099,7 @@
         <v>2007</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D61" s="28" t="s">
         <v>165</v>
@@ -26117,7 +26138,7 @@
         <v>2007</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D62" s="28" t="s">
         <v>151</v>
@@ -26156,7 +26177,7 @@
         <v>2007</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D63" s="28" t="s">
         <v>153</v>
@@ -26195,7 +26216,7 @@
         <v>2007</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D64" s="28" t="s">
         <v>123</v>
@@ -26234,7 +26255,7 @@
         <v>2007</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D65" s="28" t="s">
         <v>144</v>
@@ -26273,7 +26294,7 @@
         <v>2007</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D66" s="28" t="s">
         <v>137</v>
@@ -26312,7 +26333,7 @@
         <v>2007</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D67" s="28" t="s">
         <v>179</v>
@@ -26351,7 +26372,7 @@
         <v>2007</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D68" s="28" t="s">
         <v>128</v>
@@ -26390,7 +26411,7 @@
         <v>2007</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D69" s="28" t="s">
         <v>120</v>
@@ -26429,7 +26450,7 @@
         <v>2007</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D70" s="28" t="s">
         <v>114</v>
@@ -26468,7 +26489,7 @@
         <v>2007</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D71" s="28" t="s">
         <v>112</v>
@@ -26507,7 +26528,7 @@
         <v>2006</v>
       </c>
       <c r="C72" s="92" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D72" s="92" t="s">
         <v>167</v>
@@ -26546,7 +26567,7 @@
         <v>2006</v>
       </c>
       <c r="C73" s="92" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D73" s="92" t="s">
         <v>159</v>
@@ -26585,7 +26606,7 @@
         <v>2006</v>
       </c>
       <c r="C74" s="92" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D74" s="92" t="s">
         <v>164</v>
@@ -26624,7 +26645,7 @@
         <v>2006</v>
       </c>
       <c r="C75" s="92" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D75" s="92" t="s">
         <v>122</v>
@@ -26663,7 +26684,7 @@
         <v>2006</v>
       </c>
       <c r="C76" s="92" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D76" s="92" t="s">
         <v>133</v>
@@ -26702,7 +26723,7 @@
         <v>2006</v>
       </c>
       <c r="C77" s="92" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D77" s="92" t="s">
         <v>131</v>
@@ -26741,7 +26762,7 @@
         <v>2006</v>
       </c>
       <c r="C78" s="92" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D78" s="92" t="s">
         <v>135</v>
@@ -26780,7 +26801,7 @@
         <v>2006</v>
       </c>
       <c r="C79" s="92" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D79" s="92" t="s">
         <v>129</v>
@@ -26819,7 +26840,7 @@
         <v>2006</v>
       </c>
       <c r="C80" s="92" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D80" s="92" t="s">
         <v>120</v>
@@ -26858,7 +26879,7 @@
         <v>2006</v>
       </c>
       <c r="C81" s="92" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D81" s="92" t="s">
         <v>145</v>
@@ -26897,7 +26918,7 @@
         <v>2006</v>
       </c>
       <c r="C82" s="92" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D82" s="92" t="s">
         <v>178</v>
@@ -26936,7 +26957,7 @@
         <v>2006</v>
       </c>
       <c r="C83" s="92" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D83" s="92" t="s">
         <v>112</v>
@@ -26975,7 +26996,7 @@
         <v>2006</v>
       </c>
       <c r="C84" s="92" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D84" s="92" t="s">
         <v>115</v>
@@ -27014,7 +27035,7 @@
         <v>2006</v>
       </c>
       <c r="C85" s="92" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D85" s="92" t="s">
         <v>117</v>
@@ -27053,7 +27074,7 @@
         <v>2005</v>
       </c>
       <c r="C86" s="92" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D86" s="92" t="s">
         <v>163</v>
@@ -27092,7 +27113,7 @@
         <v>2005</v>
       </c>
       <c r="C87" s="92" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D87" s="92" t="s">
         <v>158</v>
@@ -27131,7 +27152,7 @@
         <v>2005</v>
       </c>
       <c r="C88" s="92" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D88" s="92" t="s">
         <v>167</v>
@@ -27170,7 +27191,7 @@
         <v>2005</v>
       </c>
       <c r="C89" s="92" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D89" s="92" t="s">
         <v>150</v>
@@ -27209,7 +27230,7 @@
         <v>2005</v>
       </c>
       <c r="C90" s="92" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D90" s="92" t="s">
         <v>152</v>
@@ -27248,7 +27269,7 @@
         <v>2005</v>
       </c>
       <c r="C91" s="92" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D91" s="92" t="s">
         <v>122</v>
@@ -27287,7 +27308,7 @@
         <v>2005</v>
       </c>
       <c r="C92" s="92" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D92" s="92" t="s">
         <v>140</v>
@@ -27326,7 +27347,7 @@
         <v>2005</v>
       </c>
       <c r="C93" s="92" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D93" s="92" t="s">
         <v>137</v>
@@ -27365,7 +27386,7 @@
         <v>2005</v>
       </c>
       <c r="C94" s="92" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D94" s="92" t="s">
         <v>133</v>
@@ -27404,7 +27425,7 @@
         <v>2005</v>
       </c>
       <c r="C95" s="92" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D95" s="92" t="s">
         <v>144</v>
@@ -27443,7 +27464,7 @@
         <v>2005</v>
       </c>
       <c r="C96" s="92" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D96" s="92" t="s">
         <v>120</v>
@@ -27482,7 +27503,7 @@
         <v>2005</v>
       </c>
       <c r="C97" s="92" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D97" s="92" t="s">
         <v>178</v>
@@ -27521,7 +27542,7 @@
         <v>2005</v>
       </c>
       <c r="C98" s="92" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D98" s="92" t="s">
         <v>117</v>
@@ -27560,7 +27581,7 @@
         <v>2005</v>
       </c>
       <c r="C99" s="92" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D99" s="92" t="s">
         <v>115</v>
@@ -27599,7 +27620,7 @@
         <v>2005</v>
       </c>
       <c r="C100" s="92" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D100" s="92" t="s">
         <v>112</v>
@@ -27638,7 +27659,7 @@
         <v>2004</v>
       </c>
       <c r="C101" s="92" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D101" s="92" t="s">
         <v>148</v>
@@ -27677,7 +27698,7 @@
         <v>2004</v>
       </c>
       <c r="C102" s="92" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D102" s="92" t="s">
         <v>140</v>
@@ -27716,7 +27737,7 @@
         <v>2004</v>
       </c>
       <c r="C103" s="92" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D103" s="92" t="s">
         <v>133</v>
@@ -27755,7 +27776,7 @@
         <v>2004</v>
       </c>
       <c r="C104" s="92" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D104" s="92" t="s">
         <v>112</v>
@@ -27794,7 +27815,7 @@
         <v>2003</v>
       </c>
       <c r="C105" s="92" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D105" s="92" t="s">
         <v>148</v>
@@ -27833,7 +27854,7 @@
         <v>2003</v>
       </c>
       <c r="C106" s="92" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D106" s="92" t="s">
         <v>120</v>
@@ -27872,7 +27893,7 @@
         <v>2003</v>
       </c>
       <c r="C107" s="92" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D107" s="92" t="s">
         <v>167</v>
@@ -27911,7 +27932,7 @@
         <v>2003</v>
       </c>
       <c r="C108" s="93" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D108" s="93" t="s">
         <v>115</v>
@@ -28009,7 +28030,7 @@
       <c r="D112" s="6"/>
       <c r="E112" s="7"/>
       <c r="F112" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
@@ -28029,7 +28050,7 @@
       <c r="D113" s="107"/>
       <c r="E113" s="110"/>
       <c r="F113" s="107" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G113" s="110"/>
       <c r="H113" s="110"/>
@@ -28044,11 +28065,11 @@
     </row>
     <row r="115" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="94" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B115" s="97">
         <f>SUM(B120:B140)</f>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C115" s="71" t="s">
         <v>236</v>
@@ -28056,26 +28077,26 @@
     </row>
     <row r="116" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="94" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B116" s="97">
         <f>SUM(C220:C249)</f>
         <v>25</v>
       </c>
       <c r="C116" s="71" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A117" s="94" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B117" s="97">
         <f>SUM(C180:C216)</f>
         <v>30</v>
       </c>
       <c r="C117" s="71" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="18" x14ac:dyDescent="0.15">
@@ -28255,7 +28276,7 @@
         <v>2023</v>
       </c>
       <c r="B139" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="18" x14ac:dyDescent="0.15">
@@ -28266,7 +28287,7 @@
     </row>
     <row r="143" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B143" s="21" t="s">
         <v>236</v>
@@ -28298,7 +28319,7 @@
     </row>
     <row r="146" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="B146" s="20">
         <v>0</v>
@@ -28346,10 +28367,10 @@
     </row>
     <row r="150" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>312</v>
+        <v>540</v>
       </c>
       <c r="B150" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" s="1">
         <f t="shared" si="0"/>
@@ -28358,7 +28379,7 @@
     </row>
     <row r="151" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B151" s="20">
         <v>6</v>
@@ -28370,7 +28391,7 @@
     </row>
     <row r="152" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B152" s="20">
         <v>4</v>
@@ -28382,7 +28403,7 @@
     </row>
     <row r="153" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B153" s="20">
         <v>5</v>
@@ -28394,7 +28415,7 @@
     </row>
     <row r="154" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B154" s="20">
         <v>1</v>
@@ -28406,7 +28427,7 @@
     </row>
     <row r="155" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B155" s="20">
         <v>5</v>
@@ -28418,7 +28439,7 @@
     </row>
     <row r="156" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B156" s="20">
         <v>3</v>
@@ -28430,7 +28451,7 @@
     </row>
     <row r="157" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B157" s="20">
         <v>5</v>
@@ -28442,7 +28463,7 @@
     </row>
     <row r="158" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B158" s="20">
         <v>5</v>
@@ -28454,7 +28475,7 @@
     </row>
     <row r="159" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B159" s="20">
         <v>2</v>
@@ -28466,7 +28487,7 @@
     </row>
     <row r="160" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B160" s="20">
         <v>6</v>
@@ -28478,7 +28499,7 @@
     </row>
     <row r="161" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B161" s="20">
         <v>5</v>
@@ -28490,7 +28511,7 @@
     </row>
     <row r="162" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B162" s="20">
         <v>2</v>
@@ -28502,7 +28523,7 @@
     </row>
     <row r="163" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B163" s="20">
         <v>0</v>
@@ -28511,7 +28532,7 @@
     </row>
     <row r="164" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B164" s="20">
         <v>5</v>
@@ -28523,7 +28544,7 @@
     </row>
     <row r="165" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B165" s="20">
         <v>0</v>
@@ -28535,7 +28556,7 @@
     </row>
     <row r="166" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B166" s="20">
         <v>1</v>
@@ -28547,7 +28568,7 @@
     </row>
     <row r="167" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B167" s="20">
         <v>5</v>
@@ -28559,7 +28580,7 @@
     </row>
     <row r="168" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B168" s="20">
         <v>0</v>
@@ -28571,7 +28592,7 @@
     </row>
     <row r="169" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B169" s="20">
         <v>1</v>
@@ -28583,7 +28604,7 @@
     </row>
     <row r="170" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B170" s="20">
         <v>0</v>
@@ -28595,7 +28616,7 @@
     </row>
     <row r="171" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B171" s="20">
         <v>2</v>
@@ -28607,7 +28628,7 @@
     </row>
     <row r="172" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B172" s="20">
         <v>1</v>
@@ -28619,7 +28640,7 @@
     </row>
     <row r="173" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B173" s="20">
         <v>5</v>
@@ -28631,7 +28652,7 @@
     </row>
     <row r="174" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B174" s="20">
         <v>7</v>
@@ -28643,7 +28664,7 @@
     </row>
     <row r="175" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B175" s="20">
         <v>4</v>
@@ -28655,7 +28676,7 @@
     </row>
     <row r="176" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B176" s="20">
         <v>2</v>
@@ -28685,7 +28706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>254</v>
       </c>
@@ -28714,7 +28735,7 @@
         <v>207</v>
       </c>
       <c r="B183" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" s="95">
         <f t="shared" si="1"/>
@@ -28781,7 +28802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>229</v>
       </c>
@@ -28927,7 +28948,7 @@
     </row>
     <row r="201" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B201" s="20">
         <v>0</v>
@@ -28951,7 +28972,7 @@
     </row>
     <row r="203" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B203" s="20">
         <v>1</v>
@@ -29057,9 +29078,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B212" s="20">
         <v>0</v>
@@ -29119,7 +29140,7 @@
     </row>
     <row r="219" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A219" s="101" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B219" s="21" t="s">
         <v>236</v>
@@ -29127,7 +29148,7 @@
     </row>
     <row r="220" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A220" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B220" s="106">
         <v>2</v>
@@ -29139,7 +29160,7 @@
     </row>
     <row r="221" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A221" s="105" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B221" s="106">
         <v>6</v>
@@ -29151,7 +29172,7 @@
     </row>
     <row r="222" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A222" s="105" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B222" s="106">
         <v>0</v>
@@ -29163,7 +29184,7 @@
     </row>
     <row r="223" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A223" s="105" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B223" s="106">
         <v>0</v>
@@ -29175,7 +29196,7 @@
     </row>
     <row r="224" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A224" s="105" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B224" s="106">
         <v>4</v>
@@ -29187,7 +29208,7 @@
     </row>
     <row r="225" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A225" s="105" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B225" s="106">
         <v>3</v>
@@ -29199,10 +29220,10 @@
     </row>
     <row r="226" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A226" s="105" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B226" s="106">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C226" s="95">
         <f t="shared" si="2"/>
@@ -29211,7 +29232,7 @@
     </row>
     <row r="227" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A227" s="105" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B227" s="106">
         <v>6</v>
@@ -29223,7 +29244,7 @@
     </row>
     <row r="228" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A228" s="105" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B228" s="106">
         <v>3</v>
@@ -29235,7 +29256,7 @@
     </row>
     <row r="229" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A229" s="105" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B229" s="106">
         <v>5</v>
@@ -29247,7 +29268,7 @@
     </row>
     <row r="230" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A230" s="105" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B230" s="106">
         <v>3</v>
@@ -29259,7 +29280,7 @@
     </row>
     <row r="231" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A231" s="105" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B231" s="106">
         <v>8</v>
@@ -29271,7 +29292,7 @@
     </row>
     <row r="232" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A232" s="105" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B232" s="106">
         <v>5</v>
@@ -29283,7 +29304,7 @@
     </row>
     <row r="233" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A233" s="105" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B233" s="106">
         <v>2</v>
@@ -29295,7 +29316,7 @@
     </row>
     <row r="234" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A234" s="105" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B234" s="106">
         <v>6</v>
@@ -29307,7 +29328,7 @@
     </row>
     <row r="235" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A235" s="105" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B235" s="106">
         <v>5</v>
@@ -29319,7 +29340,7 @@
     </row>
     <row r="236" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A236" s="105" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B236" s="106">
         <v>2</v>
@@ -29331,7 +29352,7 @@
     </row>
     <row r="237" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A237" s="105" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B237" s="106">
         <v>5</v>
@@ -29343,7 +29364,7 @@
     </row>
     <row r="238" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A238" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B238" s="106">
         <v>0</v>
@@ -29355,7 +29376,7 @@
     </row>
     <row r="239" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A239" s="105" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B239" s="106">
         <v>5</v>
@@ -29367,7 +29388,7 @@
     </row>
     <row r="240" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A240" s="105" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B240" s="106">
         <v>1</v>
@@ -29379,7 +29400,7 @@
     </row>
     <row r="241" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A241" s="105" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B241" s="106">
         <v>0</v>
@@ -29391,7 +29412,7 @@
     </row>
     <row r="242" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A242" s="105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B242" s="106">
         <v>1</v>
@@ -29403,7 +29424,7 @@
     </row>
     <row r="243" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A243" s="105" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B243" s="106">
         <v>0</v>
@@ -29415,7 +29436,7 @@
     </row>
     <row r="244" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A244" s="105" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B244" s="106">
         <v>2</v>
@@ -29427,7 +29448,7 @@
     </row>
     <row r="245" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A245" s="105" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B245" s="106">
         <v>1</v>
@@ -29439,7 +29460,7 @@
     </row>
     <row r="246" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A246" s="105" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B246" s="106">
         <v>5</v>
@@ -29451,7 +29472,7 @@
     </row>
     <row r="247" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A247" s="105" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B247" s="106">
         <v>9</v>
@@ -29463,7 +29484,7 @@
     </row>
     <row r="248" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A248" s="105" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B248" s="106">
         <v>4</v>
@@ -29475,7 +29496,7 @@
     </row>
     <row r="249" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A249" s="105" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B249" s="106">
         <v>3</v>

--- a/文档/其他文档/Others/Sports/The stats of Fernando Alonso in Formula One.xlsx
+++ b/文档/其他文档/Others/Sports/The stats of Fernando Alonso in Formula One.xlsx
@@ -1397,10 +1397,6 @@
     <t>Turkey</t>
   </si>
   <si>
-    <t>Nov 20th 2022 Abu Dhabi F1 GP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Alpine A522</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1926,6 +1922,10 @@
   </si>
   <si>
     <t>Nov 5th 2023 Sao Paulo F1 GP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nov 26th 2023 Abu Dhabi F1 GP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2783,6 +2783,9 @@
                 <c:pt idx="18">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2798,11 +2801,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="74351744"/>
-        <c:axId val="74353280"/>
+        <c:axId val="78152832"/>
+        <c:axId val="78154368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74351744"/>
+        <c:axId val="78152832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2812,7 +2815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74353280"/>
+        <c:crossAx val="78154368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2820,7 +2823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74353280"/>
+        <c:axId val="78154368"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2831,7 +2834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74351744"/>
+        <c:crossAx val="78152832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2883,6 +2886,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3068,11 +3072,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="74642176"/>
-        <c:axId val="74643712"/>
+        <c:axId val="80016128"/>
+        <c:axId val="80017664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74642176"/>
+        <c:axId val="80016128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3082,7 +3086,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74643712"/>
+        <c:crossAx val="80017664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3090,7 +3094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74643712"/>
+        <c:axId val="80017664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3101,13 +3105,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74642176"/>
+        <c:crossAx val="80016128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3157,6 +3162,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3406,11 +3412,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="74667520"/>
-        <c:axId val="74669056"/>
+        <c:axId val="80041472"/>
+        <c:axId val="80043008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74667520"/>
+        <c:axId val="80041472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3420,7 +3426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74669056"/>
+        <c:crossAx val="80043008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3428,7 +3434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74669056"/>
+        <c:axId val="80043008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3439,13 +3445,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74667520"/>
+        <c:crossAx val="80041472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3768,11 +3775,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="74689536"/>
-        <c:axId val="77136640"/>
+        <c:axId val="80059392"/>
+        <c:axId val="80937728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74689536"/>
+        <c:axId val="80059392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3782,7 +3789,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77136640"/>
+        <c:crossAx val="80937728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3790,7 +3797,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77136640"/>
+        <c:axId val="80937728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3801,7 +3808,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74689536"/>
+        <c:crossAx val="80059392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4088,11 +4095,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="77177984"/>
-        <c:axId val="77179520"/>
+        <c:axId val="80979072"/>
+        <c:axId val="80980608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77177984"/>
+        <c:axId val="80979072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4102,7 +4109,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77179520"/>
+        <c:crossAx val="80980608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4110,7 +4117,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77179520"/>
+        <c:axId val="80980608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4121,7 +4128,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77177984"/>
+        <c:crossAx val="80979072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4172,6 +4179,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4339,6 +4347,9 @@
                 <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4354,11 +4365,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76131328"/>
-        <c:axId val="76690176"/>
+        <c:axId val="78752768"/>
+        <c:axId val="80491264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76131328"/>
+        <c:axId val="78752768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4368,7 +4379,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76690176"/>
+        <c:crossAx val="80491264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4376,7 +4387,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76690176"/>
+        <c:axId val="80491264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4387,13 +4398,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76131328"/>
+        <c:crossAx val="78752768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4443,6 +4455,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4698,11 +4711,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="76718080"/>
-        <c:axId val="76719616"/>
+        <c:axId val="80519168"/>
+        <c:axId val="80520704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76718080"/>
+        <c:axId val="80519168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4712,7 +4725,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76719616"/>
+        <c:crossAx val="80520704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4720,7 +4733,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76719616"/>
+        <c:axId val="80520704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4731,13 +4744,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76718080"/>
+        <c:crossAx val="80519168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4787,6 +4801,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5060,11 +5075,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="76155904"/>
-        <c:axId val="76161792"/>
+        <c:axId val="80219136"/>
+        <c:axId val="80225024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76155904"/>
+        <c:axId val="80219136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5074,7 +5089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76161792"/>
+        <c:crossAx val="80225024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5082,7 +5097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76161792"/>
+        <c:axId val="80225024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5093,13 +5108,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76155904"/>
+        <c:crossAx val="80219136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5380,11 +5396,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="76178944"/>
-        <c:axId val="76180480"/>
+        <c:axId val="80242176"/>
+        <c:axId val="80243712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76178944"/>
+        <c:axId val="80242176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5394,7 +5410,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76180480"/>
+        <c:crossAx val="80243712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5402,7 +5418,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76180480"/>
+        <c:axId val="80243712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5413,7 +5429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76178944"/>
+        <c:crossAx val="80242176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5464,6 +5480,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5631,6 +5648,9 @@
                 <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5646,11 +5666,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76337152"/>
-        <c:axId val="76338688"/>
+        <c:axId val="80400384"/>
+        <c:axId val="80401920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76337152"/>
+        <c:axId val="80400384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5660,7 +5680,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76338688"/>
+        <c:crossAx val="80401920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5668,7 +5688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76338688"/>
+        <c:axId val="80401920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5679,13 +5699,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76337152"/>
+        <c:crossAx val="80400384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5735,6 +5756,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5984,11 +6006,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="76358400"/>
-        <c:axId val="76359936"/>
+        <c:axId val="80421632"/>
+        <c:axId val="80423168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76358400"/>
+        <c:axId val="80421632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5998,7 +6020,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76359936"/>
+        <c:crossAx val="80423168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6006,7 +6028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76359936"/>
+        <c:axId val="80423168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6017,13 +6039,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76358400"/>
+        <c:crossAx val="80421632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6343,11 +6366,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="76376320"/>
-        <c:axId val="76398592"/>
+        <c:axId val="80529280"/>
+        <c:axId val="80439168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76376320"/>
+        <c:axId val="80529280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6357,7 +6380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76398592"/>
+        <c:crossAx val="80439168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6365,7 +6388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76398592"/>
+        <c:axId val="80439168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6376,7 +6399,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76376320"/>
+        <c:crossAx val="80529280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6663,11 +6686,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="76810880"/>
-        <c:axId val="76837248"/>
+        <c:axId val="80636160"/>
+        <c:axId val="80637952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76810880"/>
+        <c:axId val="80636160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6677,7 +6700,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76837248"/>
+        <c:crossAx val="80637952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6685,7 +6708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76837248"/>
+        <c:axId val="80637952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6696,7 +6719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76810880"/>
+        <c:crossAx val="80636160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16947,7 +16970,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="114">
-        <v>2061</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -16955,7 +16978,7 @@
         <v>58</v>
       </c>
       <c r="B13" s="114">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -16963,7 +16986,7 @@
         <v>59</v>
       </c>
       <c r="B14" s="114">
-        <v>19133</v>
+        <v>20368</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -16975,15 +16998,15 @@
         <v>42</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>378</v>
+      <c r="B17" s="107" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -16991,7 +17014,7 @@
         <v>44</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -16999,7 +17022,7 @@
         <v>45</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -17007,7 +17030,7 @@
         <v>46</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -17023,7 +17046,7 @@
         <v>49</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -17031,7 +17054,7 @@
         <v>50</v>
       </c>
       <c r="B23" s="107" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -17137,21 +17160,21 @@
         <v>2024</v>
       </c>
       <c r="B3" s="108" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" s="110" t="s">
         <v>380</v>
       </c>
-      <c r="C3" s="110" t="s">
-        <v>381</v>
-      </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
       <c r="L3" s="110" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M3" s="110">
         <v>14</v>
@@ -17164,13 +17187,17 @@
         <v>2023</v>
       </c>
       <c r="B4" s="108" t="s">
+        <v>379</v>
+      </c>
+      <c r="C4" s="110" t="s">
         <v>380</v>
       </c>
-      <c r="C4" s="110" t="s">
-        <v>381</v>
-      </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="D4" s="110">
+        <v>22</v>
+      </c>
+      <c r="E4" s="110">
+        <v>0</v>
+      </c>
       <c r="F4" s="110">
         <v>3</v>
       </c>
@@ -17180,17 +17207,27 @@
       <c r="H4" s="110">
         <v>8</v>
       </c>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
+      <c r="I4" s="110">
+        <v>0</v>
+      </c>
+      <c r="J4" s="110">
+        <v>1236</v>
+      </c>
+      <c r="K4" s="110">
+        <v>1</v>
+      </c>
       <c r="L4" s="110" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M4" s="110">
         <v>14</v>
       </c>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
+      <c r="N4" s="110">
+        <v>9.36</v>
+      </c>
+      <c r="O4" s="110">
+        <v>206</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -17227,7 +17264,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -17268,7 +17305,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="7">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="K6" s="7">
         <v>0</v>
@@ -17553,7 +17590,7 @@
         <v>1076</v>
       </c>
       <c r="K12" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" s="17" t="s">
         <v>87</v>
@@ -18091,7 +18128,7 @@
       </c>
       <c r="D24" s="18">
         <f t="shared" ref="D24:K24" si="0">SUM(D2:D23)</f>
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="E24" s="18">
         <f t="shared" si="0"/>
@@ -18115,21 +18152,21 @@
       </c>
       <c r="J24" s="18">
         <f t="shared" si="0"/>
-        <v>19133</v>
+        <v>20368</v>
       </c>
       <c r="K24" s="18">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
       <c r="N24" s="19">
-        <f>SUM(N2:N23)/19</f>
-        <v>5.7494736842105256</v>
+        <f>SUM(N2:N23)/20</f>
+        <v>5.93</v>
       </c>
       <c r="O24" s="18">
         <f>SUM(O2:O23)</f>
-        <v>2061</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -18313,7 +18350,9 @@
       <c r="A51" s="2">
         <v>2023</v>
       </c>
-      <c r="B51" s="20"/>
+      <c r="B51" s="20">
+        <v>4</v>
+      </c>
     </row>
     <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
@@ -18493,7 +18532,7 @@
         <v>2012</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>139</v>
@@ -18531,7 +18570,7 @@
         <v>2012</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>146</v>
@@ -18569,7 +18608,7 @@
         <v>2012</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>115</v>
@@ -18607,7 +18646,7 @@
         <v>2011</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>135</v>
@@ -18645,7 +18684,7 @@
         <v>2010</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>171</v>
@@ -18683,7 +18722,7 @@
         <v>2010</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>155</v>
@@ -18721,7 +18760,7 @@
         <v>2010</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>152</v>
@@ -18759,7 +18798,7 @@
         <v>2010</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>139</v>
@@ -18797,7 +18836,7 @@
         <v>2010</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>118</v>
@@ -18835,7 +18874,7 @@
         <v>2008</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>161</v>
@@ -18873,7 +18912,7 @@
         <v>2008</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>154</v>
@@ -18911,7 +18950,7 @@
         <v>2007</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>152</v>
@@ -18949,7 +18988,7 @@
         <v>2007</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>144</v>
@@ -18987,7 +19026,7 @@
         <v>2007</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>126</v>
@@ -19025,7 +19064,7 @@
         <v>2007</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>114</v>
@@ -19063,7 +19102,7 @@
         <v>2006</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>157</v>
@@ -19101,7 +19140,7 @@
         <v>2006</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>131</v>
@@ -19139,7 +19178,7 @@
         <v>2006</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>135</v>
@@ -19177,7 +19216,7 @@
         <v>2006</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>125</v>
@@ -19215,7 +19254,7 @@
         <v>2006</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>119</v>
@@ -19253,7 +19292,7 @@
         <v>2006</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>111</v>
@@ -19291,7 +19330,7 @@
         <v>2006</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>117</v>
@@ -19329,7 +19368,7 @@
         <v>2005</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>163</v>
@@ -19367,7 +19406,7 @@
         <v>2005</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>139</v>
@@ -19405,7 +19444,7 @@
         <v>2005</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>133</v>
@@ -19443,7 +19482,7 @@
         <v>2005</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>144</v>
@@ -19481,7 +19520,7 @@
         <v>2005</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>178</v>
@@ -19519,7 +19558,7 @@
         <v>2005</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>116</v>
@@ -19557,7 +19596,7 @@
         <v>2005</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>114</v>
@@ -19595,7 +19634,7 @@
         <v>2003</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>149</v>
@@ -19732,7 +19771,7 @@
         <v>32</v>
       </c>
       <c r="C41" s="71" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="18" x14ac:dyDescent="0.25">
@@ -19744,7 +19783,7 @@
         <v>16</v>
       </c>
       <c r="C42" s="71" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="18" x14ac:dyDescent="0.25">
@@ -19756,7 +19795,7 @@
         <v>19</v>
       </c>
       <c r="C43" s="71" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.15">
@@ -19933,7 +19972,9 @@
       <c r="A65" s="2">
         <v>2023</v>
       </c>
-      <c r="B65" s="20"/>
+      <c r="B65" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
@@ -19943,7 +19984,7 @@
     </row>
     <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>55</v>
@@ -19975,7 +20016,7 @@
     </row>
     <row r="72" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B72" s="20">
         <v>0</v>
@@ -20179,7 +20220,7 @@
     </row>
     <row r="89" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B89" s="20">
         <v>0</v>
@@ -20275,7 +20316,7 @@
     </row>
     <row r="97" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B97" s="20">
         <v>1</v>
@@ -20347,7 +20388,7 @@
     </row>
     <row r="103" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B103" s="20">
         <v>0</v>
@@ -20619,7 +20660,7 @@
     </row>
     <row r="128" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B128" s="20">
         <v>0</v>
@@ -20643,7 +20684,7 @@
     </row>
     <row r="130" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B130" s="20">
         <v>0</v>
@@ -21164,7 +21205,7 @@
     </row>
     <row r="176" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A176" s="98" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B176" s="100">
         <v>0</v>
@@ -21278,7 +21319,7 @@
         <v>2012</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>139</v>
@@ -21321,7 +21362,7 @@
         <v>2012</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>135</v>
@@ -21364,7 +21405,7 @@
         <v>2010</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>154</v>
@@ -21407,7 +21448,7 @@
         <v>2010</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>153</v>
@@ -21450,7 +21491,7 @@
         <v>2009</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>148</v>
@@ -21493,7 +21534,7 @@
         <v>2007</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>152</v>
@@ -21536,7 +21577,7 @@
         <v>2007</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>128</v>
@@ -21579,7 +21620,7 @@
         <v>2006</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>164</v>
@@ -21622,7 +21663,7 @@
         <v>2006</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>132</v>
@@ -21665,7 +21706,7 @@
         <v>2006</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>135</v>
@@ -21708,7 +21749,7 @@
         <v>2006</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>127</v>
@@ -21751,7 +21792,7 @@
         <v>2006</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>121</v>
@@ -21794,7 +21835,7 @@
         <v>2006</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>145</v>
@@ -21837,7 +21878,7 @@
         <v>2005</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>164</v>
@@ -21880,7 +21921,7 @@
         <v>2005</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>166</v>
@@ -21923,7 +21964,7 @@
         <v>2005</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>136</v>
@@ -21966,7 +22007,7 @@
         <v>2005</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>134</v>
@@ -22009,7 +22050,7 @@
         <v>2005</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>118</v>
@@ -22050,7 +22091,7 @@
         <v>2005</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>115</v>
@@ -22091,7 +22132,7 @@
         <v>2004</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>134</v>
@@ -22132,7 +22173,7 @@
         <v>2003</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>148</v>
@@ -22173,7 +22214,7 @@
         <v>2003</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>114</v>
@@ -22310,7 +22351,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="71" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D30" s="71"/>
       <c r="E30" s="71"/>
@@ -22326,7 +22367,7 @@
         <v>13</v>
       </c>
       <c r="C31" s="71" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D31" s="71"/>
       <c r="E31" s="71"/>
@@ -22342,7 +22383,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="71" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D32" s="71"/>
       <c r="E32" s="71"/>
@@ -22513,7 +22554,9 @@
       <c r="A54" s="2">
         <v>2023</v>
       </c>
-      <c r="B54" s="20"/>
+      <c r="B54" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -22523,7 +22566,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>235</v>
@@ -22555,7 +22598,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B60" s="20">
         <v>0</v>
@@ -22759,7 +22802,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B77" s="20">
         <v>0</v>
@@ -22851,7 +22894,7 @@
     </row>
     <row r="85" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B85" s="20">
         <v>0</v>
@@ -22911,7 +22954,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B90" s="20">
         <v>0</v>
@@ -23184,7 +23227,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B115" s="20">
         <v>0</v>
@@ -23205,7 +23248,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B117" s="20">
         <v>0</v>
@@ -23726,7 +23769,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="102" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B163" s="104">
         <v>0</v>
@@ -23753,7 +23796,7 @@
   <dimension ref="A1:M249"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23837,22 +23880,22 @@
         <v>2023</v>
       </c>
       <c r="C3" s="116" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D3" s="116" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E3" s="116">
         <v>14</v>
       </c>
       <c r="F3" s="108" t="s">
+        <v>379</v>
+      </c>
+      <c r="G3" s="116" t="s">
         <v>380</v>
       </c>
-      <c r="G3" s="116" t="s">
+      <c r="H3" s="116" t="s">
         <v>381</v>
-      </c>
-      <c r="H3" s="116" t="s">
-        <v>382</v>
       </c>
       <c r="I3" s="116">
         <v>4</v>
@@ -23876,22 +23919,22 @@
         <v>2023</v>
       </c>
       <c r="C4" s="116" t="s">
+        <v>527</v>
+      </c>
+      <c r="D4" s="116" t="s">
         <v>528</v>
-      </c>
-      <c r="D4" s="116" t="s">
-        <v>529</v>
       </c>
       <c r="E4" s="116">
         <v>14</v>
       </c>
       <c r="F4" s="108" t="s">
+        <v>379</v>
+      </c>
+      <c r="G4" s="116" t="s">
         <v>380</v>
       </c>
-      <c r="G4" s="116" t="s">
+      <c r="H4" s="116" t="s">
         <v>381</v>
-      </c>
-      <c r="H4" s="116" t="s">
-        <v>382</v>
       </c>
       <c r="I4" s="116">
         <v>5</v>
@@ -23915,22 +23958,22 @@
         <v>2023</v>
       </c>
       <c r="C5" s="116" t="s">
+        <v>525</v>
+      </c>
+      <c r="D5" s="116" t="s">
         <v>526</v>
-      </c>
-      <c r="D5" s="116" t="s">
-        <v>527</v>
       </c>
       <c r="E5" s="116">
         <v>14</v>
       </c>
       <c r="F5" s="108" t="s">
+        <v>379</v>
+      </c>
+      <c r="G5" s="116" t="s">
         <v>380</v>
       </c>
-      <c r="G5" s="116" t="s">
+      <c r="H5" s="116" t="s">
         <v>381</v>
-      </c>
-      <c r="H5" s="116" t="s">
-        <v>382</v>
       </c>
       <c r="I5" s="116">
         <v>2</v>
@@ -23954,22 +23997,22 @@
         <v>2023</v>
       </c>
       <c r="C6" s="116" t="s">
+        <v>518</v>
+      </c>
+      <c r="D6" s="116" t="s">
         <v>519</v>
-      </c>
-      <c r="D6" s="116" t="s">
-        <v>520</v>
       </c>
       <c r="E6" s="116">
         <v>14</v>
       </c>
       <c r="F6" s="108" t="s">
+        <v>379</v>
+      </c>
+      <c r="G6" s="116" t="s">
         <v>380</v>
       </c>
-      <c r="G6" s="116" t="s">
+      <c r="H6" s="116" t="s">
         <v>381</v>
-      </c>
-      <c r="H6" s="116" t="s">
-        <v>382</v>
       </c>
       <c r="I6" s="116">
         <v>2</v>
@@ -23993,22 +24036,22 @@
         <v>2023</v>
       </c>
       <c r="C7" s="116" t="s">
+        <v>516</v>
+      </c>
+      <c r="D7" s="116" t="s">
         <v>517</v>
-      </c>
-      <c r="D7" s="116" t="s">
-        <v>518</v>
       </c>
       <c r="E7" s="116">
         <v>14</v>
       </c>
       <c r="F7" s="108" t="s">
+        <v>379</v>
+      </c>
+      <c r="G7" s="116" t="s">
         <v>380</v>
       </c>
-      <c r="G7" s="116" t="s">
+      <c r="H7" s="116" t="s">
         <v>381</v>
-      </c>
-      <c r="H7" s="116" t="s">
-        <v>382</v>
       </c>
       <c r="I7" s="116">
         <v>2</v>
@@ -24032,7 +24075,7 @@
         <v>2023</v>
       </c>
       <c r="C8" s="116" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D8" s="116" t="s">
         <v>111</v>
@@ -24041,13 +24084,13 @@
         <v>14</v>
       </c>
       <c r="F8" s="108" t="s">
+        <v>379</v>
+      </c>
+      <c r="G8" s="116" t="s">
         <v>380</v>
       </c>
-      <c r="G8" s="116" t="s">
+      <c r="H8" s="116" t="s">
         <v>381</v>
-      </c>
-      <c r="H8" s="116" t="s">
-        <v>382</v>
       </c>
       <c r="I8" s="116">
         <v>4</v>
@@ -24071,22 +24114,22 @@
         <v>2023</v>
       </c>
       <c r="C9" s="116" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D9" s="116" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E9" s="116">
         <v>14</v>
       </c>
       <c r="F9" s="108" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G9" s="116" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H9" s="116" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I9" s="116">
         <v>2</v>
@@ -24110,7 +24153,7 @@
         <v>2023</v>
       </c>
       <c r="C10" s="116" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D10" s="116" t="s">
         <v>116</v>
@@ -24119,13 +24162,13 @@
         <v>14</v>
       </c>
       <c r="F10" s="108" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G10" s="116" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H10" s="116" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I10" s="116">
         <v>5</v>
@@ -24269,7 +24312,7 @@
         <v>64</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E14" s="23">
         <v>3</v>
@@ -24461,7 +24504,7 @@
         <v>2013</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>131</v>
@@ -24617,7 +24660,7 @@
         <v>2012</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>170</v>
@@ -24656,7 +24699,7 @@
         <v>2012</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>180</v>
@@ -24695,7 +24738,7 @@
         <v>2012</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>177</v>
@@ -24734,7 +24777,7 @@
         <v>2012</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>175</v>
@@ -24773,7 +24816,7 @@
         <v>2012</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>173</v>
@@ -24812,7 +24855,7 @@
         <v>2012</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>154</v>
@@ -24851,7 +24894,7 @@
         <v>2012</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>152</v>
@@ -24890,7 +24933,7 @@
         <v>2012</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>142</v>
@@ -24929,7 +24972,7 @@
         <v>2012</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>138</v>
@@ -24968,7 +25011,7 @@
         <v>2012</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>147</v>
@@ -25007,7 +25050,7 @@
         <v>2012</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>130</v>
@@ -25046,7 +25089,7 @@
         <v>2012</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>120</v>
@@ -25085,7 +25128,7 @@
         <v>2012</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>115</v>
@@ -25124,7 +25167,7 @@
         <v>2011</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>176</v>
@@ -25163,7 +25206,7 @@
         <v>2011</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>174</v>
@@ -25202,7 +25245,7 @@
         <v>2011</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>160</v>
@@ -25241,7 +25284,7 @@
         <v>2011</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>152</v>
@@ -25280,7 +25323,7 @@
         <v>2011</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>148</v>
@@ -25319,7 +25362,7 @@
         <v>2011</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>143</v>
@@ -25358,7 +25401,7 @@
         <v>2011</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>136</v>
@@ -25397,7 +25440,7 @@
         <v>2011</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>146</v>
@@ -25436,7 +25479,7 @@
         <v>2011</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>130</v>
@@ -25475,7 +25518,7 @@
         <v>2011</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>124</v>
@@ -25514,7 +25557,7 @@
         <v>2010</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>170</v>
@@ -25553,7 +25596,7 @@
         <v>2010</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>172</v>
@@ -25592,7 +25635,7 @@
         <v>2010</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>159</v>
@@ -25631,7 +25674,7 @@
         <v>2010</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>154</v>
@@ -25670,7 +25713,7 @@
         <v>2010</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>152</v>
@@ -25709,7 +25752,7 @@
         <v>2010</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>148</v>
@@ -25748,7 +25791,7 @@
         <v>2010</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D52" s="24" t="s">
         <v>141</v>
@@ -25787,7 +25830,7 @@
         <v>2010</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>131</v>
@@ -25826,7 +25869,7 @@
         <v>2010</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D54" s="24" t="s">
         <v>120</v>
@@ -25865,7 +25908,7 @@
         <v>2010</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>117</v>
@@ -25904,7 +25947,7 @@
         <v>2009</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D56" s="26" t="s">
         <v>156</v>
@@ -25943,7 +25986,7 @@
         <v>2008</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D57" s="26" t="s">
         <v>169</v>
@@ -25982,7 +26025,7 @@
         <v>2008</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D58" s="26" t="s">
         <v>162</v>
@@ -26021,7 +26064,7 @@
         <v>2008</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D59" s="26" t="s">
         <v>154</v>
@@ -26060,7 +26103,7 @@
         <v>2007</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D60" s="28" t="s">
         <v>168</v>
@@ -26099,7 +26142,7 @@
         <v>2007</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D61" s="28" t="s">
         <v>165</v>
@@ -26138,7 +26181,7 @@
         <v>2007</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D62" s="28" t="s">
         <v>151</v>
@@ -26177,7 +26220,7 @@
         <v>2007</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D63" s="28" t="s">
         <v>153</v>
@@ -26216,7 +26259,7 @@
         <v>2007</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D64" s="28" t="s">
         <v>123</v>
@@ -26255,7 +26298,7 @@
         <v>2007</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D65" s="28" t="s">
         <v>144</v>
@@ -26294,7 +26337,7 @@
         <v>2007</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D66" s="28" t="s">
         <v>137</v>
@@ -26333,7 +26376,7 @@
         <v>2007</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D67" s="28" t="s">
         <v>179</v>
@@ -26372,7 +26415,7 @@
         <v>2007</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D68" s="28" t="s">
         <v>128</v>
@@ -26411,7 +26454,7 @@
         <v>2007</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D69" s="28" t="s">
         <v>120</v>
@@ -26450,7 +26493,7 @@
         <v>2007</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D70" s="28" t="s">
         <v>114</v>
@@ -26489,7 +26532,7 @@
         <v>2007</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D71" s="28" t="s">
         <v>112</v>
@@ -26528,7 +26571,7 @@
         <v>2006</v>
       </c>
       <c r="C72" s="92" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D72" s="92" t="s">
         <v>167</v>
@@ -26567,7 +26610,7 @@
         <v>2006</v>
       </c>
       <c r="C73" s="92" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D73" s="92" t="s">
         <v>159</v>
@@ -26606,7 +26649,7 @@
         <v>2006</v>
       </c>
       <c r="C74" s="92" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D74" s="92" t="s">
         <v>164</v>
@@ -26645,7 +26688,7 @@
         <v>2006</v>
       </c>
       <c r="C75" s="92" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D75" s="92" t="s">
         <v>122</v>
@@ -26684,7 +26727,7 @@
         <v>2006</v>
       </c>
       <c r="C76" s="92" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D76" s="92" t="s">
         <v>133</v>
@@ -26723,7 +26766,7 @@
         <v>2006</v>
       </c>
       <c r="C77" s="92" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D77" s="92" t="s">
         <v>131</v>
@@ -26762,7 +26805,7 @@
         <v>2006</v>
       </c>
       <c r="C78" s="92" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D78" s="92" t="s">
         <v>135</v>
@@ -26801,7 +26844,7 @@
         <v>2006</v>
       </c>
       <c r="C79" s="92" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D79" s="92" t="s">
         <v>129</v>
@@ -26840,7 +26883,7 @@
         <v>2006</v>
       </c>
       <c r="C80" s="92" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D80" s="92" t="s">
         <v>120</v>
@@ -26879,7 +26922,7 @@
         <v>2006</v>
       </c>
       <c r="C81" s="92" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D81" s="92" t="s">
         <v>145</v>
@@ -26918,7 +26961,7 @@
         <v>2006</v>
       </c>
       <c r="C82" s="92" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D82" s="92" t="s">
         <v>178</v>
@@ -26957,7 +27000,7 @@
         <v>2006</v>
       </c>
       <c r="C83" s="92" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D83" s="92" t="s">
         <v>112</v>
@@ -26996,7 +27039,7 @@
         <v>2006</v>
       </c>
       <c r="C84" s="92" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D84" s="92" t="s">
         <v>115</v>
@@ -27035,7 +27078,7 @@
         <v>2006</v>
       </c>
       <c r="C85" s="92" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D85" s="92" t="s">
         <v>117</v>
@@ -27074,7 +27117,7 @@
         <v>2005</v>
       </c>
       <c r="C86" s="92" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D86" s="92" t="s">
         <v>163</v>
@@ -27113,7 +27156,7 @@
         <v>2005</v>
       </c>
       <c r="C87" s="92" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D87" s="92" t="s">
         <v>158</v>
@@ -27152,7 +27195,7 @@
         <v>2005</v>
       </c>
       <c r="C88" s="92" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D88" s="92" t="s">
         <v>167</v>
@@ -27191,7 +27234,7 @@
         <v>2005</v>
       </c>
       <c r="C89" s="92" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D89" s="92" t="s">
         <v>150</v>
@@ -27230,7 +27273,7 @@
         <v>2005</v>
       </c>
       <c r="C90" s="92" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D90" s="92" t="s">
         <v>152</v>
@@ -27269,7 +27312,7 @@
         <v>2005</v>
       </c>
       <c r="C91" s="92" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D91" s="92" t="s">
         <v>122</v>
@@ -27308,7 +27351,7 @@
         <v>2005</v>
       </c>
       <c r="C92" s="92" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D92" s="92" t="s">
         <v>140</v>
@@ -27347,7 +27390,7 @@
         <v>2005</v>
       </c>
       <c r="C93" s="92" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D93" s="92" t="s">
         <v>137</v>
@@ -27386,7 +27429,7 @@
         <v>2005</v>
       </c>
       <c r="C94" s="92" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D94" s="92" t="s">
         <v>133</v>
@@ -27425,7 +27468,7 @@
         <v>2005</v>
       </c>
       <c r="C95" s="92" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D95" s="92" t="s">
         <v>144</v>
@@ -27464,7 +27507,7 @@
         <v>2005</v>
       </c>
       <c r="C96" s="92" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D96" s="92" t="s">
         <v>120</v>
@@ -27503,7 +27546,7 @@
         <v>2005</v>
       </c>
       <c r="C97" s="92" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D97" s="92" t="s">
         <v>178</v>
@@ -27542,7 +27585,7 @@
         <v>2005</v>
       </c>
       <c r="C98" s="92" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D98" s="92" t="s">
         <v>117</v>
@@ -27581,7 +27624,7 @@
         <v>2005</v>
       </c>
       <c r="C99" s="92" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D99" s="92" t="s">
         <v>115</v>
@@ -27620,7 +27663,7 @@
         <v>2005</v>
       </c>
       <c r="C100" s="92" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D100" s="92" t="s">
         <v>112</v>
@@ -27659,7 +27702,7 @@
         <v>2004</v>
       </c>
       <c r="C101" s="92" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D101" s="92" t="s">
         <v>148</v>
@@ -27698,7 +27741,7 @@
         <v>2004</v>
       </c>
       <c r="C102" s="92" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D102" s="92" t="s">
         <v>140</v>
@@ -27737,7 +27780,7 @@
         <v>2004</v>
       </c>
       <c r="C103" s="92" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D103" s="92" t="s">
         <v>133</v>
@@ -27776,7 +27819,7 @@
         <v>2004</v>
       </c>
       <c r="C104" s="92" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D104" s="92" t="s">
         <v>112</v>
@@ -27815,7 +27858,7 @@
         <v>2003</v>
       </c>
       <c r="C105" s="92" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D105" s="92" t="s">
         <v>148</v>
@@ -27854,7 +27897,7 @@
         <v>2003</v>
       </c>
       <c r="C106" s="92" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D106" s="92" t="s">
         <v>120</v>
@@ -27893,7 +27936,7 @@
         <v>2003</v>
       </c>
       <c r="C107" s="92" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D107" s="92" t="s">
         <v>167</v>
@@ -27932,7 +27975,7 @@
         <v>2003</v>
       </c>
       <c r="C108" s="93" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D108" s="93" t="s">
         <v>115</v>
@@ -28030,7 +28073,7 @@
       <c r="D112" s="6"/>
       <c r="E112" s="7"/>
       <c r="F112" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
@@ -28050,7 +28093,7 @@
       <c r="D113" s="107"/>
       <c r="E113" s="110"/>
       <c r="F113" s="107" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G113" s="110"/>
       <c r="H113" s="110"/>
@@ -28084,7 +28127,7 @@
         <v>25</v>
       </c>
       <c r="C116" s="71" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="18" x14ac:dyDescent="0.25">
@@ -28096,7 +28139,7 @@
         <v>30</v>
       </c>
       <c r="C117" s="71" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="18" x14ac:dyDescent="0.15">
@@ -28287,7 +28330,7 @@
     </row>
     <row r="143" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B143" s="21" t="s">
         <v>236</v>
@@ -28319,7 +28362,7 @@
     </row>
     <row r="146" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B146" s="20">
         <v>0</v>
@@ -28367,7 +28410,7 @@
     </row>
     <row r="150" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B150" s="20">
         <v>9</v>
@@ -28523,7 +28566,7 @@
     </row>
     <row r="163" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B163" s="20">
         <v>0</v>
@@ -28616,7 +28659,7 @@
     </row>
     <row r="171" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B171" s="20">
         <v>2</v>
@@ -28676,7 +28719,7 @@
     </row>
     <row r="176" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B176" s="20">
         <v>2</v>
@@ -28948,7 +28991,7 @@
     </row>
     <row r="201" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B201" s="20">
         <v>0</v>
@@ -28972,7 +29015,7 @@
     </row>
     <row r="203" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B203" s="20">
         <v>1</v>
@@ -29388,7 +29431,7 @@
     </row>
     <row r="240" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A240" s="105" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B240" s="106">
         <v>1</v>
@@ -29496,7 +29539,7 @@
     </row>
     <row r="249" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A249" s="105" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B249" s="106">
         <v>3</v>
